--- a/src/documentation/Feature Ranking Documentation.xlsx
+++ b/src/documentation/Feature Ranking Documentation.xlsx
@@ -7,347 +7,86 @@
     <sheet state="visible" name="Ranking Algortihms Documentatio" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feature Documentation'!$A$1:$Z$1000</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Feature Documentation'!$A$1:$H$102</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>FEATURE</t>
   </si>
   <si>
-    <t>unique values</t>
+    <t>Unique values</t>
   </si>
   <si>
-    <t>high cardinality (&gt;1000 unique values)</t>
+    <t>High cardinality (&gt;1000 unique values)</t>
   </si>
   <si>
-    <t>sparse ( one dominant value in &gt;90% samples)</t>
+    <t>Sparsity ( one dominant value in &gt;90% samples)</t>
   </si>
   <si>
     <t>Cluster (feature part of a cluster, meaning in &gt;0.75 correlation with other features)</t>
   </si>
   <si>
-    <t>info_click_valid</t>
+    <t>rig singles</t>
   </si>
   <si>
-    <t>feature0</t>
+    <t>rig first_gen</t>
   </si>
   <si>
-    <t>feature1</t>
-  </si>
-  <si>
-    <t>feature73</t>
-  </si>
-  <si>
-    <t>feature74</t>
-  </si>
-  <si>
-    <t>feature4</t>
-  </si>
-  <si>
-    <t>feature5</t>
-  </si>
-  <si>
-    <t>feature6</t>
-  </si>
-  <si>
-    <t>feature7</t>
-  </si>
-  <si>
-    <t>feature75</t>
-  </si>
-  <si>
-    <t>feature76</t>
-  </si>
-  <si>
-    <t>feature77</t>
-  </si>
-  <si>
-    <t>feature11</t>
-  </si>
-  <si>
-    <t>feature12</t>
-  </si>
-  <si>
-    <t>feature13</t>
-  </si>
-  <si>
-    <t>feature78</t>
-  </si>
-  <si>
-    <t>feature79</t>
-  </si>
-  <si>
-    <t>feature16</t>
-  </si>
-  <si>
-    <t>feature17</t>
-  </si>
-  <si>
-    <t>feature18</t>
-  </si>
-  <si>
-    <t>feature19</t>
-  </si>
-  <si>
-    <t>feature20</t>
-  </si>
-  <si>
-    <t>feature21</t>
-  </si>
-  <si>
-    <t>feature22</t>
-  </si>
-  <si>
-    <t>feature23</t>
-  </si>
-  <si>
-    <t>feature24</t>
-  </si>
-  <si>
-    <t>feature25</t>
-  </si>
-  <si>
-    <t>feature26</t>
-  </si>
-  <si>
-    <t>feature80</t>
-  </si>
-  <si>
-    <t>feature28</t>
-  </si>
-  <si>
-    <t>feature82</t>
-  </si>
-  <si>
-    <t>feature84</t>
-  </si>
-  <si>
-    <t>feature31</t>
-  </si>
-  <si>
-    <t>feature85</t>
-  </si>
-  <si>
-    <t>feature33</t>
-  </si>
-  <si>
-    <t>feature34</t>
-  </si>
-  <si>
-    <t>feature35</t>
-  </si>
-  <si>
-    <t>feature36</t>
-  </si>
-  <si>
-    <t>feature37</t>
-  </si>
-  <si>
-    <t>feature38</t>
-  </si>
-  <si>
-    <t>feature39</t>
-  </si>
-  <si>
-    <t>feature40</t>
-  </si>
-  <si>
-    <t>feature41</t>
-  </si>
-  <si>
-    <t>feature42</t>
-  </si>
-  <si>
-    <t>feature43</t>
-  </si>
-  <si>
-    <t>feature44</t>
-  </si>
-  <si>
-    <t>feature45</t>
-  </si>
-  <si>
-    <t>feature46</t>
-  </si>
-  <si>
-    <t>feature47</t>
-  </si>
-  <si>
-    <t>feature86</t>
-  </si>
-  <si>
-    <t>feature87</t>
-  </si>
-  <si>
-    <t>feature88</t>
-  </si>
-  <si>
-    <t>feature51</t>
-  </si>
-  <si>
-    <t>feature52</t>
-  </si>
-  <si>
-    <t>feature53</t>
-  </si>
-  <si>
-    <t>feature54</t>
-  </si>
-  <si>
-    <t>feature55</t>
-  </si>
-  <si>
-    <t>feature56</t>
-  </si>
-  <si>
-    <t>feature57</t>
-  </si>
-  <si>
-    <t>feature58</t>
-  </si>
-  <si>
-    <t>feature59</t>
-  </si>
-  <si>
-    <t>feature60</t>
-  </si>
-  <si>
-    <t>feature61</t>
-  </si>
-  <si>
-    <t>feature62</t>
-  </si>
-  <si>
-    <t>feature63</t>
-  </si>
-  <si>
-    <t>feature64</t>
-  </si>
-  <si>
-    <t>feature65</t>
-  </si>
-  <si>
-    <t>feature66</t>
-  </si>
-  <si>
-    <t>feature67</t>
-  </si>
-  <si>
-    <t>feature68</t>
-  </si>
-  <si>
-    <t>feature69</t>
-  </si>
-  <si>
-    <t>feature70</t>
-  </si>
-  <si>
-    <t>feature71</t>
-  </si>
-  <si>
-    <t>feature72</t>
-  </si>
-  <si>
-    <t>feature89</t>
-  </si>
-  <si>
-    <t>feature32</t>
-  </si>
-  <si>
-    <t>feature90</t>
-  </si>
-  <si>
-    <t>feature91</t>
-  </si>
-  <si>
-    <t>feature98</t>
-  </si>
-  <si>
-    <t>feature99</t>
-  </si>
-  <si>
-    <t>feature2</t>
-  </si>
-  <si>
-    <t>feature3</t>
-  </si>
-  <si>
-    <t>feature10</t>
-  </si>
-  <si>
-    <t>feature49</t>
-  </si>
-  <si>
-    <t>feature50</t>
-  </si>
-  <si>
-    <t>feature8</t>
-  </si>
-  <si>
-    <t>feature9</t>
-  </si>
-  <si>
-    <t>feature29</t>
-  </si>
-  <si>
-    <t>feature30</t>
-  </si>
-  <si>
-    <t>feature81</t>
-  </si>
-  <si>
-    <t>feature83</t>
-  </si>
-  <si>
-    <t>feature27</t>
-  </si>
-  <si>
-    <t>feature48</t>
-  </si>
-  <si>
-    <t>feature92</t>
-  </si>
-  <si>
-    <t>feature93</t>
-  </si>
-  <si>
-    <t>feature94</t>
-  </si>
-  <si>
-    <t>feature95</t>
-  </si>
-  <si>
-    <t>feature96</t>
-  </si>
-  <si>
-    <t>feature97</t>
-  </si>
-  <si>
-    <t>feature14</t>
-  </si>
-  <si>
-    <t>feature15</t>
+    <t>info_click_valid</t>
   </si>
   <si>
     <t>Algorithm tested</t>
   </si>
   <si>
-    <t>Score</t>
+    <t>Score (singles, first_gen)</t>
   </si>
   <si>
     <t>notes &amp; observations</t>
+  </si>
+  <si>
+    <t>Mutual information, all data</t>
+  </si>
+  <si>
+    <t>(0.8635530367032218, 0.7392145047450169)</t>
+  </si>
+  <si>
+    <t>Mutual information, all data, top 10 features</t>
+  </si>
+  <si>
+    <t>(0.7004396806244233, 0.6393842363753732)</t>
+  </si>
+  <si>
+    <t>ReliefF, 0.1% of data randomly sampled</t>
+  </si>
+  <si>
+    <t>(0.8224700130720496, 0.744032342866586)</t>
+  </si>
+  <si>
+    <t>ReliefF, 1% of data randomly sampled</t>
+  </si>
+  <si>
+    <t>(0.8370984227548818, 0.733525658248738)</t>
+  </si>
+  <si>
+    <t>ReliefF, 10% of data randomly sampled</t>
+  </si>
+  <si>
+    <t>(0.8514649310560692, 0.7461393376478086)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -371,17 +110,22 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;Helvetica Neue&quot;"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -445,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -461,39 +205,55 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
       <font/>
       <fill>
@@ -510,16 +270,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFF4CCCC"/>
           <bgColor rgb="FFF4CCCC"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
       <border/>
@@ -744,6 +494,7 @@
     <col customWidth="1" min="2" max="2" width="16.38"/>
     <col customWidth="1" min="3" max="3" width="20.5"/>
     <col customWidth="1" min="4" max="4" width="16.5"/>
+    <col customWidth="1" min="6" max="6" width="13.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -759,14 +510,19 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
+      <c r="A2" s="4">
+        <v>98.0</v>
       </c>
       <c r="B2" s="6">
         <v>2.0</v>
@@ -778,13 +534,22 @@
       <c r="D2" s="6">
         <v>0.0</v>
       </c>
+      <c r="E2" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="F2" s="9">
+        <v>0.94</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0.998550282879953</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
+      <c r="A3" s="4">
+        <v>99.0</v>
       </c>
       <c r="B3" s="6">
-        <v>295.0</v>
+        <v>2.0</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" si="1"/>
@@ -793,15 +558,22 @@
       <c r="D3" s="6">
         <v>0.0</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="E3" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.94</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0.998550282879953</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
+      <c r="A4" s="4">
+        <v>3.0</v>
       </c>
       <c r="B4" s="6">
-        <v>2526.0</v>
+        <v>14633.0</v>
       </c>
       <c r="C4" s="7">
         <f t="shared" si="1"/>
@@ -810,15 +582,22 @@
       <c r="D4" s="6">
         <v>0.0</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.763096570342066</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0.238650147201154</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
+      <c r="A5" s="4">
+        <v>29.0</v>
       </c>
       <c r="B5" s="6">
-        <v>23.0</v>
+        <v>51.0</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="1"/>
@@ -828,35 +607,45 @@
         <v>1.0</v>
       </c>
       <c r="E5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="9"/>
+        <v>8.0</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.744694738885608</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0.187370761019425</v>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
+      <c r="A6" s="4">
+        <v>87.0</v>
       </c>
       <c r="B6" s="6">
-        <v>5.0</v>
+        <v>749.0</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D6" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G6" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.741184783827072</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.186470416672814</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
+      <c r="A7" s="4">
+        <v>86.0</v>
       </c>
       <c r="B7" s="6">
-        <v>2.0</v>
+        <v>743.0</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="1"/>
@@ -865,32 +654,46 @@
       <c r="D7" s="6">
         <v>0.0</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="E7" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.741128845343718</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0.186466811988465</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
+      <c r="A8" s="4">
+        <v>9.0</v>
       </c>
       <c r="B8" s="6">
-        <v>2.0</v>
+        <v>3515.0</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="6">
         <v>0.0</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.741479414431251</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0.18645454168679</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
+      <c r="A9" s="4">
+        <v>89.0</v>
       </c>
       <c r="B9" s="6">
-        <v>2.0</v>
+        <v>749.0</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="1"/>
@@ -899,15 +702,22 @@
       <c r="D9" s="6">
         <v>0.0</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.740705184405319</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0.18645454168679</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
+      <c r="A10" s="4">
+        <v>88.0</v>
       </c>
       <c r="B10" s="6">
-        <v>60.0</v>
+        <v>749.0</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="1"/>
@@ -916,72 +726,94 @@
       <c r="D10" s="6">
         <v>0.0</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.740280940367345</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0.18645454168679</v>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
+      <c r="A11" s="4">
+        <v>85.0</v>
       </c>
       <c r="B11" s="6">
-        <v>11.0</v>
+        <v>746.0</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D11" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E11" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.741812651162541</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0.186146428753938</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
+      <c r="A12" s="4">
+        <v>84.0</v>
       </c>
       <c r="B12" s="6">
-        <v>23.0</v>
+        <v>726.0</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D12" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E12" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="9"/>
+        <v>2.0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.740547986202615</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0.18514354666262</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>16</v>
+      <c r="A13" s="4">
+        <v>83.0</v>
       </c>
       <c r="B13" s="6">
-        <v>17.0</v>
+        <v>689.0</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D13" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E13" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G13" s="9"/>
+        <v>9.0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.740833822949908</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0.176185322230955</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="s">
-        <v>17</v>
+      <c r="A14" s="4">
+        <v>82.0</v>
       </c>
       <c r="B14" s="6">
-        <v>39.0</v>
+        <v>532.0</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="1"/>
@@ -990,15 +822,22 @@
       <c r="D14" s="6">
         <v>0.0</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="E14" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.740613043251635</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0.155404593756242</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
+      <c r="A15" s="4">
+        <v>18.0</v>
       </c>
       <c r="B15" s="6">
-        <v>39.0</v>
+        <v>393.0</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="1"/>
@@ -1007,32 +846,42 @@
       <c r="D15" s="6">
         <v>0.0</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9">
+        <v>0.759176024593145</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0.149598984271116</v>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
+      <c r="A16" s="4">
+        <v>1.0</v>
       </c>
       <c r="B16" s="6">
-        <v>3.0</v>
+        <v>2526.0</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="6">
         <v>0.0</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="9">
+        <v>0.748215743402743</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0.147141781022099</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="s">
-        <v>20</v>
+      <c r="A17" s="4">
+        <v>11.0</v>
       </c>
       <c r="B17" s="6">
-        <v>22.0</v>
+        <v>39.0</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="1"/>
@@ -1041,36 +890,44 @@
       <c r="D17" s="6">
         <v>0.0</v>
       </c>
-      <c r="E17" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9">
+        <v>0.740720439436135</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0.144454965241809</v>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="s">
-        <v>21</v>
+      <c r="A18" s="4">
+        <v>10.0</v>
       </c>
       <c r="B18" s="6">
-        <v>23.0</v>
+        <v>12410.0</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E18" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G18" s="9"/>
+        <v>5.0</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.744221981703695</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0.132923543739415</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
+      <c r="A19" s="4">
+        <v>17.0</v>
       </c>
       <c r="B19" s="6">
-        <v>91.0</v>
+        <v>28.0</v>
       </c>
       <c r="C19" s="7">
         <f t="shared" si="1"/>
@@ -1079,32 +936,42 @@
       <c r="D19" s="6">
         <v>0.0</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="G19" s="9"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9">
+        <v>0.741684000432546</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0.101440671294575</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="s">
-        <v>23</v>
+      <c r="A20" s="4">
+        <v>28.0</v>
       </c>
       <c r="B20" s="6">
-        <v>28.0</v>
+        <v>35.0</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="G20" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9">
+        <v>0.754556861717841</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0.0924810560055265</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
+      <c r="A21" s="4">
+        <v>16.0</v>
       </c>
       <c r="B21" s="6">
-        <v>393.0</v>
+        <v>91.0</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="1"/>
@@ -1113,15 +980,20 @@
       <c r="D21" s="6">
         <v>0.0</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="G21" s="9"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="9">
+        <v>0.740241398640367</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0.0913927878867644</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="s">
-        <v>25</v>
+      <c r="A22" s="4">
+        <v>0.0</v>
       </c>
       <c r="B22" s="6">
-        <v>766.0</v>
+        <v>295.0</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="1"/>
@@ -1130,15 +1002,20 @@
       <c r="D22" s="6">
         <v>0.0</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="G22" s="9"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="9">
+        <v>0.740219693124285</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0.0769716906460384</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="s">
-        <v>26</v>
+      <c r="A23" s="4">
+        <v>26.0</v>
       </c>
       <c r="B23" s="6">
-        <v>862.0</v>
+        <v>232.0</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="1"/>
@@ -1147,49 +1024,68 @@
       <c r="D23" s="6">
         <v>0.0</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9">
+        <v>0.751879078329873</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0.0753810186426156</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="s">
-        <v>27</v>
+      <c r="A24" s="4">
+        <v>27.0</v>
       </c>
       <c r="B24" s="6">
-        <v>11547.0</v>
+        <v>64.0</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="6">
         <v>0.0</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="G24" s="9"/>
+      <c r="E24" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.74510552281394</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.0704100835786003</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="s">
-        <v>28</v>
+      <c r="A25" s="4">
+        <v>49.0</v>
       </c>
       <c r="B25" s="6">
-        <v>131.0</v>
+        <v>125584.0</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" s="6">
         <v>0.0</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="G25" s="9"/>
+      <c r="E25" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="F25" s="9">
+        <v>0.740142121457622</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0.0557458306618616</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="s">
-        <v>29</v>
+      <c r="A26" s="4">
+        <v>25.0</v>
       </c>
       <c r="B26" s="6">
-        <v>37.0</v>
+        <v>4.0</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="1"/>
@@ -1198,15 +1094,20 @@
       <c r="D26" s="6">
         <v>0.0</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="G26" s="9"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9">
+        <v>0.741459653321067</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0.0441268881802902</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
-        <v>30</v>
+      <c r="A27" s="4">
+        <v>48.0</v>
       </c>
       <c r="B27" s="6">
-        <v>413.0</v>
+        <v>14.0</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="1"/>
@@ -1215,32 +1116,44 @@
       <c r="D27" s="6">
         <v>0.0</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="G27" s="9"/>
+      <c r="E27" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.739864058621702</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0.0424714879293592</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="s">
-        <v>31</v>
+      <c r="A28" s="4">
+        <v>53.0</v>
       </c>
       <c r="B28" s="6">
-        <v>4.0</v>
+        <v>288986.0</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="6">
         <v>0.0</v>
       </c>
-      <c r="E28" s="9"/>
-      <c r="G28" s="9"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9">
+        <v>0.750405136652986</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.0394166603126876</v>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="s">
-        <v>32</v>
+      <c r="A29" s="4">
+        <v>22.0</v>
       </c>
       <c r="B29" s="6">
-        <v>232.0</v>
+        <v>131.0</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="1"/>
@@ -1249,15 +1162,20 @@
       <c r="D29" s="6">
         <v>0.0</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="G29" s="9"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9">
+        <v>0.751157277423483</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0.0393348458941263</v>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="s">
-        <v>33</v>
+      <c r="A30" s="4">
+        <v>45.0</v>
       </c>
       <c r="B30" s="6">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="1"/>
@@ -1266,34 +1184,42 @@
       <c r="D30" s="6">
         <v>0.0</v>
       </c>
-      <c r="E30" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="G30" s="9"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="9">
+        <v>0.746543762423178</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.0381540846494302</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>34</v>
+      <c r="A31" s="4">
+        <v>38.0</v>
       </c>
       <c r="B31" s="6">
-        <v>35.0</v>
+        <v>459.0</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D31" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="G31" s="9"/>
+        <v>0.0</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="9">
+        <v>0.740661446065883</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0.0380425608897012</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="s">
-        <v>35</v>
+      <c r="A32" s="4">
+        <v>90.0</v>
       </c>
       <c r="B32" s="6">
-        <v>532.0</v>
+        <v>2.0</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="1"/>
@@ -1303,16 +1229,21 @@
         <v>0.0</v>
       </c>
       <c r="E32" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G32" s="9"/>
+        <v>3.0</v>
+      </c>
+      <c r="F32" s="9">
+        <v>0.741125148205752</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.0380418258974892</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="s">
-        <v>36</v>
+      <c r="A33" s="4">
+        <v>91.0</v>
       </c>
       <c r="B33" s="6">
-        <v>726.0</v>
+        <v>3.0</v>
       </c>
       <c r="C33" s="7">
         <f t="shared" si="1"/>
@@ -1322,69 +1253,89 @@
         <v>0.0</v>
       </c>
       <c r="E33" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G33" s="9"/>
+        <v>3.0</v>
+      </c>
+      <c r="F33" s="9">
+        <v>0.740055157245987</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.0379714636465472</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="s">
-        <v>37</v>
+      <c r="A34" s="4">
+        <v>21.0</v>
       </c>
       <c r="B34" s="6">
-        <v>3.0</v>
+        <v>11547.0</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="6">
         <v>0.0</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9">
+        <v>0.739853859555345</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0.037824954987689</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="s">
-        <v>38</v>
+      <c r="A35" s="4">
+        <v>73.0</v>
       </c>
       <c r="B35" s="6">
-        <v>746.0</v>
+        <v>23.0</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D35" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E35" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G35" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0.741525242175239</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.0364820917282723</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="s">
-        <v>39</v>
+      <c r="A36" s="4">
+        <v>44.0</v>
       </c>
       <c r="B36" s="6">
-        <v>250802.0</v>
+        <v>717.0</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="6">
         <v>0.0</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9">
+        <v>0.739831141980946</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.0355495472908289</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="s">
-        <v>40</v>
+      <c r="A37" s="4">
+        <v>24.0</v>
       </c>
       <c r="B37" s="6">
-        <v>100.0</v>
+        <v>413.0</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="1"/>
@@ -1393,49 +1344,66 @@
       <c r="D37" s="6">
         <v>0.0</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9">
+        <v>0.739745560362572</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.0344024722967073</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="s">
-        <v>41</v>
+      <c r="A38" s="4">
+        <v>47.0</v>
       </c>
       <c r="B38" s="6">
-        <v>171.0</v>
+        <v>16648.0</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D38" s="6">
         <v>0.0</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9">
+        <v>0.741638957491895</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0.0340742356918984</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="s">
-        <v>42</v>
+      <c r="A39" s="4">
+        <v>32.0</v>
       </c>
       <c r="B39" s="6">
-        <v>17345.0</v>
+        <v>2.0</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" s="6">
         <v>0.0</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="E39" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0.745982146063207</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0.0333550827191799</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="s">
-        <v>43</v>
+      <c r="A40" s="4">
+        <v>55.0</v>
       </c>
       <c r="B40" s="6">
-        <v>42.0</v>
+        <v>988.0</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="1"/>
@@ -1444,15 +1412,20 @@
       <c r="D40" s="6">
         <v>0.0</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="9">
+        <v>0.748795945673727</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0.0327545775142378</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="s">
-        <v>44</v>
+      <c r="A41" s="4">
+        <v>13.0</v>
       </c>
       <c r="B41" s="6">
-        <v>459.0</v>
+        <v>3.0</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="1"/>
@@ -1461,15 +1434,20 @@
       <c r="D41" s="6">
         <v>0.0</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="9">
+        <v>0.740207651749367</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0.0312610164773748</v>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="s">
-        <v>45</v>
+      <c r="A42" s="4">
+        <v>6.0</v>
       </c>
       <c r="B42" s="6">
-        <v>128.0</v>
+        <v>2.0</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="1"/>
@@ -1478,83 +1456,110 @@
       <c r="D42" s="6">
         <v>0.0</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="9">
+        <v>0.739904259992353</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0.031079688357002</v>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="s">
-        <v>46</v>
+      <c r="A43" s="4">
+        <v>51.0</v>
       </c>
       <c r="B43" s="6">
-        <v>41.0</v>
+        <v>98181.0</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="6">
         <v>0.0</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9">
+        <v>0.739825579849279</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0.0310737323937906</v>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="s">
-        <v>47</v>
+      <c r="A44" s="4">
+        <v>33.0</v>
       </c>
       <c r="B44" s="6">
-        <v>269.0</v>
+        <v>250802.0</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" s="6">
         <v>0.0</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9">
+        <v>0.74131254852375</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0.0309853111647137</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="s">
-        <v>48</v>
+      <c r="A45" s="4">
+        <v>52.0</v>
       </c>
       <c r="B45" s="6">
-        <v>18.0</v>
+        <v>261178.0</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="6">
         <v>0.0</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9">
+        <v>0.739763749617646</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0.0305503524482954</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="s">
-        <v>49</v>
+      <c r="A46" s="4">
+        <v>50.0</v>
       </c>
       <c r="B46" s="6">
-        <v>268.0</v>
+        <v>647413.0</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46" s="6">
         <v>0.0</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="E46" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="F46" s="9">
+        <v>0.747312261909617</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0.0305052684296592</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="s">
-        <v>50</v>
+      <c r="A47" s="4">
+        <v>58.0</v>
       </c>
       <c r="B47" s="6">
-        <v>717.0</v>
+        <v>24.0</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="1"/>
@@ -1563,15 +1568,20 @@
       <c r="D47" s="6">
         <v>0.0</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="G47" s="9"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9">
+        <v>0.741820115814069</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0.0302095151501275</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="s">
-        <v>51</v>
+      <c r="A48" s="4">
+        <v>41.0</v>
       </c>
       <c r="B48" s="6">
-        <v>3.0</v>
+        <v>269.0</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="1"/>
@@ -1580,15 +1590,20 @@
       <c r="D48" s="6">
         <v>0.0</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="G48" s="9"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9">
+        <v>0.740912271381754</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0.0301161064724394</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="s">
-        <v>52</v>
+      <c r="A49" s="4">
+        <v>62.0</v>
       </c>
       <c r="B49" s="6">
-        <v>117.0</v>
+        <v>239.0</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="1"/>
@@ -1597,15 +1612,20 @@
       <c r="D49" s="6">
         <v>0.0</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="G49" s="9"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9">
+        <v>0.745476523954227</v>
+      </c>
+      <c r="G49" s="9">
+        <v>0.0300326365210213</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="s">
-        <v>53</v>
+      <c r="A50" s="4">
+        <v>2.0</v>
       </c>
       <c r="B50" s="6">
-        <v>16648.0</v>
+        <v>39404.0</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="1"/>
@@ -1614,15 +1634,22 @@
       <c r="D50" s="6">
         <v>0.0</v>
       </c>
-      <c r="E50" s="9"/>
-      <c r="G50" s="9"/>
+      <c r="E50" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="F50" s="9">
+        <v>0.763096570342066</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0.0297189739520529</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="s">
-        <v>54</v>
+      <c r="A51" s="4">
+        <v>65.0</v>
       </c>
       <c r="B51" s="6">
-        <v>743.0</v>
+        <v>5.0</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="1"/>
@@ -1631,17 +1658,20 @@
       <c r="D51" s="6">
         <v>0.0</v>
       </c>
-      <c r="E51" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G51" s="9"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9">
+        <v>0.743389860135086</v>
+      </c>
+      <c r="G51" s="9">
+        <v>0.0291883808804943</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="s">
-        <v>55</v>
+      <c r="A52" s="4">
+        <v>43.0</v>
       </c>
       <c r="B52" s="6">
-        <v>749.0</v>
+        <v>268.0</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="1"/>
@@ -1650,17 +1680,20 @@
       <c r="D52" s="6">
         <v>0.0</v>
       </c>
-      <c r="E52" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G52" s="9"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9">
+        <v>0.739791166756819</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0.0288720920673777</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="s">
-        <v>56</v>
+      <c r="A53" s="4">
+        <v>23.0</v>
       </c>
       <c r="B53" s="6">
-        <v>749.0</v>
+        <v>37.0</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="1"/>
@@ -1669,85 +1702,110 @@
       <c r="D53" s="6">
         <v>0.0</v>
       </c>
-      <c r="E53" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G53" s="9"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9">
+        <v>0.752790747399115</v>
+      </c>
+      <c r="G53" s="9">
+        <v>0.0287791493366097</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="s">
-        <v>57</v>
+      <c r="A54" s="4">
+        <v>42.0</v>
       </c>
       <c r="B54" s="6">
-        <v>98181.0</v>
+        <v>18.0</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D54" s="6">
         <v>0.0</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="G54" s="9"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9">
+        <v>0.740475932091405</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0.0287357123094708</v>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="s">
-        <v>58</v>
+      <c r="A55" s="4">
+        <v>34.0</v>
       </c>
       <c r="B55" s="6">
-        <v>261178.0</v>
+        <v>100.0</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" s="6">
         <v>0.0</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="G55" s="9"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9">
+        <v>0.740992871464021</v>
+      </c>
+      <c r="G55" s="9">
+        <v>0.0283730484353459</v>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="s">
-        <v>59</v>
+      <c r="A56" s="4">
+        <v>15.0</v>
       </c>
       <c r="B56" s="6">
-        <v>288986.0</v>
+        <v>48.0</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" s="6">
         <v>0.0</v>
       </c>
-      <c r="E56" s="9"/>
-      <c r="G56" s="9"/>
+      <c r="E56" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="F56" s="9">
+        <v>0.740848227172587</v>
+      </c>
+      <c r="G56" s="9">
+        <v>0.0276265952337153</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="s">
-        <v>60</v>
+      <c r="A57" s="4">
+        <v>46.0</v>
       </c>
       <c r="B57" s="6">
-        <v>1406.0</v>
+        <v>117.0</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D57" s="6">
         <v>0.0</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="G57" s="9"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9">
+        <v>0.743715119047067</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0.0269103567242156</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="s">
-        <v>61</v>
+      <c r="A58" s="4">
+        <v>4.0</v>
       </c>
       <c r="B58" s="6">
-        <v>988.0</v>
+        <v>2.0</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="1"/>
@@ -1756,66 +1814,86 @@
       <c r="D58" s="6">
         <v>0.0</v>
       </c>
-      <c r="E58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="9">
+        <v>0.739754248150703</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0.0266328097093283</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="s">
-        <v>62</v>
+      <c r="A59" s="4">
+        <v>40.0</v>
       </c>
       <c r="B59" s="6">
-        <v>19.0</v>
+        <v>41.0</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D59" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E59" s="9"/>
-      <c r="G59" s="9"/>
+        <v>0.0</v>
+      </c>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9">
+        <v>0.739814967606423</v>
+      </c>
+      <c r="G59" s="9">
+        <v>0.0265813559639231</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="s">
-        <v>63</v>
+      <c r="A60" s="4">
+        <v>59.0</v>
       </c>
       <c r="B60" s="6">
-        <v>96.0</v>
+        <v>34954.0</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D60" s="6">
         <v>0.0</v>
       </c>
-      <c r="E60" s="9"/>
-      <c r="G60" s="9"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="9">
+        <v>0.739831801938552</v>
+      </c>
+      <c r="G60" s="9">
+        <v>0.0263665170456766</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="s">
-        <v>64</v>
+      <c r="A61" s="4">
+        <v>56.0</v>
       </c>
       <c r="B61" s="6">
-        <v>24.0</v>
+        <v>19.0</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D61" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E61" s="9"/>
-      <c r="G61" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="9">
+        <v>0.740298381301372</v>
+      </c>
+      <c r="G61" s="9">
+        <v>0.0261071500985969</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="s">
-        <v>65</v>
+      <c r="A62" s="4">
+        <v>54.0</v>
       </c>
       <c r="B62" s="6">
-        <v>34954.0</v>
+        <v>1406.0</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="1"/>
@@ -1824,32 +1902,42 @@
       <c r="D62" s="6">
         <v>0.0</v>
       </c>
-      <c r="E62" s="9"/>
-      <c r="G62" s="9"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="9">
+        <v>0.740667829043681</v>
+      </c>
+      <c r="G62" s="9">
+        <v>0.0252873696986685</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="s">
-        <v>66</v>
+      <c r="A63" s="4">
+        <v>71.0</v>
       </c>
       <c r="B63" s="6">
-        <v>259917.0</v>
+        <v>5657.0</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D63" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E63" s="9"/>
-      <c r="G63" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="9">
+        <v>0.739769001022285</v>
+      </c>
+      <c r="G63" s="9">
+        <v>0.0246415839789077</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="s">
-        <v>67</v>
+      <c r="A64" s="4">
+        <v>14.0</v>
       </c>
       <c r="B64" s="6">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" si="1"/>
@@ -1858,117 +1946,154 @@
       <c r="D64" s="6">
         <v>0.0</v>
       </c>
-      <c r="E64" s="9"/>
-      <c r="G64" s="9"/>
+      <c r="E64" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="F64" s="9">
+        <v>0.74011589799131</v>
+      </c>
+      <c r="G64" s="9">
+        <v>0.0243284287837943</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="s">
-        <v>68</v>
+      <c r="A65" s="4">
+        <v>92.0</v>
       </c>
       <c r="B65" s="6">
-        <v>239.0</v>
+        <v>1.0</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D65" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E65" s="9"/>
-      <c r="G65" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="E65" s="8"/>
+      <c r="F65" s="9">
+        <v>0.740997070703913</v>
+      </c>
+      <c r="G65" s="9">
+        <v>0.0242738201225171</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="s">
-        <v>69</v>
+      <c r="A66" s="4">
+        <v>93.0</v>
       </c>
       <c r="B66" s="6">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D66" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E66" s="9"/>
-      <c r="G66" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="9">
+        <v>0.740928311659923</v>
+      </c>
+      <c r="G66" s="9">
+        <v>0.0242738201225171</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="s">
-        <v>70</v>
+      <c r="A67" s="4">
+        <v>94.0</v>
       </c>
       <c r="B67" s="6">
-        <v>390.0</v>
+        <v>1.0</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D67" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E67" s="9"/>
-      <c r="G67" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="E67" s="8"/>
+      <c r="F67" s="9">
+        <v>0.740800775418775</v>
+      </c>
+      <c r="G67" s="9">
+        <v>0.0242738201225171</v>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="s">
-        <v>71</v>
+      <c r="A68" s="4">
+        <v>95.0</v>
       </c>
       <c r="B68" s="6">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D68" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E68" s="9"/>
-      <c r="G68" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="9">
+        <v>0.740695831329429</v>
+      </c>
+      <c r="G68" s="9">
+        <v>0.0242738201225171</v>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="s">
-        <v>72</v>
+      <c r="A69" s="4">
+        <v>96.0</v>
       </c>
       <c r="B69" s="6">
-        <v>16729.0</v>
+        <v>1.0</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D69" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E69" s="9"/>
-      <c r="G69" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="E69" s="8"/>
+      <c r="F69" s="9">
+        <v>0.740512765537219</v>
+      </c>
+      <c r="G69" s="9">
+        <v>0.0242738201225171</v>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="s">
-        <v>73</v>
+      <c r="A70" s="4">
+        <v>72.0</v>
       </c>
       <c r="B70" s="6">
-        <v>314.0</v>
+        <v>3.0</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D70" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E70" s="9"/>
-      <c r="G70" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="9">
+        <v>0.740424503631487</v>
+      </c>
+      <c r="G70" s="9">
+        <v>0.0242738201225171</v>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="4" t="s">
-        <v>74</v>
+      <c r="A71" s="4">
+        <v>97.0</v>
       </c>
       <c r="B71" s="6">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" si="1"/>
@@ -1977,32 +2102,44 @@
       <c r="D71" s="6">
         <v>1.0</v>
       </c>
-      <c r="E71" s="9"/>
-      <c r="G71" s="9"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="9">
+        <v>0.740340838455325</v>
+      </c>
+      <c r="G71" s="9">
+        <v>0.0242738201225171</v>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="4" t="s">
-        <v>75</v>
+      <c r="A72" s="4">
+        <v>77.0</v>
       </c>
       <c r="B72" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="C72" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D72" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F72" s="9">
+        <v>0.741343955537083</v>
+      </c>
+      <c r="G72" s="9">
+        <v>0.0242700760024888</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4">
+        <v>76.0</v>
+      </c>
+      <c r="B73" s="6">
         <v>23.0</v>
-      </c>
-      <c r="C72" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D72" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E72" s="9"/>
-      <c r="G72" s="9"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="6">
-        <v>1.0</v>
       </c>
       <c r="C73" s="7">
         <f t="shared" si="1"/>
@@ -2011,49 +2148,70 @@
       <c r="D73" s="6">
         <v>1.0</v>
       </c>
-      <c r="E73" s="9"/>
-      <c r="G73" s="9"/>
+      <c r="E73" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F73" s="9">
+        <v>0.741038326053177</v>
+      </c>
+      <c r="G73" s="9">
+        <v>0.0242699514311721</v>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="4" t="s">
-        <v>77</v>
+      <c r="A74" s="4">
+        <v>75.0</v>
       </c>
       <c r="B74" s="6">
-        <v>5657.0</v>
+        <v>11.0</v>
       </c>
       <c r="C74" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" s="6">
         <v>1.0</v>
       </c>
-      <c r="E74" s="9"/>
-      <c r="G74" s="9"/>
+      <c r="E74" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F74" s="9">
+        <v>0.741273784631634</v>
+      </c>
+      <c r="G74" s="9">
+        <v>0.0242699277916847</v>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="s">
-        <v>78</v>
+      <c r="A75" s="4">
+        <v>81.0</v>
       </c>
       <c r="B75" s="6">
-        <v>3.0</v>
+        <v>234.0</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D75" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E75" s="9"/>
-      <c r="G75" s="9"/>
+        <v>0.0</v>
+      </c>
+      <c r="E75" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="F75" s="9">
+        <v>0.74062669822008</v>
+      </c>
+      <c r="G75" s="9">
+        <v>0.0242699277916847</v>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="s">
-        <v>79</v>
+      <c r="A76" s="4">
+        <v>80.0</v>
       </c>
       <c r="B76" s="6">
-        <v>749.0</v>
+        <v>23.0</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="1"/>
@@ -2063,16 +2221,21 @@
         <v>0.0</v>
       </c>
       <c r="E76" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="G76" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="F76" s="9">
+        <v>0.740037224395711</v>
+      </c>
+      <c r="G76" s="9">
+        <v>0.0242699277916847</v>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="4" t="s">
-        <v>80</v>
+      <c r="A77" s="4">
+        <v>78.0</v>
       </c>
       <c r="B77" s="6">
-        <v>2.0</v>
+        <v>22.0</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="1"/>
@@ -2082,73 +2245,93 @@
         <v>0.0</v>
       </c>
       <c r="E77" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G77" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="F77" s="9">
+        <v>0.739985679960152</v>
+      </c>
+      <c r="G77" s="9">
+        <v>0.0242699277916847</v>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="s">
-        <v>81</v>
+      <c r="A78" s="4">
+        <v>79.0</v>
       </c>
       <c r="B78" s="6">
-        <v>2.0</v>
+        <v>23.0</v>
       </c>
       <c r="C78" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D78" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E78" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G78" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="F78" s="9">
+        <v>0.74123843942218</v>
+      </c>
+      <c r="G78" s="9">
+        <v>0.0242698747303798</v>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="4" t="s">
-        <v>82</v>
+      <c r="A79" s="4">
+        <v>8.0</v>
       </c>
       <c r="B79" s="6">
-        <v>3.0</v>
+        <v>2508.0</v>
       </c>
       <c r="C79" s="7">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D79" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E79" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="F79" s="9">
+        <v>0.740159763313303</v>
+      </c>
+      <c r="G79" s="9">
+        <v>0.0242698346638798</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4">
+        <v>74.0</v>
+      </c>
+      <c r="B80" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="C80" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D79" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E79" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="G79" s="9"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="C80" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="D80" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E80" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="G80" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="E80" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F80" s="9">
+        <v>0.740010134368817</v>
+      </c>
+      <c r="G80" s="9">
+        <v>0.0242578059394732</v>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="4" t="s">
-        <v>84</v>
+      <c r="A81" s="4">
+        <v>7.0</v>
       </c>
       <c r="B81" s="6">
-        <v>2.0</v>
+        <v>60.0</v>
       </c>
       <c r="C81" s="7">
         <f t="shared" si="1"/>
@@ -2157,169 +2340,198 @@
       <c r="D81" s="6">
         <v>0.0</v>
       </c>
-      <c r="E81" s="9">
-        <v>4.0</v>
-      </c>
-      <c r="G81" s="9"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="9">
+        <v>0.740410205109339</v>
+      </c>
+      <c r="G81" s="9">
+        <v>0.0237109676500874</v>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="4" t="s">
-        <v>85</v>
+      <c r="A82" s="4">
+        <v>69.0</v>
       </c>
       <c r="B82" s="6">
-        <v>39404.0</v>
+        <v>23.0</v>
       </c>
       <c r="C82" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" s="6">
         <v>0.0</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="8"/>
+      <c r="F82" s="9">
+        <v>0.739839449135007</v>
+      </c>
+      <c r="G82" s="9">
+        <v>0.0235396155661006</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4">
+        <v>70.0</v>
+      </c>
+      <c r="B83" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="C83" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D83" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="9">
+        <v>0.739879195610923</v>
+      </c>
+      <c r="G83" s="9">
+        <v>0.0234751644123976</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4">
+        <v>68.0</v>
+      </c>
+      <c r="B84" s="6">
         <v>5.0</v>
       </c>
-      <c r="G82" s="9"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" s="6">
-        <v>14633.0</v>
-      </c>
-      <c r="C83" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D83" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E83" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="G83" s="9"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" s="6">
-        <v>12410.0</v>
-      </c>
       <c r="C84" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E84" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="G84" s="9"/>
+        <v>1.0</v>
+      </c>
+      <c r="E84" s="8"/>
+      <c r="F84" s="9">
+        <v>0.739927076828208</v>
+      </c>
+      <c r="G84" s="9">
+        <v>0.0234276228348266</v>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="4" t="s">
-        <v>88</v>
+      <c r="A85" s="4">
+        <v>19.0</v>
       </c>
       <c r="B85" s="6">
-        <v>125584.0</v>
+        <v>766.0</v>
       </c>
       <c r="C85" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" s="6">
         <v>0.0</v>
       </c>
-      <c r="E85" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="G85" s="9"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="9">
+        <v>0.749728806573107</v>
+      </c>
+      <c r="G85" s="9">
+        <v>0.0230581608914394</v>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="s">
-        <v>89</v>
+      <c r="A86" s="4">
+        <v>12.0</v>
       </c>
       <c r="B86" s="6">
-        <v>647413.0</v>
+        <v>39.0</v>
       </c>
       <c r="C86" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" s="6">
         <v>0.0</v>
       </c>
-      <c r="E86" s="6">
-        <v>6.0</v>
-      </c>
-      <c r="G86" s="9"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="9">
+        <v>0.740089968187218</v>
+      </c>
+      <c r="G86" s="9">
+        <v>0.0229567710015223</v>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="s">
-        <v>90</v>
+      <c r="A87" s="4">
+        <v>20.0</v>
       </c>
       <c r="B87" s="6">
-        <v>2508.0</v>
+        <v>862.0</v>
       </c>
       <c r="C87" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E87" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="G87" s="9"/>
+        <v>0.0</v>
+      </c>
+      <c r="E87" s="8"/>
+      <c r="F87" s="9">
+        <v>0.742757078987824</v>
+      </c>
+      <c r="G87" s="9">
+        <v>0.0227981629390395</v>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="s">
-        <v>91</v>
+      <c r="A88" s="4">
+        <v>30.0</v>
       </c>
       <c r="B88" s="6">
-        <v>3515.0</v>
+        <v>50.0</v>
       </c>
       <c r="C88" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" s="6">
         <v>0.0</v>
       </c>
       <c r="E88" s="6">
-        <v>7.0</v>
-      </c>
-      <c r="G88" s="9"/>
+        <v>8.0</v>
+      </c>
+      <c r="F88" s="9">
+        <v>0.741328512403892</v>
+      </c>
+      <c r="G88" s="9">
+        <v>0.0227941884727096</v>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="s">
-        <v>92</v>
+      <c r="A89" s="4">
+        <v>37.0</v>
       </c>
       <c r="B89" s="6">
-        <v>51.0</v>
+        <v>42.0</v>
       </c>
       <c r="C89" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D89" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E89" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="G89" s="9"/>
+        <v>0.0</v>
+      </c>
+      <c r="E89" s="8"/>
+      <c r="F89" s="9">
+        <v>0.739825982292879</v>
+      </c>
+      <c r="G89" s="9">
+        <v>0.0224520628167191</v>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="4" t="s">
-        <v>93</v>
+      <c r="A90" s="4">
+        <v>31.0</v>
       </c>
       <c r="B90" s="6">
-        <v>50.0</v>
+        <v>3.0</v>
       </c>
       <c r="C90" s="7">
         <f t="shared" si="1"/>
@@ -2328,17 +2540,20 @@
       <c r="D90" s="6">
         <v>0.0</v>
       </c>
-      <c r="E90" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="G90" s="9"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="9">
+        <v>0.739771561903325</v>
+      </c>
+      <c r="G90" s="9">
+        <v>0.0221607323351388</v>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="4" t="s">
-        <v>94</v>
+      <c r="A91" s="4">
+        <v>64.0</v>
       </c>
       <c r="B91" s="6">
-        <v>234.0</v>
+        <v>390.0</v>
       </c>
       <c r="C91" s="7">
         <f t="shared" si="1"/>
@@ -2347,17 +2562,20 @@
       <c r="D91" s="6">
         <v>0.0</v>
       </c>
-      <c r="E91" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="G91" s="9"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="9">
+        <v>0.741046254808785</v>
+      </c>
+      <c r="G91" s="9">
+        <v>0.0217890225948516</v>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="4" t="s">
-        <v>95</v>
+      <c r="A92" s="4">
+        <v>5.0</v>
       </c>
       <c r="B92" s="6">
-        <v>689.0</v>
+        <v>2.0</v>
       </c>
       <c r="C92" s="7">
         <f t="shared" si="1"/>
@@ -2366,17 +2584,20 @@
       <c r="D92" s="6">
         <v>0.0</v>
       </c>
-      <c r="E92" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="G92" s="9"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="9">
+        <v>0.74211166919656</v>
+      </c>
+      <c r="G92" s="9">
+        <v>0.0216277064894057</v>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="4" t="s">
-        <v>96</v>
+      <c r="A93" s="4">
+        <v>57.0</v>
       </c>
       <c r="B93" s="6">
-        <v>64.0</v>
+        <v>96.0</v>
       </c>
       <c r="C93" s="7">
         <f t="shared" si="1"/>
@@ -2385,138 +2606,174 @@
       <c r="D93" s="6">
         <v>0.0</v>
       </c>
-      <c r="E93" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="G93" s="9"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="9">
+        <v>0.739746755546436</v>
+      </c>
+      <c r="G93" s="9">
+        <v>0.0211272427700812</v>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="4" t="s">
-        <v>97</v>
+      <c r="A94" s="4">
+        <v>66.0</v>
       </c>
       <c r="B94" s="6">
-        <v>14.0</v>
+        <v>16729.0</v>
       </c>
       <c r="C94" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D94" s="6">
         <v>0.0</v>
       </c>
-      <c r="E94" s="6">
-        <v>10.0</v>
-      </c>
-      <c r="G94" s="9"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="9">
+        <v>0.742543626181382</v>
+      </c>
+      <c r="G94" s="9">
+        <v>0.0203950581440931</v>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="4" t="s">
-        <v>98</v>
+      <c r="A95" s="4">
+        <v>36.0</v>
       </c>
       <c r="B95" s="6">
-        <v>1.0</v>
+        <v>17345.0</v>
       </c>
       <c r="C95" s="7">
         <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D95" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E95" s="8"/>
+      <c r="F95" s="9">
+        <v>0.739747887922217</v>
+      </c>
+      <c r="G95" s="9">
+        <v>0.0199731184006737</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4">
+        <v>61.0</v>
+      </c>
+      <c r="B96" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="C96" s="7">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D95" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E95" s="9"/>
-      <c r="G95" s="9"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C96" s="7">
+      <c r="D96" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E96" s="8"/>
+      <c r="F96" s="9">
+        <v>0.743091663748846</v>
+      </c>
+      <c r="G96" s="9">
+        <v>0.0197027217967393</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4">
+        <v>67.0</v>
+      </c>
+      <c r="B97" s="6">
+        <v>314.0</v>
+      </c>
+      <c r="C97" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D96" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E96" s="9"/>
-      <c r="G96" s="9"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C97" s="7">
+      <c r="D97" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E97" s="8"/>
+      <c r="F97" s="9">
+        <v>0.739789638495468</v>
+      </c>
+      <c r="G97" s="9">
+        <v>0.0194925210387665</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4">
+        <v>35.0</v>
+      </c>
+      <c r="B98" s="6">
+        <v>171.0</v>
+      </c>
+      <c r="C98" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D97" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E97" s="9"/>
-      <c r="G97" s="9"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C98" s="7">
+      <c r="D98" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E98" s="8"/>
+      <c r="F98" s="9">
+        <v>0.739894511777231</v>
+      </c>
+      <c r="G98" s="9">
+        <v>0.0192386204049412</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4">
+        <v>60.0</v>
+      </c>
+      <c r="B99" s="6">
+        <v>259917.0</v>
+      </c>
+      <c r="C99" s="7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D99" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="E99" s="8"/>
+      <c r="F99" s="9">
+        <v>0.740027801139258</v>
+      </c>
+      <c r="G99" s="9">
+        <v>0.0183806178357539</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4">
+        <v>63.0</v>
+      </c>
+      <c r="B100" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="C100" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D98" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E98" s="9"/>
-      <c r="G98" s="9"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C99" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D99" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E99" s="9"/>
-      <c r="G99" s="9"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C100" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
       <c r="D100" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E100" s="9"/>
-      <c r="G100" s="9"/>
+        <v>0.0</v>
+      </c>
+      <c r="E100" s="8"/>
+      <c r="F100" s="9">
+        <v>0.742434783048822</v>
+      </c>
+      <c r="G100" s="9">
+        <v>-0.0127911242989884</v>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" s="4" t="s">
-        <v>104</v>
+      <c r="A101" s="4">
+        <v>39.0</v>
       </c>
       <c r="B101" s="6">
-        <v>2.0</v>
+        <v>128.0</v>
       </c>
       <c r="C101" s="7">
         <f t="shared" si="1"/>
@@ -2525,17 +2782,20 @@
       <c r="D101" s="6">
         <v>0.0</v>
       </c>
-      <c r="E101" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="G101" s="9"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="9">
+        <v>0.742074146042638</v>
+      </c>
+      <c r="G101" s="9">
+        <v>-0.0130381587757506</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>105</v>
+        <v>7</v>
       </c>
       <c r="B102" s="6">
-        <v>48.0</v>
+        <v>2.0</v>
       </c>
       <c r="C102" s="7">
         <f t="shared" si="1"/>
@@ -2544,3609 +2804,5403 @@
       <c r="D102" s="6">
         <v>0.0</v>
       </c>
-      <c r="E102" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="G102" s="9"/>
+      <c r="G102" s="11"/>
     </row>
     <row r="103">
-      <c r="A103" s="10"/>
+      <c r="A103" s="12"/>
       <c r="C103" s="7"/>
-      <c r="E103" s="9"/>
-      <c r="G103" s="6"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="11"/>
     </row>
     <row r="104">
-      <c r="A104" s="10"/>
+      <c r="A104" s="12"/>
       <c r="C104" s="7"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
     </row>
     <row r="105">
-      <c r="A105" s="10"/>
+      <c r="A105" s="12"/>
       <c r="C105" s="7"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
     </row>
     <row r="106">
-      <c r="A106" s="10"/>
+      <c r="A106" s="12"/>
       <c r="C106" s="7"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
     </row>
     <row r="107">
-      <c r="A107" s="10"/>
+      <c r="A107" s="12"/>
       <c r="C107" s="7"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
     </row>
     <row r="108">
-      <c r="A108" s="10"/>
+      <c r="A108" s="12"/>
       <c r="C108" s="7"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
     </row>
     <row r="109">
-      <c r="A109" s="10"/>
+      <c r="A109" s="12"/>
       <c r="C109" s="7"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
     </row>
     <row r="110">
-      <c r="A110" s="10"/>
+      <c r="A110" s="12"/>
       <c r="C110" s="7"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
     </row>
     <row r="111">
-      <c r="A111" s="10"/>
+      <c r="A111" s="12"/>
       <c r="C111" s="7"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
     </row>
     <row r="112">
-      <c r="A112" s="10"/>
+      <c r="A112" s="12"/>
       <c r="C112" s="7"/>
+      <c r="F112" s="13"/>
+      <c r="G112" s="13"/>
     </row>
     <row r="113">
-      <c r="A113" s="10"/>
+      <c r="A113" s="12"/>
       <c r="C113" s="7"/>
+      <c r="F113" s="13"/>
+      <c r="G113" s="13"/>
     </row>
     <row r="114">
-      <c r="A114" s="10"/>
+      <c r="A114" s="12"/>
       <c r="C114" s="7"/>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
     </row>
     <row r="115">
-      <c r="A115" s="10"/>
+      <c r="A115" s="12"/>
       <c r="C115" s="7"/>
+      <c r="F115" s="13"/>
+      <c r="G115" s="13"/>
     </row>
     <row r="116">
-      <c r="A116" s="10"/>
+      <c r="A116" s="12"/>
       <c r="C116" s="7"/>
+      <c r="F116" s="13"/>
+      <c r="G116" s="13"/>
     </row>
     <row r="117">
-      <c r="A117" s="10"/>
+      <c r="A117" s="12"/>
       <c r="C117" s="7"/>
+      <c r="F117" s="13"/>
+      <c r="G117" s="13"/>
     </row>
     <row r="118">
-      <c r="A118" s="10"/>
+      <c r="A118" s="12"/>
       <c r="C118" s="7"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
     </row>
     <row r="119">
-      <c r="A119" s="10"/>
+      <c r="A119" s="12"/>
       <c r="C119" s="7"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
     </row>
     <row r="120">
-      <c r="A120" s="10"/>
+      <c r="A120" s="12"/>
       <c r="C120" s="7"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
     </row>
     <row r="121">
-      <c r="A121" s="10"/>
+      <c r="A121" s="12"/>
       <c r="C121" s="7"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
     </row>
     <row r="122">
-      <c r="A122" s="10"/>
+      <c r="A122" s="12"/>
       <c r="C122" s="7"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
     </row>
     <row r="123">
-      <c r="A123" s="10"/>
+      <c r="A123" s="12"/>
       <c r="C123" s="7"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
     </row>
     <row r="124">
-      <c r="A124" s="10"/>
+      <c r="A124" s="12"/>
       <c r="C124" s="7"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
     </row>
     <row r="125">
-      <c r="A125" s="10"/>
+      <c r="A125" s="12"/>
       <c r="C125" s="7"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
     </row>
     <row r="126">
-      <c r="A126" s="10"/>
+      <c r="A126" s="12"/>
       <c r="C126" s="7"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
     </row>
     <row r="127">
-      <c r="A127" s="10"/>
+      <c r="A127" s="12"/>
       <c r="C127" s="7"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
     </row>
     <row r="128">
-      <c r="A128" s="10"/>
+      <c r="A128" s="12"/>
       <c r="C128" s="7"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
     </row>
     <row r="129">
-      <c r="A129" s="10"/>
+      <c r="A129" s="12"/>
       <c r="C129" s="7"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
     </row>
     <row r="130">
-      <c r="A130" s="10"/>
+      <c r="A130" s="12"/>
       <c r="C130" s="7"/>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
     </row>
     <row r="131">
-      <c r="A131" s="10"/>
+      <c r="A131" s="12"/>
       <c r="C131" s="7"/>
+      <c r="F131" s="13"/>
+      <c r="G131" s="13"/>
     </row>
     <row r="132">
-      <c r="A132" s="10"/>
+      <c r="A132" s="12"/>
       <c r="C132" s="7"/>
+      <c r="F132" s="13"/>
+      <c r="G132" s="13"/>
     </row>
     <row r="133">
-      <c r="A133" s="10"/>
+      <c r="A133" s="12"/>
       <c r="C133" s="7"/>
+      <c r="F133" s="13"/>
+      <c r="G133" s="13"/>
     </row>
     <row r="134">
-      <c r="A134" s="10"/>
+      <c r="A134" s="12"/>
       <c r="C134" s="7"/>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
     </row>
     <row r="135">
-      <c r="A135" s="10"/>
+      <c r="A135" s="12"/>
       <c r="C135" s="7"/>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
     </row>
     <row r="136">
-      <c r="A136" s="10"/>
+      <c r="A136" s="12"/>
       <c r="C136" s="7"/>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
     </row>
     <row r="137">
-      <c r="A137" s="10"/>
+      <c r="A137" s="12"/>
       <c r="C137" s="7"/>
+      <c r="F137" s="13"/>
+      <c r="G137" s="13"/>
     </row>
     <row r="138">
-      <c r="A138" s="10"/>
+      <c r="A138" s="12"/>
       <c r="C138" s="7"/>
+      <c r="F138" s="13"/>
+      <c r="G138" s="13"/>
     </row>
     <row r="139">
-      <c r="A139" s="10"/>
+      <c r="A139" s="12"/>
       <c r="C139" s="7"/>
+      <c r="F139" s="13"/>
+      <c r="G139" s="13"/>
     </row>
     <row r="140">
-      <c r="A140" s="10"/>
+      <c r="A140" s="12"/>
       <c r="C140" s="7"/>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
     </row>
     <row r="141">
-      <c r="A141" s="10"/>
+      <c r="A141" s="12"/>
       <c r="C141" s="7"/>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
     </row>
     <row r="142">
-      <c r="A142" s="10"/>
+      <c r="A142" s="12"/>
       <c r="C142" s="7"/>
+      <c r="F142" s="13"/>
+      <c r="G142" s="13"/>
     </row>
     <row r="143">
-      <c r="A143" s="10"/>
+      <c r="A143" s="12"/>
       <c r="C143" s="7"/>
+      <c r="F143" s="13"/>
+      <c r="G143" s="13"/>
     </row>
     <row r="144">
-      <c r="A144" s="10"/>
+      <c r="A144" s="12"/>
       <c r="C144" s="7"/>
+      <c r="F144" s="13"/>
+      <c r="G144" s="13"/>
     </row>
     <row r="145">
-      <c r="A145" s="10"/>
+      <c r="A145" s="12"/>
       <c r="C145" s="7"/>
+      <c r="F145" s="13"/>
+      <c r="G145" s="13"/>
     </row>
     <row r="146">
-      <c r="A146" s="10"/>
+      <c r="A146" s="12"/>
       <c r="C146" s="7"/>
+      <c r="F146" s="13"/>
+      <c r="G146" s="13"/>
     </row>
     <row r="147">
-      <c r="A147" s="10"/>
+      <c r="A147" s="12"/>
       <c r="C147" s="7"/>
+      <c r="F147" s="13"/>
+      <c r="G147" s="13"/>
     </row>
     <row r="148">
-      <c r="A148" s="10"/>
+      <c r="A148" s="12"/>
       <c r="C148" s="7"/>
+      <c r="F148" s="13"/>
+      <c r="G148" s="13"/>
     </row>
     <row r="149">
-      <c r="A149" s="10"/>
+      <c r="A149" s="12"/>
       <c r="C149" s="7"/>
+      <c r="F149" s="13"/>
+      <c r="G149" s="13"/>
     </row>
     <row r="150">
-      <c r="A150" s="10"/>
+      <c r="A150" s="12"/>
       <c r="C150" s="7"/>
+      <c r="F150" s="13"/>
+      <c r="G150" s="13"/>
     </row>
     <row r="151">
-      <c r="A151" s="10"/>
+      <c r="A151" s="12"/>
       <c r="C151" s="7"/>
+      <c r="F151" s="13"/>
+      <c r="G151" s="13"/>
     </row>
     <row r="152">
-      <c r="A152" s="10"/>
+      <c r="A152" s="12"/>
       <c r="C152" s="7"/>
+      <c r="F152" s="13"/>
+      <c r="G152" s="13"/>
     </row>
     <row r="153">
-      <c r="A153" s="10"/>
+      <c r="A153" s="12"/>
       <c r="C153" s="7"/>
+      <c r="F153" s="13"/>
+      <c r="G153" s="13"/>
     </row>
     <row r="154">
-      <c r="A154" s="10"/>
+      <c r="A154" s="12"/>
       <c r="C154" s="7"/>
+      <c r="F154" s="13"/>
+      <c r="G154" s="13"/>
     </row>
     <row r="155">
-      <c r="A155" s="10"/>
+      <c r="A155" s="12"/>
       <c r="C155" s="7"/>
+      <c r="F155" s="13"/>
+      <c r="G155" s="13"/>
     </row>
     <row r="156">
-      <c r="A156" s="10"/>
+      <c r="A156" s="12"/>
       <c r="C156" s="7"/>
+      <c r="F156" s="13"/>
+      <c r="G156" s="13"/>
     </row>
     <row r="157">
-      <c r="A157" s="10"/>
+      <c r="A157" s="12"/>
       <c r="C157" s="7"/>
+      <c r="F157" s="13"/>
+      <c r="G157" s="13"/>
     </row>
     <row r="158">
-      <c r="A158" s="10"/>
+      <c r="A158" s="12"/>
       <c r="C158" s="7"/>
+      <c r="F158" s="13"/>
+      <c r="G158" s="13"/>
     </row>
     <row r="159">
-      <c r="A159" s="10"/>
+      <c r="A159" s="12"/>
       <c r="C159" s="7"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
     </row>
     <row r="160">
-      <c r="A160" s="10"/>
+      <c r="A160" s="12"/>
       <c r="C160" s="7"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
     </row>
     <row r="161">
-      <c r="A161" s="10"/>
+      <c r="A161" s="12"/>
       <c r="C161" s="7"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
     </row>
     <row r="162">
-      <c r="A162" s="10"/>
+      <c r="A162" s="12"/>
       <c r="C162" s="7"/>
+      <c r="F162" s="13"/>
+      <c r="G162" s="13"/>
     </row>
     <row r="163">
-      <c r="A163" s="10"/>
+      <c r="A163" s="12"/>
       <c r="C163" s="7"/>
+      <c r="F163" s="13"/>
+      <c r="G163" s="13"/>
     </row>
     <row r="164">
-      <c r="A164" s="10"/>
+      <c r="A164" s="12"/>
       <c r="C164" s="7"/>
+      <c r="F164" s="13"/>
+      <c r="G164" s="13"/>
     </row>
     <row r="165">
-      <c r="A165" s="10"/>
+      <c r="A165" s="12"/>
       <c r="C165" s="7"/>
+      <c r="F165" s="13"/>
+      <c r="G165" s="13"/>
     </row>
     <row r="166">
-      <c r="A166" s="10"/>
+      <c r="A166" s="12"/>
       <c r="C166" s="7"/>
+      <c r="F166" s="13"/>
+      <c r="G166" s="13"/>
     </row>
     <row r="167">
-      <c r="A167" s="10"/>
+      <c r="A167" s="12"/>
       <c r="C167" s="7"/>
+      <c r="F167" s="13"/>
+      <c r="G167" s="13"/>
     </row>
     <row r="168">
-      <c r="A168" s="10"/>
+      <c r="A168" s="12"/>
       <c r="C168" s="7"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
     </row>
     <row r="169">
-      <c r="A169" s="10"/>
+      <c r="A169" s="12"/>
       <c r="C169" s="7"/>
+      <c r="F169" s="13"/>
+      <c r="G169" s="13"/>
     </row>
     <row r="170">
-      <c r="A170" s="10"/>
+      <c r="A170" s="12"/>
       <c r="C170" s="7"/>
+      <c r="F170" s="13"/>
+      <c r="G170" s="13"/>
     </row>
     <row r="171">
-      <c r="A171" s="10"/>
+      <c r="A171" s="12"/>
       <c r="C171" s="7"/>
+      <c r="F171" s="13"/>
+      <c r="G171" s="13"/>
     </row>
     <row r="172">
-      <c r="A172" s="10"/>
+      <c r="A172" s="12"/>
       <c r="C172" s="7"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="13"/>
     </row>
     <row r="173">
-      <c r="A173" s="10"/>
+      <c r="A173" s="12"/>
       <c r="C173" s="7"/>
+      <c r="F173" s="13"/>
+      <c r="G173" s="13"/>
     </row>
     <row r="174">
-      <c r="A174" s="10"/>
+      <c r="A174" s="12"/>
       <c r="C174" s="7"/>
+      <c r="F174" s="13"/>
+      <c r="G174" s="13"/>
     </row>
     <row r="175">
-      <c r="A175" s="10"/>
+      <c r="A175" s="12"/>
       <c r="C175" s="7"/>
+      <c r="F175" s="13"/>
+      <c r="G175" s="13"/>
     </row>
     <row r="176">
-      <c r="A176" s="10"/>
+      <c r="A176" s="12"/>
       <c r="C176" s="7"/>
+      <c r="F176" s="13"/>
+      <c r="G176" s="13"/>
     </row>
     <row r="177">
-      <c r="A177" s="10"/>
+      <c r="A177" s="12"/>
       <c r="C177" s="7"/>
+      <c r="F177" s="13"/>
+      <c r="G177" s="13"/>
     </row>
     <row r="178">
-      <c r="A178" s="10"/>
+      <c r="A178" s="12"/>
       <c r="C178" s="7"/>
+      <c r="F178" s="13"/>
+      <c r="G178" s="13"/>
     </row>
     <row r="179">
-      <c r="A179" s="10"/>
+      <c r="A179" s="12"/>
       <c r="C179" s="7"/>
+      <c r="F179" s="13"/>
+      <c r="G179" s="13"/>
     </row>
     <row r="180">
-      <c r="A180" s="10"/>
+      <c r="A180" s="12"/>
       <c r="C180" s="7"/>
+      <c r="F180" s="13"/>
+      <c r="G180" s="13"/>
     </row>
     <row r="181">
-      <c r="A181" s="10"/>
+      <c r="A181" s="12"/>
       <c r="C181" s="7"/>
+      <c r="F181" s="13"/>
+      <c r="G181" s="13"/>
     </row>
     <row r="182">
-      <c r="A182" s="10"/>
+      <c r="A182" s="12"/>
       <c r="C182" s="7"/>
+      <c r="F182" s="13"/>
+      <c r="G182" s="13"/>
     </row>
     <row r="183">
-      <c r="A183" s="10"/>
+      <c r="A183" s="12"/>
       <c r="C183" s="7"/>
+      <c r="F183" s="13"/>
+      <c r="G183" s="13"/>
     </row>
     <row r="184">
-      <c r="A184" s="10"/>
+      <c r="A184" s="12"/>
       <c r="C184" s="7"/>
+      <c r="F184" s="13"/>
+      <c r="G184" s="13"/>
     </row>
     <row r="185">
-      <c r="A185" s="10"/>
+      <c r="A185" s="12"/>
       <c r="C185" s="7"/>
+      <c r="F185" s="13"/>
+      <c r="G185" s="13"/>
     </row>
     <row r="186">
-      <c r="A186" s="10"/>
+      <c r="A186" s="12"/>
       <c r="C186" s="7"/>
+      <c r="F186" s="13"/>
+      <c r="G186" s="13"/>
     </row>
     <row r="187">
-      <c r="A187" s="10"/>
+      <c r="A187" s="12"/>
       <c r="C187" s="7"/>
+      <c r="F187" s="13"/>
+      <c r="G187" s="13"/>
     </row>
     <row r="188">
-      <c r="A188" s="10"/>
+      <c r="A188" s="12"/>
       <c r="C188" s="7"/>
+      <c r="F188" s="13"/>
+      <c r="G188" s="13"/>
     </row>
     <row r="189">
-      <c r="A189" s="10"/>
+      <c r="A189" s="12"/>
       <c r="C189" s="7"/>
+      <c r="F189" s="13"/>
+      <c r="G189" s="13"/>
     </row>
     <row r="190">
-      <c r="A190" s="10"/>
+      <c r="A190" s="12"/>
       <c r="C190" s="7"/>
+      <c r="F190" s="13"/>
+      <c r="G190" s="13"/>
     </row>
     <row r="191">
-      <c r="A191" s="10"/>
+      <c r="A191" s="12"/>
       <c r="C191" s="7"/>
+      <c r="F191" s="13"/>
+      <c r="G191" s="13"/>
     </row>
     <row r="192">
-      <c r="A192" s="10"/>
+      <c r="A192" s="12"/>
       <c r="C192" s="7"/>
+      <c r="F192" s="13"/>
+      <c r="G192" s="13"/>
     </row>
     <row r="193">
-      <c r="A193" s="10"/>
+      <c r="A193" s="12"/>
       <c r="C193" s="7"/>
+      <c r="F193" s="13"/>
+      <c r="G193" s="13"/>
     </row>
     <row r="194">
-      <c r="A194" s="10"/>
+      <c r="A194" s="12"/>
       <c r="C194" s="7"/>
+      <c r="F194" s="13"/>
+      <c r="G194" s="13"/>
     </row>
     <row r="195">
-      <c r="A195" s="10"/>
+      <c r="A195" s="12"/>
       <c r="C195" s="7"/>
+      <c r="F195" s="13"/>
+      <c r="G195" s="13"/>
     </row>
     <row r="196">
-      <c r="A196" s="10"/>
+      <c r="A196" s="12"/>
       <c r="C196" s="7"/>
+      <c r="F196" s="13"/>
+      <c r="G196" s="13"/>
     </row>
     <row r="197">
-      <c r="A197" s="10"/>
+      <c r="A197" s="12"/>
       <c r="C197" s="7"/>
+      <c r="F197" s="13"/>
+      <c r="G197" s="13"/>
     </row>
     <row r="198">
-      <c r="A198" s="10"/>
+      <c r="A198" s="12"/>
       <c r="C198" s="7"/>
+      <c r="F198" s="13"/>
+      <c r="G198" s="13"/>
     </row>
     <row r="199">
-      <c r="A199" s="10"/>
+      <c r="A199" s="12"/>
       <c r="C199" s="7"/>
+      <c r="F199" s="13"/>
+      <c r="G199" s="13"/>
     </row>
     <row r="200">
-      <c r="A200" s="10"/>
+      <c r="A200" s="12"/>
       <c r="C200" s="7"/>
+      <c r="F200" s="13"/>
+      <c r="G200" s="13"/>
     </row>
     <row r="201">
-      <c r="A201" s="10"/>
+      <c r="A201" s="12"/>
       <c r="C201" s="7"/>
+      <c r="F201" s="13"/>
+      <c r="G201" s="13"/>
     </row>
     <row r="202">
-      <c r="A202" s="10"/>
+      <c r="A202" s="12"/>
       <c r="C202" s="7"/>
+      <c r="F202" s="13"/>
+      <c r="G202" s="13"/>
     </row>
     <row r="203">
-      <c r="A203" s="10"/>
+      <c r="A203" s="12"/>
       <c r="C203" s="7"/>
+      <c r="F203" s="13"/>
+      <c r="G203" s="13"/>
     </row>
     <row r="204">
-      <c r="A204" s="10"/>
+      <c r="A204" s="12"/>
       <c r="C204" s="7"/>
+      <c r="F204" s="13"/>
+      <c r="G204" s="13"/>
     </row>
     <row r="205">
-      <c r="A205" s="10"/>
+      <c r="A205" s="12"/>
       <c r="C205" s="7"/>
+      <c r="F205" s="13"/>
+      <c r="G205" s="13"/>
     </row>
     <row r="206">
-      <c r="A206" s="10"/>
+      <c r="A206" s="12"/>
       <c r="C206" s="7"/>
+      <c r="F206" s="13"/>
+      <c r="G206" s="13"/>
     </row>
     <row r="207">
-      <c r="A207" s="10"/>
+      <c r="A207" s="12"/>
       <c r="C207" s="7"/>
+      <c r="F207" s="13"/>
+      <c r="G207" s="13"/>
     </row>
     <row r="208">
-      <c r="A208" s="10"/>
+      <c r="A208" s="12"/>
       <c r="C208" s="7"/>
+      <c r="F208" s="13"/>
+      <c r="G208" s="13"/>
     </row>
     <row r="209">
-      <c r="A209" s="10"/>
+      <c r="A209" s="12"/>
       <c r="C209" s="7"/>
+      <c r="F209" s="13"/>
+      <c r="G209" s="13"/>
     </row>
     <row r="210">
-      <c r="A210" s="10"/>
+      <c r="A210" s="12"/>
       <c r="C210" s="7"/>
+      <c r="F210" s="13"/>
+      <c r="G210" s="13"/>
     </row>
     <row r="211">
-      <c r="A211" s="10"/>
+      <c r="A211" s="12"/>
       <c r="C211" s="7"/>
+      <c r="F211" s="13"/>
+      <c r="G211" s="13"/>
     </row>
     <row r="212">
-      <c r="A212" s="10"/>
+      <c r="A212" s="12"/>
       <c r="C212" s="7"/>
+      <c r="F212" s="13"/>
+      <c r="G212" s="13"/>
     </row>
     <row r="213">
-      <c r="A213" s="10"/>
+      <c r="A213" s="12"/>
       <c r="C213" s="7"/>
+      <c r="F213" s="13"/>
+      <c r="G213" s="13"/>
     </row>
     <row r="214">
-      <c r="A214" s="10"/>
+      <c r="A214" s="12"/>
       <c r="C214" s="7"/>
+      <c r="F214" s="13"/>
+      <c r="G214" s="13"/>
     </row>
     <row r="215">
-      <c r="A215" s="10"/>
+      <c r="A215" s="12"/>
       <c r="C215" s="7"/>
+      <c r="F215" s="13"/>
+      <c r="G215" s="13"/>
     </row>
     <row r="216">
-      <c r="A216" s="10"/>
+      <c r="A216" s="12"/>
       <c r="C216" s="7"/>
+      <c r="F216" s="13"/>
+      <c r="G216" s="13"/>
     </row>
     <row r="217">
-      <c r="A217" s="10"/>
+      <c r="A217" s="12"/>
       <c r="C217" s="7"/>
+      <c r="F217" s="13"/>
+      <c r="G217" s="13"/>
     </row>
     <row r="218">
-      <c r="A218" s="10"/>
+      <c r="A218" s="12"/>
       <c r="C218" s="7"/>
+      <c r="F218" s="13"/>
+      <c r="G218" s="13"/>
     </row>
     <row r="219">
-      <c r="A219" s="10"/>
+      <c r="A219" s="12"/>
       <c r="C219" s="7"/>
+      <c r="F219" s="13"/>
+      <c r="G219" s="13"/>
     </row>
     <row r="220">
-      <c r="A220" s="10"/>
+      <c r="A220" s="12"/>
       <c r="C220" s="7"/>
+      <c r="F220" s="13"/>
+      <c r="G220" s="13"/>
     </row>
     <row r="221">
-      <c r="A221" s="10"/>
+      <c r="A221" s="12"/>
       <c r="C221" s="7"/>
+      <c r="F221" s="13"/>
+      <c r="G221" s="13"/>
     </row>
     <row r="222">
-      <c r="A222" s="10"/>
+      <c r="A222" s="12"/>
       <c r="C222" s="7"/>
+      <c r="F222" s="13"/>
+      <c r="G222" s="13"/>
     </row>
     <row r="223">
-      <c r="A223" s="10"/>
+      <c r="A223" s="12"/>
       <c r="C223" s="7"/>
+      <c r="F223" s="13"/>
+      <c r="G223" s="13"/>
     </row>
     <row r="224">
-      <c r="A224" s="10"/>
+      <c r="A224" s="12"/>
       <c r="C224" s="7"/>
+      <c r="F224" s="13"/>
+      <c r="G224" s="13"/>
     </row>
     <row r="225">
-      <c r="A225" s="10"/>
+      <c r="A225" s="12"/>
       <c r="C225" s="7"/>
+      <c r="F225" s="13"/>
+      <c r="G225" s="13"/>
     </row>
     <row r="226">
-      <c r="A226" s="10"/>
+      <c r="A226" s="12"/>
       <c r="C226" s="7"/>
+      <c r="F226" s="13"/>
+      <c r="G226" s="13"/>
     </row>
     <row r="227">
-      <c r="A227" s="10"/>
+      <c r="A227" s="12"/>
       <c r="C227" s="7"/>
+      <c r="F227" s="13"/>
+      <c r="G227" s="13"/>
     </row>
     <row r="228">
-      <c r="A228" s="10"/>
+      <c r="A228" s="12"/>
       <c r="C228" s="7"/>
+      <c r="F228" s="13"/>
+      <c r="G228" s="13"/>
     </row>
     <row r="229">
-      <c r="A229" s="10"/>
+      <c r="A229" s="12"/>
       <c r="C229" s="7"/>
+      <c r="F229" s="13"/>
+      <c r="G229" s="13"/>
     </row>
     <row r="230">
-      <c r="A230" s="10"/>
+      <c r="A230" s="12"/>
       <c r="C230" s="7"/>
+      <c r="F230" s="13"/>
+      <c r="G230" s="13"/>
     </row>
     <row r="231">
-      <c r="A231" s="10"/>
+      <c r="A231" s="12"/>
       <c r="C231" s="7"/>
+      <c r="F231" s="13"/>
+      <c r="G231" s="13"/>
     </row>
     <row r="232">
-      <c r="A232" s="10"/>
+      <c r="A232" s="12"/>
       <c r="C232" s="7"/>
+      <c r="F232" s="13"/>
+      <c r="G232" s="13"/>
     </row>
     <row r="233">
-      <c r="A233" s="10"/>
+      <c r="A233" s="12"/>
       <c r="C233" s="7"/>
+      <c r="F233" s="13"/>
+      <c r="G233" s="13"/>
     </row>
     <row r="234">
-      <c r="A234" s="10"/>
+      <c r="A234" s="12"/>
       <c r="C234" s="7"/>
+      <c r="F234" s="13"/>
+      <c r="G234" s="13"/>
     </row>
     <row r="235">
-      <c r="A235" s="10"/>
+      <c r="A235" s="12"/>
       <c r="C235" s="7"/>
+      <c r="F235" s="13"/>
+      <c r="G235" s="13"/>
     </row>
     <row r="236">
-      <c r="A236" s="10"/>
+      <c r="A236" s="12"/>
       <c r="C236" s="7"/>
+      <c r="F236" s="13"/>
+      <c r="G236" s="13"/>
     </row>
     <row r="237">
-      <c r="A237" s="10"/>
+      <c r="A237" s="12"/>
       <c r="C237" s="7"/>
+      <c r="F237" s="13"/>
+      <c r="G237" s="13"/>
     </row>
     <row r="238">
-      <c r="A238" s="10"/>
+      <c r="A238" s="12"/>
       <c r="C238" s="7"/>
+      <c r="F238" s="13"/>
+      <c r="G238" s="13"/>
     </row>
     <row r="239">
-      <c r="A239" s="10"/>
+      <c r="A239" s="12"/>
       <c r="C239" s="7"/>
+      <c r="F239" s="13"/>
+      <c r="G239" s="13"/>
     </row>
     <row r="240">
-      <c r="A240" s="10"/>
+      <c r="A240" s="12"/>
       <c r="C240" s="7"/>
+      <c r="F240" s="13"/>
+      <c r="G240" s="13"/>
     </row>
     <row r="241">
-      <c r="A241" s="10"/>
+      <c r="A241" s="12"/>
       <c r="C241" s="7"/>
+      <c r="F241" s="13"/>
+      <c r="G241" s="13"/>
     </row>
     <row r="242">
-      <c r="A242" s="10"/>
+      <c r="A242" s="12"/>
       <c r="C242" s="7"/>
+      <c r="F242" s="13"/>
+      <c r="G242" s="13"/>
     </row>
     <row r="243">
-      <c r="A243" s="10"/>
+      <c r="A243" s="12"/>
       <c r="C243" s="7"/>
+      <c r="F243" s="13"/>
+      <c r="G243" s="13"/>
     </row>
     <row r="244">
-      <c r="A244" s="10"/>
+      <c r="A244" s="12"/>
       <c r="C244" s="7"/>
+      <c r="F244" s="13"/>
+      <c r="G244" s="13"/>
     </row>
     <row r="245">
-      <c r="A245" s="10"/>
+      <c r="A245" s="12"/>
       <c r="C245" s="7"/>
+      <c r="F245" s="13"/>
+      <c r="G245" s="13"/>
     </row>
     <row r="246">
-      <c r="A246" s="10"/>
+      <c r="A246" s="12"/>
       <c r="C246" s="7"/>
+      <c r="F246" s="13"/>
+      <c r="G246" s="13"/>
     </row>
     <row r="247">
-      <c r="A247" s="10"/>
+      <c r="A247" s="12"/>
       <c r="C247" s="7"/>
+      <c r="F247" s="13"/>
+      <c r="G247" s="13"/>
     </row>
     <row r="248">
-      <c r="A248" s="10"/>
+      <c r="A248" s="12"/>
       <c r="C248" s="7"/>
+      <c r="F248" s="13"/>
+      <c r="G248" s="13"/>
     </row>
     <row r="249">
-      <c r="A249" s="10"/>
+      <c r="A249" s="12"/>
       <c r="C249" s="7"/>
+      <c r="F249" s="13"/>
+      <c r="G249" s="13"/>
     </row>
     <row r="250">
-      <c r="A250" s="10"/>
+      <c r="A250" s="12"/>
       <c r="C250" s="7"/>
+      <c r="F250" s="13"/>
+      <c r="G250" s="13"/>
     </row>
     <row r="251">
-      <c r="A251" s="10"/>
+      <c r="A251" s="12"/>
       <c r="C251" s="7"/>
+      <c r="F251" s="13"/>
+      <c r="G251" s="13"/>
     </row>
     <row r="252">
-      <c r="A252" s="10"/>
+      <c r="A252" s="12"/>
       <c r="C252" s="7"/>
+      <c r="F252" s="13"/>
+      <c r="G252" s="13"/>
     </row>
     <row r="253">
-      <c r="A253" s="10"/>
+      <c r="A253" s="12"/>
       <c r="C253" s="7"/>
+      <c r="F253" s="13"/>
+      <c r="G253" s="13"/>
     </row>
     <row r="254">
-      <c r="A254" s="10"/>
+      <c r="A254" s="12"/>
       <c r="C254" s="7"/>
+      <c r="F254" s="13"/>
+      <c r="G254" s="13"/>
     </row>
     <row r="255">
-      <c r="A255" s="10"/>
+      <c r="A255" s="12"/>
       <c r="C255" s="7"/>
+      <c r="F255" s="13"/>
+      <c r="G255" s="13"/>
     </row>
     <row r="256">
-      <c r="A256" s="10"/>
+      <c r="A256" s="12"/>
       <c r="C256" s="7"/>
+      <c r="F256" s="13"/>
+      <c r="G256" s="13"/>
     </row>
     <row r="257">
-      <c r="A257" s="10"/>
+      <c r="A257" s="12"/>
       <c r="C257" s="7"/>
+      <c r="F257" s="13"/>
+      <c r="G257" s="13"/>
     </row>
     <row r="258">
-      <c r="A258" s="10"/>
+      <c r="A258" s="12"/>
       <c r="C258" s="7"/>
+      <c r="F258" s="13"/>
+      <c r="G258" s="13"/>
     </row>
     <row r="259">
-      <c r="A259" s="10"/>
+      <c r="A259" s="12"/>
       <c r="C259" s="7"/>
+      <c r="F259" s="13"/>
+      <c r="G259" s="13"/>
     </row>
     <row r="260">
-      <c r="A260" s="10"/>
+      <c r="A260" s="12"/>
       <c r="C260" s="7"/>
+      <c r="F260" s="13"/>
+      <c r="G260" s="13"/>
     </row>
     <row r="261">
-      <c r="A261" s="10"/>
+      <c r="A261" s="12"/>
       <c r="C261" s="7"/>
+      <c r="F261" s="13"/>
+      <c r="G261" s="13"/>
     </row>
     <row r="262">
-      <c r="A262" s="10"/>
+      <c r="A262" s="12"/>
       <c r="C262" s="7"/>
+      <c r="F262" s="13"/>
+      <c r="G262" s="13"/>
     </row>
     <row r="263">
-      <c r="A263" s="10"/>
+      <c r="A263" s="12"/>
       <c r="C263" s="7"/>
+      <c r="F263" s="13"/>
+      <c r="G263" s="13"/>
     </row>
     <row r="264">
-      <c r="A264" s="10"/>
+      <c r="A264" s="12"/>
       <c r="C264" s="7"/>
+      <c r="F264" s="13"/>
+      <c r="G264" s="13"/>
     </row>
     <row r="265">
-      <c r="A265" s="10"/>
+      <c r="A265" s="12"/>
       <c r="C265" s="7"/>
+      <c r="F265" s="13"/>
+      <c r="G265" s="13"/>
     </row>
     <row r="266">
-      <c r="A266" s="10"/>
+      <c r="A266" s="12"/>
       <c r="C266" s="7"/>
+      <c r="F266" s="13"/>
+      <c r="G266" s="13"/>
     </row>
     <row r="267">
-      <c r="A267" s="10"/>
+      <c r="A267" s="12"/>
       <c r="C267" s="7"/>
+      <c r="F267" s="13"/>
+      <c r="G267" s="13"/>
     </row>
     <row r="268">
-      <c r="A268" s="10"/>
+      <c r="A268" s="12"/>
       <c r="C268" s="7"/>
+      <c r="F268" s="13"/>
+      <c r="G268" s="13"/>
     </row>
     <row r="269">
-      <c r="A269" s="10"/>
+      <c r="A269" s="12"/>
       <c r="C269" s="7"/>
+      <c r="F269" s="13"/>
+      <c r="G269" s="13"/>
     </row>
     <row r="270">
-      <c r="A270" s="10"/>
+      <c r="A270" s="12"/>
       <c r="C270" s="7"/>
+      <c r="F270" s="13"/>
+      <c r="G270" s="13"/>
     </row>
     <row r="271">
-      <c r="A271" s="10"/>
+      <c r="A271" s="12"/>
       <c r="C271" s="7"/>
+      <c r="F271" s="13"/>
+      <c r="G271" s="13"/>
     </row>
     <row r="272">
-      <c r="A272" s="10"/>
+      <c r="A272" s="12"/>
       <c r="C272" s="7"/>
+      <c r="F272" s="13"/>
+      <c r="G272" s="13"/>
     </row>
     <row r="273">
-      <c r="A273" s="10"/>
+      <c r="A273" s="12"/>
       <c r="C273" s="7"/>
+      <c r="F273" s="13"/>
+      <c r="G273" s="13"/>
     </row>
     <row r="274">
-      <c r="A274" s="10"/>
+      <c r="A274" s="12"/>
       <c r="C274" s="7"/>
+      <c r="F274" s="13"/>
+      <c r="G274" s="13"/>
     </row>
     <row r="275">
-      <c r="A275" s="10"/>
+      <c r="A275" s="12"/>
       <c r="C275" s="7"/>
+      <c r="F275" s="13"/>
+      <c r="G275" s="13"/>
     </row>
     <row r="276">
-      <c r="A276" s="10"/>
+      <c r="A276" s="12"/>
       <c r="C276" s="7"/>
+      <c r="F276" s="13"/>
+      <c r="G276" s="13"/>
     </row>
     <row r="277">
-      <c r="A277" s="10"/>
+      <c r="A277" s="12"/>
       <c r="C277" s="7"/>
+      <c r="F277" s="13"/>
+      <c r="G277" s="13"/>
     </row>
     <row r="278">
-      <c r="A278" s="10"/>
+      <c r="A278" s="12"/>
       <c r="C278" s="7"/>
+      <c r="F278" s="13"/>
+      <c r="G278" s="13"/>
     </row>
     <row r="279">
-      <c r="A279" s="10"/>
+      <c r="A279" s="12"/>
       <c r="C279" s="7"/>
+      <c r="F279" s="13"/>
+      <c r="G279" s="13"/>
     </row>
     <row r="280">
-      <c r="A280" s="10"/>
+      <c r="A280" s="12"/>
       <c r="C280" s="7"/>
+      <c r="F280" s="13"/>
+      <c r="G280" s="13"/>
     </row>
     <row r="281">
-      <c r="A281" s="10"/>
+      <c r="A281" s="12"/>
       <c r="C281" s="7"/>
+      <c r="F281" s="13"/>
+      <c r="G281" s="13"/>
     </row>
     <row r="282">
-      <c r="A282" s="10"/>
+      <c r="A282" s="12"/>
       <c r="C282" s="7"/>
+      <c r="F282" s="13"/>
+      <c r="G282" s="13"/>
     </row>
     <row r="283">
-      <c r="A283" s="10"/>
+      <c r="A283" s="12"/>
       <c r="C283" s="7"/>
+      <c r="F283" s="13"/>
+      <c r="G283" s="13"/>
     </row>
     <row r="284">
-      <c r="A284" s="10"/>
+      <c r="A284" s="12"/>
       <c r="C284" s="7"/>
+      <c r="F284" s="13"/>
+      <c r="G284" s="13"/>
     </row>
     <row r="285">
-      <c r="A285" s="10"/>
+      <c r="A285" s="12"/>
       <c r="C285" s="7"/>
+      <c r="F285" s="13"/>
+      <c r="G285" s="13"/>
     </row>
     <row r="286">
-      <c r="A286" s="10"/>
+      <c r="A286" s="12"/>
       <c r="C286" s="7"/>
+      <c r="F286" s="13"/>
+      <c r="G286" s="13"/>
     </row>
     <row r="287">
-      <c r="A287" s="10"/>
+      <c r="A287" s="12"/>
       <c r="C287" s="7"/>
+      <c r="F287" s="13"/>
+      <c r="G287" s="13"/>
     </row>
     <row r="288">
-      <c r="A288" s="10"/>
+      <c r="A288" s="12"/>
       <c r="C288" s="7"/>
+      <c r="F288" s="13"/>
+      <c r="G288" s="13"/>
     </row>
     <row r="289">
-      <c r="A289" s="10"/>
+      <c r="A289" s="12"/>
       <c r="C289" s="7"/>
+      <c r="F289" s="13"/>
+      <c r="G289" s="13"/>
     </row>
     <row r="290">
-      <c r="A290" s="10"/>
+      <c r="A290" s="12"/>
       <c r="C290" s="7"/>
+      <c r="F290" s="13"/>
+      <c r="G290" s="13"/>
     </row>
     <row r="291">
-      <c r="A291" s="10"/>
+      <c r="A291" s="12"/>
       <c r="C291" s="7"/>
+      <c r="F291" s="13"/>
+      <c r="G291" s="13"/>
     </row>
     <row r="292">
-      <c r="A292" s="10"/>
+      <c r="A292" s="12"/>
       <c r="C292" s="7"/>
+      <c r="F292" s="13"/>
+      <c r="G292" s="13"/>
     </row>
     <row r="293">
-      <c r="A293" s="10"/>
+      <c r="A293" s="12"/>
       <c r="C293" s="7"/>
+      <c r="F293" s="13"/>
+      <c r="G293" s="13"/>
     </row>
     <row r="294">
-      <c r="A294" s="10"/>
+      <c r="A294" s="12"/>
       <c r="C294" s="7"/>
+      <c r="F294" s="13"/>
+      <c r="G294" s="13"/>
     </row>
     <row r="295">
-      <c r="A295" s="10"/>
+      <c r="A295" s="12"/>
       <c r="C295" s="7"/>
+      <c r="F295" s="13"/>
+      <c r="G295" s="13"/>
     </row>
     <row r="296">
-      <c r="A296" s="10"/>
+      <c r="A296" s="12"/>
       <c r="C296" s="7"/>
+      <c r="F296" s="13"/>
+      <c r="G296" s="13"/>
     </row>
     <row r="297">
-      <c r="A297" s="10"/>
+      <c r="A297" s="12"/>
       <c r="C297" s="7"/>
+      <c r="F297" s="13"/>
+      <c r="G297" s="13"/>
     </row>
     <row r="298">
-      <c r="A298" s="10"/>
+      <c r="A298" s="12"/>
       <c r="C298" s="7"/>
+      <c r="F298" s="13"/>
+      <c r="G298" s="13"/>
     </row>
     <row r="299">
-      <c r="A299" s="10"/>
+      <c r="A299" s="12"/>
       <c r="C299" s="7"/>
+      <c r="F299" s="13"/>
+      <c r="G299" s="13"/>
     </row>
     <row r="300">
-      <c r="A300" s="10"/>
+      <c r="A300" s="12"/>
       <c r="C300" s="7"/>
+      <c r="F300" s="13"/>
+      <c r="G300" s="13"/>
     </row>
     <row r="301">
-      <c r="A301" s="10"/>
+      <c r="A301" s="12"/>
       <c r="C301" s="7"/>
+      <c r="F301" s="13"/>
+      <c r="G301" s="13"/>
     </row>
     <row r="302">
-      <c r="A302" s="10"/>
+      <c r="A302" s="12"/>
       <c r="C302" s="7"/>
+      <c r="F302" s="13"/>
+      <c r="G302" s="13"/>
     </row>
     <row r="303">
-      <c r="A303" s="10"/>
+      <c r="A303" s="12"/>
       <c r="C303" s="7"/>
+      <c r="F303" s="13"/>
+      <c r="G303" s="13"/>
     </row>
     <row r="304">
-      <c r="A304" s="10"/>
+      <c r="A304" s="12"/>
       <c r="C304" s="7"/>
+      <c r="F304" s="13"/>
+      <c r="G304" s="13"/>
     </row>
     <row r="305">
-      <c r="A305" s="10"/>
+      <c r="A305" s="12"/>
       <c r="C305" s="7"/>
+      <c r="F305" s="13"/>
+      <c r="G305" s="13"/>
     </row>
     <row r="306">
-      <c r="A306" s="10"/>
+      <c r="A306" s="12"/>
       <c r="C306" s="7"/>
+      <c r="F306" s="13"/>
+      <c r="G306" s="13"/>
     </row>
     <row r="307">
-      <c r="A307" s="10"/>
+      <c r="A307" s="12"/>
       <c r="C307" s="7"/>
+      <c r="F307" s="13"/>
+      <c r="G307" s="13"/>
     </row>
     <row r="308">
-      <c r="A308" s="10"/>
+      <c r="A308" s="12"/>
       <c r="C308" s="7"/>
+      <c r="F308" s="13"/>
+      <c r="G308" s="13"/>
     </row>
     <row r="309">
-      <c r="A309" s="10"/>
+      <c r="A309" s="12"/>
       <c r="C309" s="7"/>
+      <c r="F309" s="13"/>
+      <c r="G309" s="13"/>
     </row>
     <row r="310">
-      <c r="A310" s="10"/>
+      <c r="A310" s="12"/>
       <c r="C310" s="7"/>
+      <c r="F310" s="13"/>
+      <c r="G310" s="13"/>
     </row>
     <row r="311">
-      <c r="A311" s="10"/>
+      <c r="A311" s="12"/>
       <c r="C311" s="7"/>
+      <c r="F311" s="13"/>
+      <c r="G311" s="13"/>
     </row>
     <row r="312">
-      <c r="A312" s="10"/>
+      <c r="A312" s="12"/>
       <c r="C312" s="7"/>
+      <c r="F312" s="13"/>
+      <c r="G312" s="13"/>
     </row>
     <row r="313">
-      <c r="A313" s="10"/>
+      <c r="A313" s="12"/>
       <c r="C313" s="7"/>
+      <c r="F313" s="13"/>
+      <c r="G313" s="13"/>
     </row>
     <row r="314">
-      <c r="A314" s="10"/>
+      <c r="A314" s="12"/>
       <c r="C314" s="7"/>
+      <c r="F314" s="13"/>
+      <c r="G314" s="13"/>
     </row>
     <row r="315">
-      <c r="A315" s="10"/>
+      <c r="A315" s="12"/>
       <c r="C315" s="7"/>
+      <c r="F315" s="13"/>
+      <c r="G315" s="13"/>
     </row>
     <row r="316">
-      <c r="A316" s="10"/>
+      <c r="A316" s="12"/>
       <c r="C316" s="7"/>
+      <c r="F316" s="13"/>
+      <c r="G316" s="13"/>
     </row>
     <row r="317">
-      <c r="A317" s="10"/>
+      <c r="A317" s="12"/>
       <c r="C317" s="7"/>
+      <c r="F317" s="13"/>
+      <c r="G317" s="13"/>
     </row>
     <row r="318">
-      <c r="A318" s="10"/>
+      <c r="A318" s="12"/>
       <c r="C318" s="7"/>
+      <c r="F318" s="13"/>
+      <c r="G318" s="13"/>
     </row>
     <row r="319">
-      <c r="A319" s="10"/>
+      <c r="A319" s="12"/>
       <c r="C319" s="7"/>
+      <c r="F319" s="13"/>
+      <c r="G319" s="13"/>
     </row>
     <row r="320">
-      <c r="A320" s="10"/>
+      <c r="A320" s="12"/>
       <c r="C320" s="7"/>
+      <c r="F320" s="13"/>
+      <c r="G320" s="13"/>
     </row>
     <row r="321">
-      <c r="A321" s="10"/>
+      <c r="A321" s="12"/>
       <c r="C321" s="7"/>
+      <c r="F321" s="13"/>
+      <c r="G321" s="13"/>
     </row>
     <row r="322">
-      <c r="A322" s="10"/>
+      <c r="A322" s="12"/>
       <c r="C322" s="7"/>
+      <c r="F322" s="13"/>
+      <c r="G322" s="13"/>
     </row>
     <row r="323">
-      <c r="A323" s="10"/>
+      <c r="A323" s="12"/>
       <c r="C323" s="7"/>
+      <c r="F323" s="13"/>
+      <c r="G323" s="13"/>
     </row>
     <row r="324">
-      <c r="A324" s="10"/>
+      <c r="A324" s="12"/>
       <c r="C324" s="7"/>
+      <c r="F324" s="13"/>
+      <c r="G324" s="13"/>
     </row>
     <row r="325">
-      <c r="A325" s="10"/>
+      <c r="A325" s="12"/>
       <c r="C325" s="7"/>
+      <c r="F325" s="13"/>
+      <c r="G325" s="13"/>
     </row>
     <row r="326">
-      <c r="A326" s="10"/>
+      <c r="A326" s="12"/>
       <c r="C326" s="7"/>
+      <c r="F326" s="13"/>
+      <c r="G326" s="13"/>
     </row>
     <row r="327">
-      <c r="A327" s="10"/>
+      <c r="A327" s="12"/>
       <c r="C327" s="7"/>
+      <c r="F327" s="13"/>
+      <c r="G327" s="13"/>
     </row>
     <row r="328">
-      <c r="A328" s="10"/>
+      <c r="A328" s="12"/>
       <c r="C328" s="7"/>
+      <c r="F328" s="13"/>
+      <c r="G328" s="13"/>
     </row>
     <row r="329">
-      <c r="A329" s="10"/>
+      <c r="A329" s="12"/>
       <c r="C329" s="7"/>
+      <c r="F329" s="13"/>
+      <c r="G329" s="13"/>
     </row>
     <row r="330">
-      <c r="A330" s="10"/>
+      <c r="A330" s="12"/>
       <c r="C330" s="7"/>
+      <c r="F330" s="13"/>
+      <c r="G330" s="13"/>
     </row>
     <row r="331">
-      <c r="A331" s="10"/>
+      <c r="A331" s="12"/>
       <c r="C331" s="7"/>
+      <c r="F331" s="13"/>
+      <c r="G331" s="13"/>
     </row>
     <row r="332">
-      <c r="A332" s="10"/>
+      <c r="A332" s="12"/>
       <c r="C332" s="7"/>
+      <c r="F332" s="13"/>
+      <c r="G332" s="13"/>
     </row>
     <row r="333">
-      <c r="A333" s="10"/>
+      <c r="A333" s="12"/>
       <c r="C333" s="7"/>
+      <c r="F333" s="13"/>
+      <c r="G333" s="13"/>
     </row>
     <row r="334">
-      <c r="A334" s="10"/>
+      <c r="A334" s="12"/>
       <c r="C334" s="7"/>
+      <c r="F334" s="13"/>
+      <c r="G334" s="13"/>
     </row>
     <row r="335">
-      <c r="A335" s="10"/>
+      <c r="A335" s="12"/>
       <c r="C335" s="7"/>
+      <c r="F335" s="13"/>
+      <c r="G335" s="13"/>
     </row>
     <row r="336">
-      <c r="A336" s="10"/>
+      <c r="A336" s="12"/>
       <c r="C336" s="7"/>
+      <c r="F336" s="13"/>
+      <c r="G336" s="13"/>
     </row>
     <row r="337">
-      <c r="A337" s="10"/>
+      <c r="A337" s="12"/>
       <c r="C337" s="7"/>
+      <c r="F337" s="13"/>
+      <c r="G337" s="13"/>
     </row>
     <row r="338">
-      <c r="A338" s="10"/>
+      <c r="A338" s="12"/>
       <c r="C338" s="7"/>
+      <c r="F338" s="13"/>
+      <c r="G338" s="13"/>
     </row>
     <row r="339">
-      <c r="A339" s="10"/>
+      <c r="A339" s="12"/>
       <c r="C339" s="7"/>
+      <c r="F339" s="13"/>
+      <c r="G339" s="13"/>
     </row>
     <row r="340">
-      <c r="A340" s="10"/>
+      <c r="A340" s="12"/>
       <c r="C340" s="7"/>
+      <c r="F340" s="13"/>
+      <c r="G340" s="13"/>
     </row>
     <row r="341">
-      <c r="A341" s="10"/>
+      <c r="A341" s="12"/>
       <c r="C341" s="7"/>
+      <c r="F341" s="13"/>
+      <c r="G341" s="13"/>
     </row>
     <row r="342">
-      <c r="A342" s="10"/>
+      <c r="A342" s="12"/>
       <c r="C342" s="7"/>
+      <c r="F342" s="13"/>
+      <c r="G342" s="13"/>
     </row>
     <row r="343">
-      <c r="A343" s="10"/>
+      <c r="A343" s="12"/>
       <c r="C343" s="7"/>
+      <c r="F343" s="13"/>
+      <c r="G343" s="13"/>
     </row>
     <row r="344">
-      <c r="A344" s="10"/>
+      <c r="A344" s="12"/>
       <c r="C344" s="7"/>
+      <c r="F344" s="13"/>
+      <c r="G344" s="13"/>
     </row>
     <row r="345">
-      <c r="A345" s="10"/>
+      <c r="A345" s="12"/>
       <c r="C345" s="7"/>
+      <c r="F345" s="13"/>
+      <c r="G345" s="13"/>
     </row>
     <row r="346">
-      <c r="A346" s="10"/>
+      <c r="A346" s="12"/>
       <c r="C346" s="7"/>
+      <c r="F346" s="13"/>
+      <c r="G346" s="13"/>
     </row>
     <row r="347">
-      <c r="A347" s="10"/>
+      <c r="A347" s="12"/>
       <c r="C347" s="7"/>
+      <c r="F347" s="13"/>
+      <c r="G347" s="13"/>
     </row>
     <row r="348">
-      <c r="A348" s="10"/>
+      <c r="A348" s="12"/>
       <c r="C348" s="7"/>
+      <c r="F348" s="13"/>
+      <c r="G348" s="13"/>
     </row>
     <row r="349">
-      <c r="A349" s="10"/>
+      <c r="A349" s="12"/>
       <c r="C349" s="7"/>
+      <c r="F349" s="13"/>
+      <c r="G349" s="13"/>
     </row>
     <row r="350">
-      <c r="A350" s="10"/>
+      <c r="A350" s="12"/>
       <c r="C350" s="7"/>
+      <c r="F350" s="13"/>
+      <c r="G350" s="13"/>
     </row>
     <row r="351">
-      <c r="A351" s="10"/>
+      <c r="A351" s="12"/>
       <c r="C351" s="7"/>
+      <c r="F351" s="13"/>
+      <c r="G351" s="13"/>
     </row>
     <row r="352">
-      <c r="A352" s="10"/>
+      <c r="A352" s="12"/>
       <c r="C352" s="7"/>
+      <c r="F352" s="13"/>
+      <c r="G352" s="13"/>
     </row>
     <row r="353">
-      <c r="A353" s="10"/>
+      <c r="A353" s="12"/>
       <c r="C353" s="7"/>
+      <c r="F353" s="13"/>
+      <c r="G353" s="13"/>
     </row>
     <row r="354">
-      <c r="A354" s="10"/>
+      <c r="A354" s="12"/>
       <c r="C354" s="7"/>
+      <c r="F354" s="13"/>
+      <c r="G354" s="13"/>
     </row>
     <row r="355">
-      <c r="A355" s="10"/>
+      <c r="A355" s="12"/>
       <c r="C355" s="7"/>
+      <c r="F355" s="13"/>
+      <c r="G355" s="13"/>
     </row>
     <row r="356">
-      <c r="A356" s="10"/>
+      <c r="A356" s="12"/>
       <c r="C356" s="7"/>
+      <c r="F356" s="13"/>
+      <c r="G356" s="13"/>
     </row>
     <row r="357">
-      <c r="A357" s="10"/>
+      <c r="A357" s="12"/>
       <c r="C357" s="7"/>
+      <c r="F357" s="13"/>
+      <c r="G357" s="13"/>
     </row>
     <row r="358">
-      <c r="A358" s="10"/>
+      <c r="A358" s="12"/>
       <c r="C358" s="7"/>
+      <c r="F358" s="13"/>
+      <c r="G358" s="13"/>
     </row>
     <row r="359">
-      <c r="A359" s="10"/>
+      <c r="A359" s="12"/>
       <c r="C359" s="7"/>
+      <c r="F359" s="13"/>
+      <c r="G359" s="13"/>
     </row>
     <row r="360">
-      <c r="A360" s="10"/>
+      <c r="A360" s="12"/>
       <c r="C360" s="7"/>
+      <c r="F360" s="13"/>
+      <c r="G360" s="13"/>
     </row>
     <row r="361">
-      <c r="A361" s="10"/>
+      <c r="A361" s="12"/>
       <c r="C361" s="7"/>
+      <c r="F361" s="13"/>
+      <c r="G361" s="13"/>
     </row>
     <row r="362">
-      <c r="A362" s="10"/>
+      <c r="A362" s="12"/>
       <c r="C362" s="7"/>
+      <c r="F362" s="13"/>
+      <c r="G362" s="13"/>
     </row>
     <row r="363">
-      <c r="A363" s="10"/>
+      <c r="A363" s="12"/>
       <c r="C363" s="7"/>
+      <c r="F363" s="13"/>
+      <c r="G363" s="13"/>
     </row>
     <row r="364">
-      <c r="A364" s="10"/>
+      <c r="A364" s="12"/>
       <c r="C364" s="7"/>
+      <c r="F364" s="13"/>
+      <c r="G364" s="13"/>
     </row>
     <row r="365">
-      <c r="A365" s="10"/>
+      <c r="A365" s="12"/>
       <c r="C365" s="7"/>
+      <c r="F365" s="13"/>
+      <c r="G365" s="13"/>
     </row>
     <row r="366">
-      <c r="A366" s="10"/>
+      <c r="A366" s="12"/>
       <c r="C366" s="7"/>
+      <c r="F366" s="13"/>
+      <c r="G366" s="13"/>
     </row>
     <row r="367">
-      <c r="A367" s="10"/>
+      <c r="A367" s="12"/>
       <c r="C367" s="7"/>
+      <c r="F367" s="13"/>
+      <c r="G367" s="13"/>
     </row>
     <row r="368">
-      <c r="A368" s="10"/>
+      <c r="A368" s="12"/>
       <c r="C368" s="7"/>
+      <c r="F368" s="13"/>
+      <c r="G368" s="13"/>
     </row>
     <row r="369">
-      <c r="A369" s="10"/>
+      <c r="A369" s="12"/>
       <c r="C369" s="7"/>
+      <c r="F369" s="13"/>
+      <c r="G369" s="13"/>
     </row>
     <row r="370">
-      <c r="A370" s="10"/>
+      <c r="A370" s="12"/>
       <c r="C370" s="7"/>
+      <c r="F370" s="13"/>
+      <c r="G370" s="13"/>
     </row>
     <row r="371">
-      <c r="A371" s="10"/>
+      <c r="A371" s="12"/>
       <c r="C371" s="7"/>
+      <c r="F371" s="13"/>
+      <c r="G371" s="13"/>
     </row>
     <row r="372">
-      <c r="A372" s="10"/>
+      <c r="A372" s="12"/>
       <c r="C372" s="7"/>
+      <c r="F372" s="13"/>
+      <c r="G372" s="13"/>
     </row>
     <row r="373">
-      <c r="A373" s="10"/>
+      <c r="A373" s="12"/>
       <c r="C373" s="7"/>
+      <c r="F373" s="13"/>
+      <c r="G373" s="13"/>
     </row>
     <row r="374">
-      <c r="A374" s="10"/>
+      <c r="A374" s="12"/>
       <c r="C374" s="7"/>
+      <c r="F374" s="13"/>
+      <c r="G374" s="13"/>
     </row>
     <row r="375">
-      <c r="A375" s="10"/>
+      <c r="A375" s="12"/>
       <c r="C375" s="7"/>
+      <c r="F375" s="13"/>
+      <c r="G375" s="13"/>
     </row>
     <row r="376">
-      <c r="A376" s="10"/>
+      <c r="A376" s="12"/>
       <c r="C376" s="7"/>
+      <c r="F376" s="13"/>
+      <c r="G376" s="13"/>
     </row>
     <row r="377">
-      <c r="A377" s="10"/>
+      <c r="A377" s="12"/>
       <c r="C377" s="7"/>
+      <c r="F377" s="13"/>
+      <c r="G377" s="13"/>
     </row>
     <row r="378">
-      <c r="A378" s="10"/>
+      <c r="A378" s="12"/>
       <c r="C378" s="7"/>
+      <c r="F378" s="13"/>
+      <c r="G378" s="13"/>
     </row>
     <row r="379">
-      <c r="A379" s="10"/>
+      <c r="A379" s="12"/>
       <c r="C379" s="7"/>
+      <c r="F379" s="13"/>
+      <c r="G379" s="13"/>
     </row>
     <row r="380">
-      <c r="A380" s="10"/>
+      <c r="A380" s="12"/>
       <c r="C380" s="7"/>
+      <c r="F380" s="13"/>
+      <c r="G380" s="13"/>
     </row>
     <row r="381">
-      <c r="A381" s="10"/>
+      <c r="A381" s="12"/>
       <c r="C381" s="7"/>
+      <c r="F381" s="13"/>
+      <c r="G381" s="13"/>
     </row>
     <row r="382">
-      <c r="A382" s="10"/>
+      <c r="A382" s="12"/>
       <c r="C382" s="7"/>
+      <c r="F382" s="13"/>
+      <c r="G382" s="13"/>
     </row>
     <row r="383">
-      <c r="A383" s="10"/>
+      <c r="A383" s="12"/>
       <c r="C383" s="7"/>
+      <c r="F383" s="13"/>
+      <c r="G383" s="13"/>
     </row>
     <row r="384">
-      <c r="A384" s="10"/>
+      <c r="A384" s="12"/>
       <c r="C384" s="7"/>
+      <c r="F384" s="13"/>
+      <c r="G384" s="13"/>
     </row>
     <row r="385">
-      <c r="A385" s="10"/>
+      <c r="A385" s="12"/>
       <c r="C385" s="7"/>
+      <c r="F385" s="13"/>
+      <c r="G385" s="13"/>
     </row>
     <row r="386">
-      <c r="A386" s="10"/>
+      <c r="A386" s="12"/>
       <c r="C386" s="7"/>
+      <c r="F386" s="13"/>
+      <c r="G386" s="13"/>
     </row>
     <row r="387">
-      <c r="A387" s="10"/>
+      <c r="A387" s="12"/>
       <c r="C387" s="7"/>
+      <c r="F387" s="13"/>
+      <c r="G387" s="13"/>
     </row>
     <row r="388">
-      <c r="A388" s="10"/>
+      <c r="A388" s="12"/>
       <c r="C388" s="7"/>
+      <c r="F388" s="13"/>
+      <c r="G388" s="13"/>
     </row>
     <row r="389">
-      <c r="A389" s="10"/>
+      <c r="A389" s="12"/>
       <c r="C389" s="7"/>
+      <c r="F389" s="13"/>
+      <c r="G389" s="13"/>
     </row>
     <row r="390">
-      <c r="A390" s="10"/>
+      <c r="A390" s="12"/>
       <c r="C390" s="7"/>
+      <c r="F390" s="13"/>
+      <c r="G390" s="13"/>
     </row>
     <row r="391">
-      <c r="A391" s="10"/>
+      <c r="A391" s="12"/>
       <c r="C391" s="7"/>
+      <c r="F391" s="13"/>
+      <c r="G391" s="13"/>
     </row>
     <row r="392">
-      <c r="A392" s="10"/>
+      <c r="A392" s="12"/>
       <c r="C392" s="7"/>
+      <c r="F392" s="13"/>
+      <c r="G392" s="13"/>
     </row>
     <row r="393">
-      <c r="A393" s="10"/>
+      <c r="A393" s="12"/>
       <c r="C393" s="7"/>
+      <c r="F393" s="13"/>
+      <c r="G393" s="13"/>
     </row>
     <row r="394">
-      <c r="A394" s="10"/>
+      <c r="A394" s="12"/>
       <c r="C394" s="7"/>
+      <c r="F394" s="13"/>
+      <c r="G394" s="13"/>
     </row>
     <row r="395">
-      <c r="A395" s="10"/>
+      <c r="A395" s="12"/>
       <c r="C395" s="7"/>
+      <c r="F395" s="13"/>
+      <c r="G395" s="13"/>
     </row>
     <row r="396">
-      <c r="A396" s="10"/>
+      <c r="A396" s="12"/>
       <c r="C396" s="7"/>
+      <c r="F396" s="13"/>
+      <c r="G396" s="13"/>
     </row>
     <row r="397">
-      <c r="A397" s="10"/>
+      <c r="A397" s="12"/>
       <c r="C397" s="7"/>
+      <c r="F397" s="13"/>
+      <c r="G397" s="13"/>
     </row>
     <row r="398">
-      <c r="A398" s="10"/>
+      <c r="A398" s="12"/>
       <c r="C398" s="7"/>
+      <c r="F398" s="13"/>
+      <c r="G398" s="13"/>
     </row>
     <row r="399">
-      <c r="A399" s="10"/>
+      <c r="A399" s="12"/>
       <c r="C399" s="7"/>
+      <c r="F399" s="13"/>
+      <c r="G399" s="13"/>
     </row>
     <row r="400">
-      <c r="A400" s="10"/>
+      <c r="A400" s="12"/>
       <c r="C400" s="7"/>
+      <c r="F400" s="13"/>
+      <c r="G400" s="13"/>
     </row>
     <row r="401">
-      <c r="A401" s="10"/>
+      <c r="A401" s="12"/>
       <c r="C401" s="7"/>
+      <c r="F401" s="13"/>
+      <c r="G401" s="13"/>
     </row>
     <row r="402">
-      <c r="A402" s="10"/>
+      <c r="A402" s="12"/>
       <c r="C402" s="7"/>
+      <c r="F402" s="13"/>
+      <c r="G402" s="13"/>
     </row>
     <row r="403">
-      <c r="A403" s="10"/>
+      <c r="A403" s="12"/>
       <c r="C403" s="7"/>
+      <c r="F403" s="13"/>
+      <c r="G403" s="13"/>
     </row>
     <row r="404">
-      <c r="A404" s="10"/>
+      <c r="A404" s="12"/>
       <c r="C404" s="7"/>
+      <c r="F404" s="13"/>
+      <c r="G404" s="13"/>
     </row>
     <row r="405">
-      <c r="A405" s="10"/>
+      <c r="A405" s="12"/>
       <c r="C405" s="7"/>
+      <c r="F405" s="13"/>
+      <c r="G405" s="13"/>
     </row>
     <row r="406">
-      <c r="A406" s="10"/>
+      <c r="A406" s="12"/>
       <c r="C406" s="7"/>
+      <c r="F406" s="13"/>
+      <c r="G406" s="13"/>
     </row>
     <row r="407">
-      <c r="A407" s="10"/>
+      <c r="A407" s="12"/>
       <c r="C407" s="7"/>
+      <c r="F407" s="13"/>
+      <c r="G407" s="13"/>
     </row>
     <row r="408">
-      <c r="A408" s="10"/>
+      <c r="A408" s="12"/>
       <c r="C408" s="7"/>
+      <c r="F408" s="13"/>
+      <c r="G408" s="13"/>
     </row>
     <row r="409">
-      <c r="A409" s="10"/>
+      <c r="A409" s="12"/>
       <c r="C409" s="7"/>
+      <c r="F409" s="13"/>
+      <c r="G409" s="13"/>
     </row>
     <row r="410">
-      <c r="A410" s="10"/>
+      <c r="A410" s="12"/>
       <c r="C410" s="7"/>
+      <c r="F410" s="13"/>
+      <c r="G410" s="13"/>
     </row>
     <row r="411">
-      <c r="A411" s="10"/>
+      <c r="A411" s="12"/>
       <c r="C411" s="7"/>
+      <c r="F411" s="13"/>
+      <c r="G411" s="13"/>
     </row>
     <row r="412">
-      <c r="A412" s="10"/>
+      <c r="A412" s="12"/>
       <c r="C412" s="7"/>
+      <c r="F412" s="13"/>
+      <c r="G412" s="13"/>
     </row>
     <row r="413">
-      <c r="A413" s="10"/>
+      <c r="A413" s="12"/>
       <c r="C413" s="7"/>
+      <c r="F413" s="13"/>
+      <c r="G413" s="13"/>
     </row>
     <row r="414">
-      <c r="A414" s="10"/>
+      <c r="A414" s="12"/>
       <c r="C414" s="7"/>
+      <c r="F414" s="13"/>
+      <c r="G414" s="13"/>
     </row>
     <row r="415">
-      <c r="A415" s="10"/>
+      <c r="A415" s="12"/>
       <c r="C415" s="7"/>
+      <c r="F415" s="13"/>
+      <c r="G415" s="13"/>
     </row>
     <row r="416">
-      <c r="A416" s="10"/>
+      <c r="A416" s="12"/>
       <c r="C416" s="7"/>
+      <c r="F416" s="13"/>
+      <c r="G416" s="13"/>
     </row>
     <row r="417">
-      <c r="A417" s="10"/>
+      <c r="A417" s="12"/>
       <c r="C417" s="7"/>
+      <c r="F417" s="13"/>
+      <c r="G417" s="13"/>
     </row>
     <row r="418">
-      <c r="A418" s="10"/>
+      <c r="A418" s="12"/>
       <c r="C418" s="7"/>
+      <c r="F418" s="13"/>
+      <c r="G418" s="13"/>
     </row>
     <row r="419">
-      <c r="A419" s="10"/>
+      <c r="A419" s="12"/>
       <c r="C419" s="7"/>
+      <c r="F419" s="13"/>
+      <c r="G419" s="13"/>
     </row>
     <row r="420">
-      <c r="A420" s="10"/>
+      <c r="A420" s="12"/>
       <c r="C420" s="7"/>
+      <c r="F420" s="13"/>
+      <c r="G420" s="13"/>
     </row>
     <row r="421">
-      <c r="A421" s="10"/>
+      <c r="A421" s="12"/>
       <c r="C421" s="7"/>
+      <c r="F421" s="13"/>
+      <c r="G421" s="13"/>
     </row>
     <row r="422">
-      <c r="A422" s="10"/>
+      <c r="A422" s="12"/>
       <c r="C422" s="7"/>
+      <c r="F422" s="13"/>
+      <c r="G422" s="13"/>
     </row>
     <row r="423">
-      <c r="A423" s="10"/>
+      <c r="A423" s="12"/>
       <c r="C423" s="7"/>
+      <c r="F423" s="13"/>
+      <c r="G423" s="13"/>
     </row>
     <row r="424">
-      <c r="A424" s="10"/>
+      <c r="A424" s="12"/>
       <c r="C424" s="7"/>
+      <c r="F424" s="13"/>
+      <c r="G424" s="13"/>
     </row>
     <row r="425">
-      <c r="A425" s="10"/>
+      <c r="A425" s="12"/>
       <c r="C425" s="7"/>
+      <c r="F425" s="13"/>
+      <c r="G425" s="13"/>
     </row>
     <row r="426">
-      <c r="A426" s="10"/>
+      <c r="A426" s="12"/>
       <c r="C426" s="7"/>
+      <c r="F426" s="13"/>
+      <c r="G426" s="13"/>
     </row>
     <row r="427">
-      <c r="A427" s="10"/>
+      <c r="A427" s="12"/>
       <c r="C427" s="7"/>
+      <c r="F427" s="13"/>
+      <c r="G427" s="13"/>
     </row>
     <row r="428">
-      <c r="A428" s="10"/>
+      <c r="A428" s="12"/>
       <c r="C428" s="7"/>
+      <c r="F428" s="13"/>
+      <c r="G428" s="13"/>
     </row>
     <row r="429">
-      <c r="A429" s="10"/>
+      <c r="A429" s="12"/>
       <c r="C429" s="7"/>
+      <c r="F429" s="13"/>
+      <c r="G429" s="13"/>
     </row>
     <row r="430">
-      <c r="A430" s="10"/>
+      <c r="A430" s="12"/>
       <c r="C430" s="7"/>
+      <c r="F430" s="13"/>
+      <c r="G430" s="13"/>
     </row>
     <row r="431">
-      <c r="A431" s="10"/>
+      <c r="A431" s="12"/>
       <c r="C431" s="7"/>
+      <c r="F431" s="13"/>
+      <c r="G431" s="13"/>
     </row>
     <row r="432">
-      <c r="A432" s="10"/>
+      <c r="A432" s="12"/>
       <c r="C432" s="7"/>
+      <c r="F432" s="13"/>
+      <c r="G432" s="13"/>
     </row>
     <row r="433">
-      <c r="A433" s="10"/>
+      <c r="A433" s="12"/>
       <c r="C433" s="7"/>
+      <c r="F433" s="13"/>
+      <c r="G433" s="13"/>
     </row>
     <row r="434">
-      <c r="A434" s="10"/>
+      <c r="A434" s="12"/>
       <c r="C434" s="7"/>
+      <c r="F434" s="13"/>
+      <c r="G434" s="13"/>
     </row>
     <row r="435">
-      <c r="A435" s="10"/>
+      <c r="A435" s="12"/>
       <c r="C435" s="7"/>
+      <c r="F435" s="13"/>
+      <c r="G435" s="13"/>
     </row>
     <row r="436">
-      <c r="A436" s="10"/>
+      <c r="A436" s="12"/>
       <c r="C436" s="7"/>
+      <c r="F436" s="13"/>
+      <c r="G436" s="13"/>
     </row>
     <row r="437">
-      <c r="A437" s="10"/>
+      <c r="A437" s="12"/>
       <c r="C437" s="7"/>
+      <c r="F437" s="13"/>
+      <c r="G437" s="13"/>
     </row>
     <row r="438">
-      <c r="A438" s="10"/>
+      <c r="A438" s="12"/>
       <c r="C438" s="7"/>
+      <c r="F438" s="13"/>
+      <c r="G438" s="13"/>
     </row>
     <row r="439">
-      <c r="A439" s="10"/>
+      <c r="A439" s="12"/>
       <c r="C439" s="7"/>
+      <c r="F439" s="13"/>
+      <c r="G439" s="13"/>
     </row>
     <row r="440">
-      <c r="A440" s="10"/>
+      <c r="A440" s="12"/>
       <c r="C440" s="7"/>
+      <c r="F440" s="13"/>
+      <c r="G440" s="13"/>
     </row>
     <row r="441">
-      <c r="A441" s="10"/>
+      <c r="A441" s="12"/>
       <c r="C441" s="7"/>
+      <c r="F441" s="13"/>
+      <c r="G441" s="13"/>
     </row>
     <row r="442">
-      <c r="A442" s="10"/>
+      <c r="A442" s="12"/>
       <c r="C442" s="7"/>
+      <c r="F442" s="13"/>
+      <c r="G442" s="13"/>
     </row>
     <row r="443">
-      <c r="A443" s="10"/>
+      <c r="A443" s="12"/>
       <c r="C443" s="7"/>
+      <c r="F443" s="13"/>
+      <c r="G443" s="13"/>
     </row>
     <row r="444">
-      <c r="A444" s="10"/>
+      <c r="A444" s="12"/>
       <c r="C444" s="7"/>
+      <c r="F444" s="13"/>
+      <c r="G444" s="13"/>
     </row>
     <row r="445">
-      <c r="A445" s="10"/>
+      <c r="A445" s="12"/>
       <c r="C445" s="7"/>
+      <c r="F445" s="13"/>
+      <c r="G445" s="13"/>
     </row>
     <row r="446">
-      <c r="A446" s="10"/>
+      <c r="A446" s="12"/>
       <c r="C446" s="7"/>
+      <c r="F446" s="13"/>
+      <c r="G446" s="13"/>
     </row>
     <row r="447">
-      <c r="A447" s="10"/>
+      <c r="A447" s="12"/>
       <c r="C447" s="7"/>
+      <c r="F447" s="13"/>
+      <c r="G447" s="13"/>
     </row>
     <row r="448">
-      <c r="A448" s="10"/>
+      <c r="A448" s="12"/>
       <c r="C448" s="7"/>
+      <c r="F448" s="13"/>
+      <c r="G448" s="13"/>
     </row>
     <row r="449">
-      <c r="A449" s="10"/>
+      <c r="A449" s="12"/>
       <c r="C449" s="7"/>
+      <c r="F449" s="13"/>
+      <c r="G449" s="13"/>
     </row>
     <row r="450">
-      <c r="A450" s="10"/>
+      <c r="A450" s="12"/>
       <c r="C450" s="7"/>
+      <c r="F450" s="13"/>
+      <c r="G450" s="13"/>
     </row>
     <row r="451">
-      <c r="A451" s="10"/>
+      <c r="A451" s="12"/>
       <c r="C451" s="7"/>
+      <c r="F451" s="13"/>
+      <c r="G451" s="13"/>
     </row>
     <row r="452">
-      <c r="A452" s="10"/>
+      <c r="A452" s="12"/>
       <c r="C452" s="7"/>
+      <c r="F452" s="13"/>
+      <c r="G452" s="13"/>
     </row>
     <row r="453">
-      <c r="A453" s="10"/>
+      <c r="A453" s="12"/>
       <c r="C453" s="7"/>
+      <c r="F453" s="13"/>
+      <c r="G453" s="13"/>
     </row>
     <row r="454">
-      <c r="A454" s="10"/>
+      <c r="A454" s="12"/>
       <c r="C454" s="7"/>
+      <c r="F454" s="13"/>
+      <c r="G454" s="13"/>
     </row>
     <row r="455">
-      <c r="A455" s="10"/>
+      <c r="A455" s="12"/>
       <c r="C455" s="7"/>
+      <c r="F455" s="13"/>
+      <c r="G455" s="13"/>
     </row>
     <row r="456">
-      <c r="A456" s="10"/>
+      <c r="A456" s="12"/>
       <c r="C456" s="7"/>
+      <c r="F456" s="13"/>
+      <c r="G456" s="13"/>
     </row>
     <row r="457">
-      <c r="A457" s="10"/>
+      <c r="A457" s="12"/>
       <c r="C457" s="7"/>
+      <c r="F457" s="13"/>
+      <c r="G457" s="13"/>
     </row>
     <row r="458">
-      <c r="A458" s="10"/>
+      <c r="A458" s="12"/>
       <c r="C458" s="7"/>
+      <c r="F458" s="13"/>
+      <c r="G458" s="13"/>
     </row>
     <row r="459">
-      <c r="A459" s="10"/>
+      <c r="A459" s="12"/>
       <c r="C459" s="7"/>
+      <c r="F459" s="13"/>
+      <c r="G459" s="13"/>
     </row>
     <row r="460">
-      <c r="A460" s="10"/>
+      <c r="A460" s="12"/>
       <c r="C460" s="7"/>
+      <c r="F460" s="13"/>
+      <c r="G460" s="13"/>
     </row>
     <row r="461">
-      <c r="A461" s="10"/>
+      <c r="A461" s="12"/>
       <c r="C461" s="7"/>
+      <c r="F461" s="13"/>
+      <c r="G461" s="13"/>
     </row>
     <row r="462">
-      <c r="A462" s="10"/>
+      <c r="A462" s="12"/>
       <c r="C462" s="7"/>
+      <c r="F462" s="13"/>
+      <c r="G462" s="13"/>
     </row>
     <row r="463">
-      <c r="A463" s="10"/>
+      <c r="A463" s="12"/>
       <c r="C463" s="7"/>
+      <c r="F463" s="13"/>
+      <c r="G463" s="13"/>
     </row>
     <row r="464">
-      <c r="A464" s="10"/>
+      <c r="A464" s="12"/>
       <c r="C464" s="7"/>
+      <c r="F464" s="13"/>
+      <c r="G464" s="13"/>
     </row>
     <row r="465">
-      <c r="A465" s="10"/>
+      <c r="A465" s="12"/>
       <c r="C465" s="7"/>
+      <c r="F465" s="13"/>
+      <c r="G465" s="13"/>
     </row>
     <row r="466">
-      <c r="A466" s="10"/>
+      <c r="A466" s="12"/>
       <c r="C466" s="7"/>
+      <c r="F466" s="13"/>
+      <c r="G466" s="13"/>
     </row>
     <row r="467">
-      <c r="A467" s="10"/>
+      <c r="A467" s="12"/>
       <c r="C467" s="7"/>
+      <c r="F467" s="13"/>
+      <c r="G467" s="13"/>
     </row>
     <row r="468">
-      <c r="A468" s="10"/>
+      <c r="A468" s="12"/>
       <c r="C468" s="7"/>
+      <c r="F468" s="13"/>
+      <c r="G468" s="13"/>
     </row>
     <row r="469">
-      <c r="A469" s="10"/>
+      <c r="A469" s="12"/>
       <c r="C469" s="7"/>
+      <c r="F469" s="13"/>
+      <c r="G469" s="13"/>
     </row>
     <row r="470">
-      <c r="A470" s="10"/>
+      <c r="A470" s="12"/>
       <c r="C470" s="7"/>
+      <c r="F470" s="13"/>
+      <c r="G470" s="13"/>
     </row>
     <row r="471">
-      <c r="A471" s="10"/>
+      <c r="A471" s="12"/>
       <c r="C471" s="7"/>
+      <c r="F471" s="13"/>
+      <c r="G471" s="13"/>
     </row>
     <row r="472">
-      <c r="A472" s="10"/>
+      <c r="A472" s="12"/>
       <c r="C472" s="7"/>
+      <c r="F472" s="13"/>
+      <c r="G472" s="13"/>
     </row>
     <row r="473">
-      <c r="A473" s="10"/>
+      <c r="A473" s="12"/>
       <c r="C473" s="7"/>
+      <c r="F473" s="13"/>
+      <c r="G473" s="13"/>
     </row>
     <row r="474">
-      <c r="A474" s="10"/>
+      <c r="A474" s="12"/>
       <c r="C474" s="7"/>
+      <c r="F474" s="13"/>
+      <c r="G474" s="13"/>
     </row>
     <row r="475">
-      <c r="A475" s="10"/>
+      <c r="A475" s="12"/>
       <c r="C475" s="7"/>
+      <c r="F475" s="13"/>
+      <c r="G475" s="13"/>
     </row>
     <row r="476">
-      <c r="A476" s="10"/>
+      <c r="A476" s="12"/>
       <c r="C476" s="7"/>
+      <c r="F476" s="13"/>
+      <c r="G476" s="13"/>
     </row>
     <row r="477">
-      <c r="A477" s="10"/>
+      <c r="A477" s="12"/>
       <c r="C477" s="7"/>
+      <c r="F477" s="13"/>
+      <c r="G477" s="13"/>
     </row>
     <row r="478">
-      <c r="A478" s="10"/>
+      <c r="A478" s="12"/>
       <c r="C478" s="7"/>
+      <c r="F478" s="13"/>
+      <c r="G478" s="13"/>
     </row>
     <row r="479">
-      <c r="A479" s="10"/>
+      <c r="A479" s="12"/>
       <c r="C479" s="7"/>
+      <c r="F479" s="13"/>
+      <c r="G479" s="13"/>
     </row>
     <row r="480">
-      <c r="A480" s="10"/>
+      <c r="A480" s="12"/>
       <c r="C480" s="7"/>
+      <c r="F480" s="13"/>
+      <c r="G480" s="13"/>
     </row>
     <row r="481">
-      <c r="A481" s="10"/>
+      <c r="A481" s="12"/>
       <c r="C481" s="7"/>
+      <c r="F481" s="13"/>
+      <c r="G481" s="13"/>
     </row>
     <row r="482">
-      <c r="A482" s="10"/>
+      <c r="A482" s="12"/>
       <c r="C482" s="7"/>
+      <c r="F482" s="13"/>
+      <c r="G482" s="13"/>
     </row>
     <row r="483">
-      <c r="A483" s="10"/>
+      <c r="A483" s="12"/>
       <c r="C483" s="7"/>
+      <c r="F483" s="13"/>
+      <c r="G483" s="13"/>
     </row>
     <row r="484">
-      <c r="A484" s="10"/>
+      <c r="A484" s="12"/>
       <c r="C484" s="7"/>
+      <c r="F484" s="13"/>
+      <c r="G484" s="13"/>
     </row>
     <row r="485">
-      <c r="A485" s="10"/>
+      <c r="A485" s="12"/>
       <c r="C485" s="7"/>
+      <c r="F485" s="13"/>
+      <c r="G485" s="13"/>
     </row>
     <row r="486">
-      <c r="A486" s="10"/>
+      <c r="A486" s="12"/>
       <c r="C486" s="7"/>
+      <c r="F486" s="13"/>
+      <c r="G486" s="13"/>
     </row>
     <row r="487">
-      <c r="A487" s="10"/>
+      <c r="A487" s="12"/>
       <c r="C487" s="7"/>
+      <c r="F487" s="13"/>
+      <c r="G487" s="13"/>
     </row>
     <row r="488">
-      <c r="A488" s="10"/>
+      <c r="A488" s="12"/>
       <c r="C488" s="7"/>
+      <c r="F488" s="13"/>
+      <c r="G488" s="13"/>
     </row>
     <row r="489">
-      <c r="A489" s="10"/>
+      <c r="A489" s="12"/>
       <c r="C489" s="7"/>
+      <c r="F489" s="13"/>
+      <c r="G489" s="13"/>
     </row>
     <row r="490">
-      <c r="A490" s="10"/>
+      <c r="A490" s="12"/>
       <c r="C490" s="7"/>
+      <c r="F490" s="13"/>
+      <c r="G490" s="13"/>
     </row>
     <row r="491">
-      <c r="A491" s="10"/>
+      <c r="A491" s="12"/>
       <c r="C491" s="7"/>
+      <c r="F491" s="13"/>
+      <c r="G491" s="13"/>
     </row>
     <row r="492">
-      <c r="A492" s="10"/>
+      <c r="A492" s="12"/>
       <c r="C492" s="7"/>
+      <c r="F492" s="13"/>
+      <c r="G492" s="13"/>
     </row>
     <row r="493">
-      <c r="A493" s="10"/>
+      <c r="A493" s="12"/>
       <c r="C493" s="7"/>
+      <c r="F493" s="13"/>
+      <c r="G493" s="13"/>
     </row>
     <row r="494">
-      <c r="A494" s="10"/>
+      <c r="A494" s="12"/>
       <c r="C494" s="7"/>
+      <c r="F494" s="13"/>
+      <c r="G494" s="13"/>
     </row>
     <row r="495">
-      <c r="A495" s="10"/>
+      <c r="A495" s="12"/>
       <c r="C495" s="7"/>
+      <c r="F495" s="13"/>
+      <c r="G495" s="13"/>
     </row>
     <row r="496">
-      <c r="A496" s="10"/>
+      <c r="A496" s="12"/>
       <c r="C496" s="7"/>
+      <c r="F496" s="13"/>
+      <c r="G496" s="13"/>
     </row>
     <row r="497">
-      <c r="A497" s="10"/>
+      <c r="A497" s="12"/>
       <c r="C497" s="7"/>
+      <c r="F497" s="13"/>
+      <c r="G497" s="13"/>
     </row>
     <row r="498">
-      <c r="A498" s="10"/>
+      <c r="A498" s="12"/>
       <c r="C498" s="7"/>
+      <c r="F498" s="13"/>
+      <c r="G498" s="13"/>
     </row>
     <row r="499">
-      <c r="A499" s="10"/>
+      <c r="A499" s="12"/>
       <c r="C499" s="7"/>
+      <c r="F499" s="13"/>
+      <c r="G499" s="13"/>
     </row>
     <row r="500">
-      <c r="A500" s="10"/>
+      <c r="A500" s="12"/>
       <c r="C500" s="7"/>
+      <c r="F500" s="13"/>
+      <c r="G500" s="13"/>
     </row>
     <row r="501">
-      <c r="A501" s="10"/>
+      <c r="A501" s="12"/>
       <c r="C501" s="7"/>
+      <c r="F501" s="13"/>
+      <c r="G501" s="13"/>
     </row>
     <row r="502">
-      <c r="A502" s="10"/>
+      <c r="A502" s="12"/>
       <c r="C502" s="7"/>
+      <c r="F502" s="13"/>
+      <c r="G502" s="13"/>
     </row>
     <row r="503">
-      <c r="A503" s="10"/>
+      <c r="A503" s="12"/>
       <c r="C503" s="7"/>
+      <c r="F503" s="13"/>
+      <c r="G503" s="13"/>
     </row>
     <row r="504">
-      <c r="A504" s="10"/>
+      <c r="A504" s="12"/>
       <c r="C504" s="7"/>
+      <c r="F504" s="13"/>
+      <c r="G504" s="13"/>
     </row>
     <row r="505">
-      <c r="A505" s="10"/>
+      <c r="A505" s="12"/>
       <c r="C505" s="7"/>
+      <c r="F505" s="13"/>
+      <c r="G505" s="13"/>
     </row>
     <row r="506">
-      <c r="A506" s="10"/>
+      <c r="A506" s="12"/>
       <c r="C506" s="7"/>
+      <c r="F506" s="13"/>
+      <c r="G506" s="13"/>
     </row>
     <row r="507">
-      <c r="A507" s="10"/>
+      <c r="A507" s="12"/>
       <c r="C507" s="7"/>
+      <c r="F507" s="13"/>
+      <c r="G507" s="13"/>
     </row>
     <row r="508">
-      <c r="A508" s="10"/>
+      <c r="A508" s="12"/>
       <c r="C508" s="7"/>
+      <c r="F508" s="13"/>
+      <c r="G508" s="13"/>
     </row>
     <row r="509">
-      <c r="A509" s="10"/>
+      <c r="A509" s="12"/>
       <c r="C509" s="7"/>
+      <c r="F509" s="13"/>
+      <c r="G509" s="13"/>
     </row>
     <row r="510">
-      <c r="A510" s="10"/>
+      <c r="A510" s="12"/>
       <c r="C510" s="7"/>
+      <c r="F510" s="13"/>
+      <c r="G510" s="13"/>
     </row>
     <row r="511">
-      <c r="A511" s="10"/>
+      <c r="A511" s="12"/>
       <c r="C511" s="7"/>
+      <c r="F511" s="13"/>
+      <c r="G511" s="13"/>
     </row>
     <row r="512">
-      <c r="A512" s="10"/>
+      <c r="A512" s="12"/>
       <c r="C512" s="7"/>
+      <c r="F512" s="13"/>
+      <c r="G512" s="13"/>
     </row>
     <row r="513">
-      <c r="A513" s="10"/>
+      <c r="A513" s="12"/>
       <c r="C513" s="7"/>
+      <c r="F513" s="13"/>
+      <c r="G513" s="13"/>
     </row>
     <row r="514">
-      <c r="A514" s="10"/>
+      <c r="A514" s="12"/>
       <c r="C514" s="7"/>
+      <c r="F514" s="13"/>
+      <c r="G514" s="13"/>
     </row>
     <row r="515">
-      <c r="A515" s="10"/>
+      <c r="A515" s="12"/>
       <c r="C515" s="7"/>
+      <c r="F515" s="13"/>
+      <c r="G515" s="13"/>
     </row>
     <row r="516">
-      <c r="A516" s="10"/>
+      <c r="A516" s="12"/>
       <c r="C516" s="7"/>
+      <c r="F516" s="13"/>
+      <c r="G516" s="13"/>
     </row>
     <row r="517">
-      <c r="A517" s="10"/>
+      <c r="A517" s="12"/>
       <c r="C517" s="7"/>
+      <c r="F517" s="13"/>
+      <c r="G517" s="13"/>
     </row>
     <row r="518">
-      <c r="A518" s="10"/>
+      <c r="A518" s="12"/>
       <c r="C518" s="7"/>
+      <c r="F518" s="13"/>
+      <c r="G518" s="13"/>
     </row>
     <row r="519">
-      <c r="A519" s="10"/>
+      <c r="A519" s="12"/>
       <c r="C519" s="7"/>
+      <c r="F519" s="13"/>
+      <c r="G519" s="13"/>
     </row>
     <row r="520">
-      <c r="A520" s="10"/>
+      <c r="A520" s="12"/>
       <c r="C520" s="7"/>
+      <c r="F520" s="13"/>
+      <c r="G520" s="13"/>
     </row>
     <row r="521">
-      <c r="A521" s="10"/>
+      <c r="A521" s="12"/>
       <c r="C521" s="7"/>
+      <c r="F521" s="13"/>
+      <c r="G521" s="13"/>
     </row>
     <row r="522">
-      <c r="A522" s="10"/>
+      <c r="A522" s="12"/>
       <c r="C522" s="7"/>
+      <c r="F522" s="13"/>
+      <c r="G522" s="13"/>
     </row>
     <row r="523">
-      <c r="A523" s="10"/>
+      <c r="A523" s="12"/>
       <c r="C523" s="7"/>
+      <c r="F523" s="13"/>
+      <c r="G523" s="13"/>
     </row>
     <row r="524">
-      <c r="A524" s="10"/>
+      <c r="A524" s="12"/>
       <c r="C524" s="7"/>
+      <c r="F524" s="13"/>
+      <c r="G524" s="13"/>
     </row>
     <row r="525">
-      <c r="A525" s="10"/>
+      <c r="A525" s="12"/>
       <c r="C525" s="7"/>
+      <c r="F525" s="13"/>
+      <c r="G525" s="13"/>
     </row>
     <row r="526">
-      <c r="A526" s="10"/>
+      <c r="A526" s="12"/>
       <c r="C526" s="7"/>
+      <c r="F526" s="13"/>
+      <c r="G526" s="13"/>
     </row>
     <row r="527">
-      <c r="A527" s="10"/>
+      <c r="A527" s="12"/>
       <c r="C527" s="7"/>
+      <c r="F527" s="13"/>
+      <c r="G527" s="13"/>
     </row>
     <row r="528">
-      <c r="A528" s="10"/>
+      <c r="A528" s="12"/>
       <c r="C528" s="7"/>
+      <c r="F528" s="13"/>
+      <c r="G528" s="13"/>
     </row>
     <row r="529">
-      <c r="A529" s="10"/>
+      <c r="A529" s="12"/>
       <c r="C529" s="7"/>
+      <c r="F529" s="13"/>
+      <c r="G529" s="13"/>
     </row>
     <row r="530">
-      <c r="A530" s="10"/>
+      <c r="A530" s="12"/>
       <c r="C530" s="7"/>
+      <c r="F530" s="13"/>
+      <c r="G530" s="13"/>
     </row>
     <row r="531">
-      <c r="A531" s="10"/>
+      <c r="A531" s="12"/>
       <c r="C531" s="7"/>
+      <c r="F531" s="13"/>
+      <c r="G531" s="13"/>
     </row>
     <row r="532">
-      <c r="A532" s="10"/>
+      <c r="A532" s="12"/>
       <c r="C532" s="7"/>
+      <c r="F532" s="13"/>
+      <c r="G532" s="13"/>
     </row>
     <row r="533">
-      <c r="A533" s="10"/>
+      <c r="A533" s="12"/>
       <c r="C533" s="7"/>
+      <c r="F533" s="13"/>
+      <c r="G533" s="13"/>
     </row>
     <row r="534">
-      <c r="A534" s="10"/>
+      <c r="A534" s="12"/>
       <c r="C534" s="7"/>
+      <c r="F534" s="13"/>
+      <c r="G534" s="13"/>
     </row>
     <row r="535">
-      <c r="A535" s="10"/>
+      <c r="A535" s="12"/>
       <c r="C535" s="7"/>
+      <c r="F535" s="13"/>
+      <c r="G535" s="13"/>
     </row>
     <row r="536">
-      <c r="A536" s="10"/>
+      <c r="A536" s="12"/>
       <c r="C536" s="7"/>
+      <c r="F536" s="13"/>
+      <c r="G536" s="13"/>
     </row>
     <row r="537">
-      <c r="A537" s="10"/>
+      <c r="A537" s="12"/>
       <c r="C537" s="7"/>
+      <c r="F537" s="13"/>
+      <c r="G537" s="13"/>
     </row>
     <row r="538">
-      <c r="A538" s="10"/>
+      <c r="A538" s="12"/>
       <c r="C538" s="7"/>
+      <c r="F538" s="13"/>
+      <c r="G538" s="13"/>
     </row>
     <row r="539">
-      <c r="A539" s="10"/>
+      <c r="A539" s="12"/>
       <c r="C539" s="7"/>
+      <c r="F539" s="13"/>
+      <c r="G539" s="13"/>
     </row>
     <row r="540">
-      <c r="A540" s="10"/>
+      <c r="A540" s="12"/>
       <c r="C540" s="7"/>
+      <c r="F540" s="13"/>
+      <c r="G540" s="13"/>
     </row>
     <row r="541">
-      <c r="A541" s="10"/>
+      <c r="A541" s="12"/>
       <c r="C541" s="7"/>
+      <c r="F541" s="13"/>
+      <c r="G541" s="13"/>
     </row>
     <row r="542">
-      <c r="A542" s="10"/>
+      <c r="A542" s="12"/>
       <c r="C542" s="7"/>
+      <c r="F542" s="13"/>
+      <c r="G542" s="13"/>
     </row>
     <row r="543">
-      <c r="A543" s="10"/>
+      <c r="A543" s="12"/>
       <c r="C543" s="7"/>
+      <c r="F543" s="13"/>
+      <c r="G543" s="13"/>
     </row>
     <row r="544">
-      <c r="A544" s="10"/>
+      <c r="A544" s="12"/>
       <c r="C544" s="7"/>
+      <c r="F544" s="13"/>
+      <c r="G544" s="13"/>
     </row>
     <row r="545">
-      <c r="A545" s="10"/>
+      <c r="A545" s="12"/>
       <c r="C545" s="7"/>
+      <c r="F545" s="13"/>
+      <c r="G545" s="13"/>
     </row>
     <row r="546">
-      <c r="A546" s="10"/>
+      <c r="A546" s="12"/>
       <c r="C546" s="7"/>
+      <c r="F546" s="13"/>
+      <c r="G546" s="13"/>
     </row>
     <row r="547">
-      <c r="A547" s="10"/>
+      <c r="A547" s="12"/>
       <c r="C547" s="7"/>
+      <c r="F547" s="13"/>
+      <c r="G547" s="13"/>
     </row>
     <row r="548">
-      <c r="A548" s="10"/>
+      <c r="A548" s="12"/>
       <c r="C548" s="7"/>
+      <c r="F548" s="13"/>
+      <c r="G548" s="13"/>
     </row>
     <row r="549">
-      <c r="A549" s="10"/>
+      <c r="A549" s="12"/>
       <c r="C549" s="7"/>
+      <c r="F549" s="13"/>
+      <c r="G549" s="13"/>
     </row>
     <row r="550">
-      <c r="A550" s="10"/>
+      <c r="A550" s="12"/>
       <c r="C550" s="7"/>
+      <c r="F550" s="13"/>
+      <c r="G550" s="13"/>
     </row>
     <row r="551">
-      <c r="A551" s="10"/>
+      <c r="A551" s="12"/>
       <c r="C551" s="7"/>
+      <c r="F551" s="13"/>
+      <c r="G551" s="13"/>
     </row>
     <row r="552">
-      <c r="A552" s="10"/>
+      <c r="A552" s="12"/>
       <c r="C552" s="7"/>
+      <c r="F552" s="13"/>
+      <c r="G552" s="13"/>
     </row>
     <row r="553">
-      <c r="A553" s="10"/>
+      <c r="A553" s="12"/>
       <c r="C553" s="7"/>
+      <c r="F553" s="13"/>
+      <c r="G553" s="13"/>
     </row>
     <row r="554">
-      <c r="A554" s="10"/>
+      <c r="A554" s="12"/>
       <c r="C554" s="7"/>
+      <c r="F554" s="13"/>
+      <c r="G554" s="13"/>
     </row>
     <row r="555">
-      <c r="A555" s="10"/>
+      <c r="A555" s="12"/>
       <c r="C555" s="7"/>
+      <c r="F555" s="13"/>
+      <c r="G555" s="13"/>
     </row>
     <row r="556">
-      <c r="A556" s="10"/>
+      <c r="A556" s="12"/>
       <c r="C556" s="7"/>
+      <c r="F556" s="13"/>
+      <c r="G556" s="13"/>
     </row>
     <row r="557">
-      <c r="A557" s="10"/>
+      <c r="A557" s="12"/>
       <c r="C557" s="7"/>
+      <c r="F557" s="13"/>
+      <c r="G557" s="13"/>
     </row>
     <row r="558">
-      <c r="A558" s="10"/>
+      <c r="A558" s="12"/>
       <c r="C558" s="7"/>
+      <c r="F558" s="13"/>
+      <c r="G558" s="13"/>
     </row>
     <row r="559">
-      <c r="A559" s="10"/>
+      <c r="A559" s="12"/>
       <c r="C559" s="7"/>
+      <c r="F559" s="13"/>
+      <c r="G559" s="13"/>
     </row>
     <row r="560">
-      <c r="A560" s="10"/>
+      <c r="A560" s="12"/>
       <c r="C560" s="7"/>
+      <c r="F560" s="13"/>
+      <c r="G560" s="13"/>
     </row>
     <row r="561">
-      <c r="A561" s="10"/>
+      <c r="A561" s="12"/>
       <c r="C561" s="7"/>
+      <c r="F561" s="13"/>
+      <c r="G561" s="13"/>
     </row>
     <row r="562">
-      <c r="A562" s="10"/>
+      <c r="A562" s="12"/>
       <c r="C562" s="7"/>
+      <c r="F562" s="13"/>
+      <c r="G562" s="13"/>
     </row>
     <row r="563">
-      <c r="A563" s="10"/>
+      <c r="A563" s="12"/>
       <c r="C563" s="7"/>
+      <c r="F563" s="13"/>
+      <c r="G563" s="13"/>
     </row>
     <row r="564">
-      <c r="A564" s="10"/>
+      <c r="A564" s="12"/>
       <c r="C564" s="7"/>
+      <c r="F564" s="13"/>
+      <c r="G564" s="13"/>
     </row>
     <row r="565">
-      <c r="A565" s="10"/>
+      <c r="A565" s="12"/>
       <c r="C565" s="7"/>
+      <c r="F565" s="13"/>
+      <c r="G565" s="13"/>
     </row>
     <row r="566">
-      <c r="A566" s="10"/>
+      <c r="A566" s="12"/>
       <c r="C566" s="7"/>
+      <c r="F566" s="13"/>
+      <c r="G566" s="13"/>
     </row>
     <row r="567">
-      <c r="A567" s="10"/>
+      <c r="A567" s="12"/>
       <c r="C567" s="7"/>
+      <c r="F567" s="13"/>
+      <c r="G567" s="13"/>
     </row>
     <row r="568">
-      <c r="A568" s="10"/>
+      <c r="A568" s="12"/>
       <c r="C568" s="7"/>
+      <c r="F568" s="13"/>
+      <c r="G568" s="13"/>
     </row>
     <row r="569">
-      <c r="A569" s="10"/>
+      <c r="A569" s="12"/>
       <c r="C569" s="7"/>
+      <c r="F569" s="13"/>
+      <c r="G569" s="13"/>
     </row>
     <row r="570">
-      <c r="A570" s="10"/>
+      <c r="A570" s="12"/>
       <c r="C570" s="7"/>
+      <c r="F570" s="13"/>
+      <c r="G570" s="13"/>
     </row>
     <row r="571">
-      <c r="A571" s="10"/>
+      <c r="A571" s="12"/>
       <c r="C571" s="7"/>
+      <c r="F571" s="13"/>
+      <c r="G571" s="13"/>
     </row>
     <row r="572">
-      <c r="A572" s="10"/>
+      <c r="A572" s="12"/>
       <c r="C572" s="7"/>
+      <c r="F572" s="13"/>
+      <c r="G572" s="13"/>
     </row>
     <row r="573">
-      <c r="A573" s="10"/>
+      <c r="A573" s="12"/>
       <c r="C573" s="7"/>
+      <c r="F573" s="13"/>
+      <c r="G573" s="13"/>
     </row>
     <row r="574">
-      <c r="A574" s="10"/>
+      <c r="A574" s="12"/>
       <c r="C574" s="7"/>
+      <c r="F574" s="13"/>
+      <c r="G574" s="13"/>
     </row>
     <row r="575">
-      <c r="A575" s="10"/>
+      <c r="A575" s="12"/>
       <c r="C575" s="7"/>
+      <c r="F575" s="13"/>
+      <c r="G575" s="13"/>
     </row>
     <row r="576">
-      <c r="A576" s="10"/>
+      <c r="A576" s="12"/>
       <c r="C576" s="7"/>
+      <c r="F576" s="13"/>
+      <c r="G576" s="13"/>
     </row>
     <row r="577">
-      <c r="A577" s="10"/>
+      <c r="A577" s="12"/>
       <c r="C577" s="7"/>
+      <c r="F577" s="13"/>
+      <c r="G577" s="13"/>
     </row>
     <row r="578">
-      <c r="A578" s="10"/>
+      <c r="A578" s="12"/>
       <c r="C578" s="7"/>
+      <c r="F578" s="13"/>
+      <c r="G578" s="13"/>
     </row>
     <row r="579">
-      <c r="A579" s="10"/>
+      <c r="A579" s="12"/>
       <c r="C579" s="7"/>
+      <c r="F579" s="13"/>
+      <c r="G579" s="13"/>
     </row>
     <row r="580">
-      <c r="A580" s="10"/>
+      <c r="A580" s="12"/>
       <c r="C580" s="7"/>
+      <c r="F580" s="13"/>
+      <c r="G580" s="13"/>
     </row>
     <row r="581">
-      <c r="A581" s="10"/>
+      <c r="A581" s="12"/>
       <c r="C581" s="7"/>
+      <c r="F581" s="13"/>
+      <c r="G581" s="13"/>
     </row>
     <row r="582">
-      <c r="A582" s="10"/>
+      <c r="A582" s="12"/>
       <c r="C582" s="7"/>
+      <c r="F582" s="13"/>
+      <c r="G582" s="13"/>
     </row>
     <row r="583">
-      <c r="A583" s="10"/>
+      <c r="A583" s="12"/>
       <c r="C583" s="7"/>
+      <c r="F583" s="13"/>
+      <c r="G583" s="13"/>
     </row>
     <row r="584">
-      <c r="A584" s="10"/>
+      <c r="A584" s="12"/>
       <c r="C584" s="7"/>
+      <c r="F584" s="13"/>
+      <c r="G584" s="13"/>
     </row>
     <row r="585">
-      <c r="A585" s="10"/>
+      <c r="A585" s="12"/>
       <c r="C585" s="7"/>
+      <c r="F585" s="13"/>
+      <c r="G585" s="13"/>
     </row>
     <row r="586">
-      <c r="A586" s="10"/>
+      <c r="A586" s="12"/>
       <c r="C586" s="7"/>
+      <c r="F586" s="13"/>
+      <c r="G586" s="13"/>
     </row>
     <row r="587">
-      <c r="A587" s="10"/>
+      <c r="A587" s="12"/>
       <c r="C587" s="7"/>
+      <c r="F587" s="13"/>
+      <c r="G587" s="13"/>
     </row>
     <row r="588">
-      <c r="A588" s="10"/>
+      <c r="A588" s="12"/>
       <c r="C588" s="7"/>
+      <c r="F588" s="13"/>
+      <c r="G588" s="13"/>
     </row>
     <row r="589">
-      <c r="A589" s="10"/>
+      <c r="A589" s="12"/>
       <c r="C589" s="7"/>
+      <c r="F589" s="13"/>
+      <c r="G589" s="13"/>
     </row>
     <row r="590">
-      <c r="A590" s="10"/>
+      <c r="A590" s="12"/>
       <c r="C590" s="7"/>
+      <c r="F590" s="13"/>
+      <c r="G590" s="13"/>
     </row>
     <row r="591">
-      <c r="A591" s="10"/>
+      <c r="A591" s="12"/>
       <c r="C591" s="7"/>
+      <c r="F591" s="13"/>
+      <c r="G591" s="13"/>
     </row>
     <row r="592">
-      <c r="A592" s="10"/>
+      <c r="A592" s="12"/>
       <c r="C592" s="7"/>
+      <c r="F592" s="13"/>
+      <c r="G592" s="13"/>
     </row>
     <row r="593">
-      <c r="A593" s="10"/>
+      <c r="A593" s="12"/>
       <c r="C593" s="7"/>
+      <c r="F593" s="13"/>
+      <c r="G593" s="13"/>
     </row>
     <row r="594">
-      <c r="A594" s="10"/>
+      <c r="A594" s="12"/>
       <c r="C594" s="7"/>
+      <c r="F594" s="13"/>
+      <c r="G594" s="13"/>
     </row>
     <row r="595">
-      <c r="A595" s="10"/>
+      <c r="A595" s="12"/>
       <c r="C595" s="7"/>
+      <c r="F595" s="13"/>
+      <c r="G595" s="13"/>
     </row>
     <row r="596">
-      <c r="A596" s="10"/>
+      <c r="A596" s="12"/>
       <c r="C596" s="7"/>
+      <c r="F596" s="13"/>
+      <c r="G596" s="13"/>
     </row>
     <row r="597">
-      <c r="A597" s="10"/>
+      <c r="A597" s="12"/>
       <c r="C597" s="7"/>
+      <c r="F597" s="13"/>
+      <c r="G597" s="13"/>
     </row>
     <row r="598">
-      <c r="A598" s="10"/>
+      <c r="A598" s="12"/>
       <c r="C598" s="7"/>
+      <c r="F598" s="13"/>
+      <c r="G598" s="13"/>
     </row>
     <row r="599">
-      <c r="A599" s="10"/>
+      <c r="A599" s="12"/>
       <c r="C599" s="7"/>
+      <c r="F599" s="13"/>
+      <c r="G599" s="13"/>
     </row>
     <row r="600">
-      <c r="A600" s="10"/>
+      <c r="A600" s="12"/>
       <c r="C600" s="7"/>
+      <c r="F600" s="13"/>
+      <c r="G600" s="13"/>
     </row>
     <row r="601">
-      <c r="A601" s="10"/>
+      <c r="A601" s="12"/>
       <c r="C601" s="7"/>
+      <c r="F601" s="13"/>
+      <c r="G601" s="13"/>
     </row>
     <row r="602">
-      <c r="A602" s="10"/>
+      <c r="A602" s="12"/>
       <c r="C602" s="7"/>
+      <c r="F602" s="13"/>
+      <c r="G602" s="13"/>
     </row>
     <row r="603">
-      <c r="A603" s="10"/>
+      <c r="A603" s="12"/>
       <c r="C603" s="7"/>
+      <c r="F603" s="13"/>
+      <c r="G603" s="13"/>
     </row>
     <row r="604">
-      <c r="A604" s="10"/>
+      <c r="A604" s="12"/>
       <c r="C604" s="7"/>
+      <c r="F604" s="13"/>
+      <c r="G604" s="13"/>
     </row>
     <row r="605">
-      <c r="A605" s="10"/>
+      <c r="A605" s="12"/>
       <c r="C605" s="7"/>
+      <c r="F605" s="13"/>
+      <c r="G605" s="13"/>
     </row>
     <row r="606">
-      <c r="A606" s="10"/>
+      <c r="A606" s="12"/>
       <c r="C606" s="7"/>
+      <c r="F606" s="13"/>
+      <c r="G606" s="13"/>
     </row>
     <row r="607">
-      <c r="A607" s="10"/>
+      <c r="A607" s="12"/>
       <c r="C607" s="7"/>
+      <c r="F607" s="13"/>
+      <c r="G607" s="13"/>
     </row>
     <row r="608">
-      <c r="A608" s="10"/>
+      <c r="A608" s="12"/>
       <c r="C608" s="7"/>
+      <c r="F608" s="13"/>
+      <c r="G608" s="13"/>
     </row>
     <row r="609">
-      <c r="A609" s="10"/>
+      <c r="A609" s="12"/>
       <c r="C609" s="7"/>
+      <c r="F609" s="13"/>
+      <c r="G609" s="13"/>
     </row>
     <row r="610">
-      <c r="A610" s="10"/>
+      <c r="A610" s="12"/>
       <c r="C610" s="7"/>
+      <c r="F610" s="13"/>
+      <c r="G610" s="13"/>
     </row>
     <row r="611">
-      <c r="A611" s="10"/>
+      <c r="A611" s="12"/>
       <c r="C611" s="7"/>
+      <c r="F611" s="13"/>
+      <c r="G611" s="13"/>
     </row>
     <row r="612">
-      <c r="A612" s="10"/>
+      <c r="A612" s="12"/>
       <c r="C612" s="7"/>
+      <c r="F612" s="13"/>
+      <c r="G612" s="13"/>
     </row>
     <row r="613">
-      <c r="A613" s="10"/>
+      <c r="A613" s="12"/>
       <c r="C613" s="7"/>
+      <c r="F613" s="13"/>
+      <c r="G613" s="13"/>
     </row>
     <row r="614">
-      <c r="A614" s="10"/>
+      <c r="A614" s="12"/>
       <c r="C614" s="7"/>
+      <c r="F614" s="13"/>
+      <c r="G614" s="13"/>
     </row>
     <row r="615">
-      <c r="A615" s="10"/>
+      <c r="A615" s="12"/>
       <c r="C615" s="7"/>
+      <c r="F615" s="13"/>
+      <c r="G615" s="13"/>
     </row>
     <row r="616">
-      <c r="A616" s="10"/>
+      <c r="A616" s="12"/>
       <c r="C616" s="7"/>
+      <c r="F616" s="13"/>
+      <c r="G616" s="13"/>
     </row>
     <row r="617">
-      <c r="A617" s="10"/>
+      <c r="A617" s="12"/>
       <c r="C617" s="7"/>
+      <c r="F617" s="13"/>
+      <c r="G617" s="13"/>
     </row>
     <row r="618">
-      <c r="A618" s="10"/>
+      <c r="A618" s="12"/>
       <c r="C618" s="7"/>
+      <c r="F618" s="13"/>
+      <c r="G618" s="13"/>
     </row>
     <row r="619">
-      <c r="A619" s="10"/>
+      <c r="A619" s="12"/>
       <c r="C619" s="7"/>
+      <c r="F619" s="13"/>
+      <c r="G619" s="13"/>
     </row>
     <row r="620">
-      <c r="A620" s="10"/>
+      <c r="A620" s="12"/>
       <c r="C620" s="7"/>
+      <c r="F620" s="13"/>
+      <c r="G620" s="13"/>
     </row>
     <row r="621">
-      <c r="A621" s="10"/>
+      <c r="A621" s="12"/>
       <c r="C621" s="7"/>
+      <c r="F621" s="13"/>
+      <c r="G621" s="13"/>
     </row>
     <row r="622">
-      <c r="A622" s="10"/>
+      <c r="A622" s="12"/>
       <c r="C622" s="7"/>
+      <c r="F622" s="13"/>
+      <c r="G622" s="13"/>
     </row>
     <row r="623">
-      <c r="A623" s="10"/>
+      <c r="A623" s="12"/>
       <c r="C623" s="7"/>
+      <c r="F623" s="13"/>
+      <c r="G623" s="13"/>
     </row>
     <row r="624">
-      <c r="A624" s="10"/>
+      <c r="A624" s="12"/>
       <c r="C624" s="7"/>
+      <c r="F624" s="13"/>
+      <c r="G624" s="13"/>
     </row>
     <row r="625">
-      <c r="A625" s="10"/>
+      <c r="A625" s="12"/>
       <c r="C625" s="7"/>
+      <c r="F625" s="13"/>
+      <c r="G625" s="13"/>
     </row>
     <row r="626">
-      <c r="A626" s="10"/>
+      <c r="A626" s="12"/>
       <c r="C626" s="7"/>
+      <c r="F626" s="13"/>
+      <c r="G626" s="13"/>
     </row>
     <row r="627">
-      <c r="A627" s="10"/>
+      <c r="A627" s="12"/>
       <c r="C627" s="7"/>
+      <c r="F627" s="13"/>
+      <c r="G627" s="13"/>
     </row>
     <row r="628">
-      <c r="A628" s="10"/>
+      <c r="A628" s="12"/>
       <c r="C628" s="7"/>
+      <c r="F628" s="13"/>
+      <c r="G628" s="13"/>
     </row>
     <row r="629">
-      <c r="A629" s="10"/>
+      <c r="A629" s="12"/>
       <c r="C629" s="7"/>
+      <c r="F629" s="13"/>
+      <c r="G629" s="13"/>
     </row>
     <row r="630">
-      <c r="A630" s="10"/>
+      <c r="A630" s="12"/>
       <c r="C630" s="7"/>
+      <c r="F630" s="13"/>
+      <c r="G630" s="13"/>
     </row>
     <row r="631">
-      <c r="A631" s="10"/>
+      <c r="A631" s="12"/>
       <c r="C631" s="7"/>
+      <c r="F631" s="13"/>
+      <c r="G631" s="13"/>
     </row>
     <row r="632">
-      <c r="A632" s="10"/>
+      <c r="A632" s="12"/>
       <c r="C632" s="7"/>
+      <c r="F632" s="13"/>
+      <c r="G632" s="13"/>
     </row>
     <row r="633">
-      <c r="A633" s="10"/>
+      <c r="A633" s="12"/>
       <c r="C633" s="7"/>
+      <c r="F633" s="13"/>
+      <c r="G633" s="13"/>
     </row>
     <row r="634">
-      <c r="A634" s="10"/>
+      <c r="A634" s="12"/>
       <c r="C634" s="7"/>
+      <c r="F634" s="13"/>
+      <c r="G634" s="13"/>
     </row>
     <row r="635">
-      <c r="A635" s="10"/>
+      <c r="A635" s="12"/>
       <c r="C635" s="7"/>
+      <c r="F635" s="13"/>
+      <c r="G635" s="13"/>
     </row>
     <row r="636">
-      <c r="A636" s="10"/>
+      <c r="A636" s="12"/>
       <c r="C636" s="7"/>
+      <c r="F636" s="13"/>
+      <c r="G636" s="13"/>
     </row>
     <row r="637">
-      <c r="A637" s="10"/>
+      <c r="A637" s="12"/>
       <c r="C637" s="7"/>
+      <c r="F637" s="13"/>
+      <c r="G637" s="13"/>
     </row>
     <row r="638">
-      <c r="A638" s="10"/>
+      <c r="A638" s="12"/>
       <c r="C638" s="7"/>
+      <c r="F638" s="13"/>
+      <c r="G638" s="13"/>
     </row>
     <row r="639">
-      <c r="A639" s="10"/>
+      <c r="A639" s="12"/>
       <c r="C639" s="7"/>
+      <c r="F639" s="13"/>
+      <c r="G639" s="13"/>
     </row>
     <row r="640">
-      <c r="A640" s="10"/>
+      <c r="A640" s="12"/>
       <c r="C640" s="7"/>
+      <c r="F640" s="13"/>
+      <c r="G640" s="13"/>
     </row>
     <row r="641">
-      <c r="A641" s="10"/>
+      <c r="A641" s="12"/>
       <c r="C641" s="7"/>
+      <c r="F641" s="13"/>
+      <c r="G641" s="13"/>
     </row>
     <row r="642">
-      <c r="A642" s="10"/>
+      <c r="A642" s="12"/>
       <c r="C642" s="7"/>
+      <c r="F642" s="13"/>
+      <c r="G642" s="13"/>
     </row>
     <row r="643">
-      <c r="A643" s="10"/>
+      <c r="A643" s="12"/>
       <c r="C643" s="7"/>
+      <c r="F643" s="13"/>
+      <c r="G643" s="13"/>
     </row>
     <row r="644">
-      <c r="A644" s="10"/>
+      <c r="A644" s="12"/>
       <c r="C644" s="7"/>
+      <c r="F644" s="13"/>
+      <c r="G644" s="13"/>
     </row>
     <row r="645">
-      <c r="A645" s="10"/>
+      <c r="A645" s="12"/>
       <c r="C645" s="7"/>
+      <c r="F645" s="13"/>
+      <c r="G645" s="13"/>
     </row>
     <row r="646">
-      <c r="A646" s="10"/>
+      <c r="A646" s="12"/>
       <c r="C646" s="7"/>
+      <c r="F646" s="13"/>
+      <c r="G646" s="13"/>
     </row>
     <row r="647">
-      <c r="A647" s="10"/>
+      <c r="A647" s="12"/>
       <c r="C647" s="7"/>
+      <c r="F647" s="13"/>
+      <c r="G647" s="13"/>
     </row>
     <row r="648">
-      <c r="A648" s="10"/>
+      <c r="A648" s="12"/>
       <c r="C648" s="7"/>
+      <c r="F648" s="13"/>
+      <c r="G648" s="13"/>
     </row>
     <row r="649">
-      <c r="A649" s="10"/>
+      <c r="A649" s="12"/>
       <c r="C649" s="7"/>
+      <c r="F649" s="13"/>
+      <c r="G649" s="13"/>
     </row>
     <row r="650">
-      <c r="A650" s="10"/>
+      <c r="A650" s="12"/>
       <c r="C650" s="7"/>
+      <c r="F650" s="13"/>
+      <c r="G650" s="13"/>
     </row>
     <row r="651">
-      <c r="A651" s="10"/>
+      <c r="A651" s="12"/>
       <c r="C651" s="7"/>
+      <c r="F651" s="13"/>
+      <c r="G651" s="13"/>
     </row>
     <row r="652">
-      <c r="A652" s="10"/>
+      <c r="A652" s="12"/>
       <c r="C652" s="7"/>
+      <c r="F652" s="13"/>
+      <c r="G652" s="13"/>
     </row>
     <row r="653">
-      <c r="A653" s="10"/>
+      <c r="A653" s="12"/>
       <c r="C653" s="7"/>
+      <c r="F653" s="13"/>
+      <c r="G653" s="13"/>
     </row>
     <row r="654">
-      <c r="A654" s="10"/>
+      <c r="A654" s="12"/>
       <c r="C654" s="7"/>
+      <c r="F654" s="13"/>
+      <c r="G654" s="13"/>
     </row>
     <row r="655">
-      <c r="A655" s="10"/>
+      <c r="A655" s="12"/>
       <c r="C655" s="7"/>
+      <c r="F655" s="13"/>
+      <c r="G655" s="13"/>
     </row>
     <row r="656">
-      <c r="A656" s="10"/>
+      <c r="A656" s="12"/>
       <c r="C656" s="7"/>
+      <c r="F656" s="13"/>
+      <c r="G656" s="13"/>
     </row>
     <row r="657">
-      <c r="A657" s="10"/>
+      <c r="A657" s="12"/>
       <c r="C657" s="7"/>
+      <c r="F657" s="13"/>
+      <c r="G657" s="13"/>
     </row>
     <row r="658">
-      <c r="A658" s="10"/>
+      <c r="A658" s="12"/>
       <c r="C658" s="7"/>
+      <c r="F658" s="13"/>
+      <c r="G658" s="13"/>
     </row>
     <row r="659">
-      <c r="A659" s="10"/>
+      <c r="A659" s="12"/>
       <c r="C659" s="7"/>
+      <c r="F659" s="13"/>
+      <c r="G659" s="13"/>
     </row>
     <row r="660">
-      <c r="A660" s="10"/>
+      <c r="A660" s="12"/>
       <c r="C660" s="7"/>
+      <c r="F660" s="13"/>
+      <c r="G660" s="13"/>
     </row>
     <row r="661">
-      <c r="A661" s="10"/>
+      <c r="A661" s="12"/>
       <c r="C661" s="7"/>
+      <c r="F661" s="13"/>
+      <c r="G661" s="13"/>
     </row>
     <row r="662">
-      <c r="A662" s="10"/>
+      <c r="A662" s="12"/>
       <c r="C662" s="7"/>
+      <c r="F662" s="13"/>
+      <c r="G662" s="13"/>
     </row>
     <row r="663">
-      <c r="A663" s="10"/>
+      <c r="A663" s="12"/>
       <c r="C663" s="7"/>
+      <c r="F663" s="13"/>
+      <c r="G663" s="13"/>
     </row>
     <row r="664">
-      <c r="A664" s="10"/>
+      <c r="A664" s="12"/>
       <c r="C664" s="7"/>
+      <c r="F664" s="13"/>
+      <c r="G664" s="13"/>
     </row>
     <row r="665">
-      <c r="A665" s="10"/>
+      <c r="A665" s="12"/>
       <c r="C665" s="7"/>
+      <c r="F665" s="13"/>
+      <c r="G665" s="13"/>
     </row>
     <row r="666">
-      <c r="A666" s="10"/>
+      <c r="A666" s="12"/>
       <c r="C666" s="7"/>
+      <c r="F666" s="13"/>
+      <c r="G666" s="13"/>
     </row>
     <row r="667">
-      <c r="A667" s="10"/>
+      <c r="A667" s="12"/>
       <c r="C667" s="7"/>
+      <c r="F667" s="13"/>
+      <c r="G667" s="13"/>
     </row>
     <row r="668">
-      <c r="A668" s="10"/>
+      <c r="A668" s="12"/>
       <c r="C668" s="7"/>
+      <c r="F668" s="13"/>
+      <c r="G668" s="13"/>
     </row>
     <row r="669">
-      <c r="A669" s="10"/>
+      <c r="A669" s="12"/>
       <c r="C669" s="7"/>
+      <c r="F669" s="13"/>
+      <c r="G669" s="13"/>
     </row>
     <row r="670">
-      <c r="A670" s="10"/>
+      <c r="A670" s="12"/>
       <c r="C670" s="7"/>
+      <c r="F670" s="13"/>
+      <c r="G670" s="13"/>
     </row>
     <row r="671">
-      <c r="A671" s="10"/>
+      <c r="A671" s="12"/>
       <c r="C671" s="7"/>
+      <c r="F671" s="13"/>
+      <c r="G671" s="13"/>
     </row>
     <row r="672">
-      <c r="A672" s="10"/>
+      <c r="A672" s="12"/>
       <c r="C672" s="7"/>
+      <c r="F672" s="13"/>
+      <c r="G672" s="13"/>
     </row>
     <row r="673">
-      <c r="A673" s="10"/>
+      <c r="A673" s="12"/>
       <c r="C673" s="7"/>
+      <c r="F673" s="13"/>
+      <c r="G673" s="13"/>
     </row>
     <row r="674">
-      <c r="A674" s="10"/>
+      <c r="A674" s="12"/>
       <c r="C674" s="7"/>
+      <c r="F674" s="13"/>
+      <c r="G674" s="13"/>
     </row>
     <row r="675">
-      <c r="A675" s="10"/>
+      <c r="A675" s="12"/>
       <c r="C675" s="7"/>
+      <c r="F675" s="13"/>
+      <c r="G675" s="13"/>
     </row>
     <row r="676">
-      <c r="A676" s="10"/>
+      <c r="A676" s="12"/>
       <c r="C676" s="7"/>
+      <c r="F676" s="13"/>
+      <c r="G676" s="13"/>
     </row>
     <row r="677">
-      <c r="A677" s="10"/>
+      <c r="A677" s="12"/>
       <c r="C677" s="7"/>
+      <c r="F677" s="13"/>
+      <c r="G677" s="13"/>
     </row>
     <row r="678">
-      <c r="A678" s="10"/>
+      <c r="A678" s="12"/>
       <c r="C678" s="7"/>
+      <c r="F678" s="13"/>
+      <c r="G678" s="13"/>
     </row>
     <row r="679">
-      <c r="A679" s="10"/>
+      <c r="A679" s="12"/>
       <c r="C679" s="7"/>
+      <c r="F679" s="13"/>
+      <c r="G679" s="13"/>
     </row>
     <row r="680">
-      <c r="A680" s="10"/>
+      <c r="A680" s="12"/>
       <c r="C680" s="7"/>
+      <c r="F680" s="13"/>
+      <c r="G680" s="13"/>
     </row>
     <row r="681">
-      <c r="A681" s="10"/>
+      <c r="A681" s="12"/>
       <c r="C681" s="7"/>
+      <c r="F681" s="13"/>
+      <c r="G681" s="13"/>
     </row>
     <row r="682">
-      <c r="A682" s="10"/>
+      <c r="A682" s="12"/>
       <c r="C682" s="7"/>
+      <c r="F682" s="13"/>
+      <c r="G682" s="13"/>
     </row>
     <row r="683">
-      <c r="A683" s="10"/>
+      <c r="A683" s="12"/>
       <c r="C683" s="7"/>
+      <c r="F683" s="13"/>
+      <c r="G683" s="13"/>
     </row>
     <row r="684">
-      <c r="A684" s="10"/>
+      <c r="A684" s="12"/>
       <c r="C684" s="7"/>
+      <c r="F684" s="13"/>
+      <c r="G684" s="13"/>
     </row>
     <row r="685">
-      <c r="A685" s="10"/>
+      <c r="A685" s="12"/>
       <c r="C685" s="7"/>
+      <c r="F685" s="13"/>
+      <c r="G685" s="13"/>
     </row>
     <row r="686">
-      <c r="A686" s="10"/>
+      <c r="A686" s="12"/>
       <c r="C686" s="7"/>
+      <c r="F686" s="13"/>
+      <c r="G686" s="13"/>
     </row>
     <row r="687">
-      <c r="A687" s="10"/>
+      <c r="A687" s="12"/>
       <c r="C687" s="7"/>
+      <c r="F687" s="13"/>
+      <c r="G687" s="13"/>
     </row>
     <row r="688">
-      <c r="A688" s="10"/>
+      <c r="A688" s="12"/>
       <c r="C688" s="7"/>
+      <c r="F688" s="13"/>
+      <c r="G688" s="13"/>
     </row>
     <row r="689">
-      <c r="A689" s="10"/>
+      <c r="A689" s="12"/>
       <c r="C689" s="7"/>
+      <c r="F689" s="13"/>
+      <c r="G689" s="13"/>
     </row>
     <row r="690">
-      <c r="A690" s="10"/>
+      <c r="A690" s="12"/>
       <c r="C690" s="7"/>
+      <c r="F690" s="13"/>
+      <c r="G690" s="13"/>
     </row>
     <row r="691">
-      <c r="A691" s="10"/>
+      <c r="A691" s="12"/>
       <c r="C691" s="7"/>
+      <c r="F691" s="13"/>
+      <c r="G691" s="13"/>
     </row>
     <row r="692">
-      <c r="A692" s="10"/>
+      <c r="A692" s="12"/>
       <c r="C692" s="7"/>
+      <c r="F692" s="13"/>
+      <c r="G692" s="13"/>
     </row>
     <row r="693">
-      <c r="A693" s="10"/>
+      <c r="A693" s="12"/>
       <c r="C693" s="7"/>
+      <c r="F693" s="13"/>
+      <c r="G693" s="13"/>
     </row>
     <row r="694">
-      <c r="A694" s="10"/>
+      <c r="A694" s="12"/>
       <c r="C694" s="7"/>
+      <c r="F694" s="13"/>
+      <c r="G694" s="13"/>
     </row>
     <row r="695">
-      <c r="A695" s="10"/>
+      <c r="A695" s="12"/>
       <c r="C695" s="7"/>
+      <c r="F695" s="13"/>
+      <c r="G695" s="13"/>
     </row>
     <row r="696">
-      <c r="A696" s="10"/>
+      <c r="A696" s="12"/>
       <c r="C696" s="7"/>
+      <c r="F696" s="13"/>
+      <c r="G696" s="13"/>
     </row>
     <row r="697">
-      <c r="A697" s="10"/>
+      <c r="A697" s="12"/>
       <c r="C697" s="7"/>
+      <c r="F697" s="13"/>
+      <c r="G697" s="13"/>
     </row>
     <row r="698">
-      <c r="A698" s="10"/>
+      <c r="A698" s="12"/>
       <c r="C698" s="7"/>
+      <c r="F698" s="13"/>
+      <c r="G698" s="13"/>
     </row>
     <row r="699">
-      <c r="A699" s="10"/>
+      <c r="A699" s="12"/>
       <c r="C699" s="7"/>
+      <c r="F699" s="13"/>
+      <c r="G699" s="13"/>
     </row>
     <row r="700">
-      <c r="A700" s="10"/>
+      <c r="A700" s="12"/>
       <c r="C700" s="7"/>
+      <c r="F700" s="13"/>
+      <c r="G700" s="13"/>
     </row>
     <row r="701">
-      <c r="A701" s="10"/>
+      <c r="A701" s="12"/>
       <c r="C701" s="7"/>
+      <c r="F701" s="13"/>
+      <c r="G701" s="13"/>
     </row>
     <row r="702">
-      <c r="A702" s="10"/>
+      <c r="A702" s="12"/>
       <c r="C702" s="7"/>
+      <c r="F702" s="13"/>
+      <c r="G702" s="13"/>
     </row>
     <row r="703">
-      <c r="A703" s="10"/>
+      <c r="A703" s="12"/>
       <c r="C703" s="7"/>
+      <c r="F703" s="13"/>
+      <c r="G703" s="13"/>
     </row>
     <row r="704">
-      <c r="A704" s="10"/>
+      <c r="A704" s="12"/>
       <c r="C704" s="7"/>
+      <c r="F704" s="13"/>
+      <c r="G704" s="13"/>
     </row>
     <row r="705">
-      <c r="A705" s="10"/>
+      <c r="A705" s="12"/>
       <c r="C705" s="7"/>
+      <c r="F705" s="13"/>
+      <c r="G705" s="13"/>
     </row>
     <row r="706">
-      <c r="A706" s="10"/>
+      <c r="A706" s="12"/>
       <c r="C706" s="7"/>
+      <c r="F706" s="13"/>
+      <c r="G706" s="13"/>
     </row>
     <row r="707">
-      <c r="A707" s="10"/>
+      <c r="A707" s="12"/>
       <c r="C707" s="7"/>
+      <c r="F707" s="13"/>
+      <c r="G707" s="13"/>
     </row>
     <row r="708">
-      <c r="A708" s="10"/>
+      <c r="A708" s="12"/>
       <c r="C708" s="7"/>
+      <c r="F708" s="13"/>
+      <c r="G708" s="13"/>
     </row>
     <row r="709">
-      <c r="A709" s="10"/>
+      <c r="A709" s="12"/>
       <c r="C709" s="7"/>
+      <c r="F709" s="13"/>
+      <c r="G709" s="13"/>
     </row>
     <row r="710">
-      <c r="A710" s="10"/>
+      <c r="A710" s="12"/>
       <c r="C710" s="7"/>
+      <c r="F710" s="13"/>
+      <c r="G710" s="13"/>
     </row>
     <row r="711">
-      <c r="A711" s="10"/>
+      <c r="A711" s="12"/>
       <c r="C711" s="7"/>
+      <c r="F711" s="13"/>
+      <c r="G711" s="13"/>
     </row>
     <row r="712">
-      <c r="A712" s="10"/>
+      <c r="A712" s="12"/>
       <c r="C712" s="7"/>
+      <c r="F712" s="13"/>
+      <c r="G712" s="13"/>
     </row>
     <row r="713">
-      <c r="A713" s="10"/>
+      <c r="A713" s="12"/>
       <c r="C713" s="7"/>
+      <c r="F713" s="13"/>
+      <c r="G713" s="13"/>
     </row>
     <row r="714">
-      <c r="A714" s="10"/>
+      <c r="A714" s="12"/>
       <c r="C714" s="7"/>
+      <c r="F714" s="13"/>
+      <c r="G714" s="13"/>
     </row>
     <row r="715">
-      <c r="A715" s="10"/>
+      <c r="A715" s="12"/>
       <c r="C715" s="7"/>
+      <c r="F715" s="13"/>
+      <c r="G715" s="13"/>
     </row>
     <row r="716">
-      <c r="A716" s="10"/>
+      <c r="A716" s="12"/>
       <c r="C716" s="7"/>
+      <c r="F716" s="13"/>
+      <c r="G716" s="13"/>
     </row>
     <row r="717">
-      <c r="A717" s="10"/>
+      <c r="A717" s="12"/>
       <c r="C717" s="7"/>
+      <c r="F717" s="13"/>
+      <c r="G717" s="13"/>
     </row>
     <row r="718">
-      <c r="A718" s="10"/>
+      <c r="A718" s="12"/>
       <c r="C718" s="7"/>
+      <c r="F718" s="13"/>
+      <c r="G718" s="13"/>
     </row>
     <row r="719">
-      <c r="A719" s="10"/>
+      <c r="A719" s="12"/>
       <c r="C719" s="7"/>
+      <c r="F719" s="13"/>
+      <c r="G719" s="13"/>
     </row>
     <row r="720">
-      <c r="A720" s="10"/>
+      <c r="A720" s="12"/>
       <c r="C720" s="7"/>
+      <c r="F720" s="13"/>
+      <c r="G720" s="13"/>
     </row>
     <row r="721">
-      <c r="A721" s="10"/>
+      <c r="A721" s="12"/>
       <c r="C721" s="7"/>
+      <c r="F721" s="13"/>
+      <c r="G721" s="13"/>
     </row>
     <row r="722">
-      <c r="A722" s="10"/>
+      <c r="A722" s="12"/>
       <c r="C722" s="7"/>
+      <c r="F722" s="13"/>
+      <c r="G722" s="13"/>
     </row>
     <row r="723">
-      <c r="A723" s="10"/>
+      <c r="A723" s="12"/>
       <c r="C723" s="7"/>
+      <c r="F723" s="13"/>
+      <c r="G723" s="13"/>
     </row>
     <row r="724">
-      <c r="A724" s="10"/>
+      <c r="A724" s="12"/>
       <c r="C724" s="7"/>
+      <c r="F724" s="13"/>
+      <c r="G724" s="13"/>
     </row>
     <row r="725">
-      <c r="A725" s="10"/>
+      <c r="A725" s="12"/>
       <c r="C725" s="7"/>
+      <c r="F725" s="13"/>
+      <c r="G725" s="13"/>
     </row>
     <row r="726">
-      <c r="A726" s="10"/>
+      <c r="A726" s="12"/>
       <c r="C726" s="7"/>
+      <c r="F726" s="13"/>
+      <c r="G726" s="13"/>
     </row>
     <row r="727">
-      <c r="A727" s="10"/>
+      <c r="A727" s="12"/>
       <c r="C727" s="7"/>
+      <c r="F727" s="13"/>
+      <c r="G727" s="13"/>
     </row>
     <row r="728">
-      <c r="A728" s="10"/>
+      <c r="A728" s="12"/>
       <c r="C728" s="7"/>
+      <c r="F728" s="13"/>
+      <c r="G728" s="13"/>
     </row>
     <row r="729">
-      <c r="A729" s="10"/>
+      <c r="A729" s="12"/>
       <c r="C729" s="7"/>
+      <c r="F729" s="13"/>
+      <c r="G729" s="13"/>
     </row>
     <row r="730">
-      <c r="A730" s="10"/>
+      <c r="A730" s="12"/>
       <c r="C730" s="7"/>
+      <c r="F730" s="13"/>
+      <c r="G730" s="13"/>
     </row>
     <row r="731">
-      <c r="A731" s="10"/>
+      <c r="A731" s="12"/>
       <c r="C731" s="7"/>
+      <c r="F731" s="13"/>
+      <c r="G731" s="13"/>
     </row>
     <row r="732">
-      <c r="A732" s="10"/>
+      <c r="A732" s="12"/>
       <c r="C732" s="7"/>
+      <c r="F732" s="13"/>
+      <c r="G732" s="13"/>
     </row>
     <row r="733">
-      <c r="A733" s="10"/>
+      <c r="A733" s="12"/>
       <c r="C733" s="7"/>
+      <c r="F733" s="13"/>
+      <c r="G733" s="13"/>
     </row>
     <row r="734">
-      <c r="A734" s="10"/>
+      <c r="A734" s="12"/>
       <c r="C734" s="7"/>
+      <c r="F734" s="13"/>
+      <c r="G734" s="13"/>
     </row>
     <row r="735">
-      <c r="A735" s="10"/>
+      <c r="A735" s="12"/>
       <c r="C735" s="7"/>
+      <c r="F735" s="13"/>
+      <c r="G735" s="13"/>
     </row>
     <row r="736">
-      <c r="A736" s="10"/>
+      <c r="A736" s="12"/>
       <c r="C736" s="7"/>
+      <c r="F736" s="13"/>
+      <c r="G736" s="13"/>
     </row>
     <row r="737">
-      <c r="A737" s="10"/>
+      <c r="A737" s="12"/>
       <c r="C737" s="7"/>
+      <c r="F737" s="13"/>
+      <c r="G737" s="13"/>
     </row>
     <row r="738">
-      <c r="A738" s="10"/>
+      <c r="A738" s="12"/>
       <c r="C738" s="7"/>
+      <c r="F738" s="13"/>
+      <c r="G738" s="13"/>
     </row>
     <row r="739">
-      <c r="A739" s="10"/>
+      <c r="A739" s="12"/>
       <c r="C739" s="7"/>
+      <c r="F739" s="13"/>
+      <c r="G739" s="13"/>
     </row>
     <row r="740">
-      <c r="A740" s="10"/>
+      <c r="A740" s="12"/>
       <c r="C740" s="7"/>
+      <c r="F740" s="13"/>
+      <c r="G740" s="13"/>
     </row>
     <row r="741">
-      <c r="A741" s="10"/>
+      <c r="A741" s="12"/>
       <c r="C741" s="7"/>
+      <c r="F741" s="13"/>
+      <c r="G741" s="13"/>
     </row>
     <row r="742">
-      <c r="A742" s="10"/>
+      <c r="A742" s="12"/>
       <c r="C742" s="7"/>
+      <c r="F742" s="13"/>
+      <c r="G742" s="13"/>
     </row>
     <row r="743">
-      <c r="A743" s="10"/>
+      <c r="A743" s="12"/>
       <c r="C743" s="7"/>
+      <c r="F743" s="13"/>
+      <c r="G743" s="13"/>
     </row>
     <row r="744">
-      <c r="A744" s="10"/>
+      <c r="A744" s="12"/>
       <c r="C744" s="7"/>
+      <c r="F744" s="13"/>
+      <c r="G744" s="13"/>
     </row>
     <row r="745">
-      <c r="A745" s="10"/>
+      <c r="A745" s="12"/>
       <c r="C745" s="7"/>
+      <c r="F745" s="13"/>
+      <c r="G745" s="13"/>
     </row>
     <row r="746">
-      <c r="A746" s="10"/>
+      <c r="A746" s="12"/>
       <c r="C746" s="7"/>
+      <c r="F746" s="13"/>
+      <c r="G746" s="13"/>
     </row>
     <row r="747">
-      <c r="A747" s="10"/>
+      <c r="A747" s="12"/>
       <c r="C747" s="7"/>
+      <c r="F747" s="13"/>
+      <c r="G747" s="13"/>
     </row>
     <row r="748">
-      <c r="A748" s="10"/>
+      <c r="A748" s="12"/>
       <c r="C748" s="7"/>
+      <c r="F748" s="13"/>
+      <c r="G748" s="13"/>
     </row>
     <row r="749">
-      <c r="A749" s="10"/>
+      <c r="A749" s="12"/>
       <c r="C749" s="7"/>
+      <c r="F749" s="13"/>
+      <c r="G749" s="13"/>
     </row>
     <row r="750">
-      <c r="A750" s="10"/>
+      <c r="A750" s="12"/>
       <c r="C750" s="7"/>
+      <c r="F750" s="13"/>
+      <c r="G750" s="13"/>
     </row>
     <row r="751">
-      <c r="A751" s="10"/>
+      <c r="A751" s="12"/>
       <c r="C751" s="7"/>
+      <c r="F751" s="13"/>
+      <c r="G751" s="13"/>
     </row>
     <row r="752">
-      <c r="A752" s="10"/>
+      <c r="A752" s="12"/>
       <c r="C752" s="7"/>
+      <c r="F752" s="13"/>
+      <c r="G752" s="13"/>
     </row>
     <row r="753">
-      <c r="A753" s="10"/>
+      <c r="A753" s="12"/>
       <c r="C753" s="7"/>
+      <c r="F753" s="13"/>
+      <c r="G753" s="13"/>
     </row>
     <row r="754">
-      <c r="A754" s="10"/>
+      <c r="A754" s="12"/>
       <c r="C754" s="7"/>
+      <c r="F754" s="13"/>
+      <c r="G754" s="13"/>
     </row>
     <row r="755">
-      <c r="A755" s="10"/>
+      <c r="A755" s="12"/>
       <c r="C755" s="7"/>
+      <c r="F755" s="13"/>
+      <c r="G755" s="13"/>
     </row>
     <row r="756">
-      <c r="A756" s="10"/>
+      <c r="A756" s="12"/>
       <c r="C756" s="7"/>
+      <c r="F756" s="13"/>
+      <c r="G756" s="13"/>
     </row>
     <row r="757">
-      <c r="A757" s="10"/>
+      <c r="A757" s="12"/>
       <c r="C757" s="7"/>
+      <c r="F757" s="13"/>
+      <c r="G757" s="13"/>
     </row>
     <row r="758">
-      <c r="A758" s="10"/>
+      <c r="A758" s="12"/>
       <c r="C758" s="7"/>
+      <c r="F758" s="13"/>
+      <c r="G758" s="13"/>
     </row>
     <row r="759">
-      <c r="A759" s="10"/>
+      <c r="A759" s="12"/>
       <c r="C759" s="7"/>
+      <c r="F759" s="13"/>
+      <c r="G759" s="13"/>
     </row>
     <row r="760">
-      <c r="A760" s="10"/>
+      <c r="A760" s="12"/>
       <c r="C760" s="7"/>
+      <c r="F760" s="13"/>
+      <c r="G760" s="13"/>
     </row>
     <row r="761">
-      <c r="A761" s="10"/>
+      <c r="A761" s="12"/>
       <c r="C761" s="7"/>
+      <c r="F761" s="13"/>
+      <c r="G761" s="13"/>
     </row>
     <row r="762">
-      <c r="A762" s="10"/>
+      <c r="A762" s="12"/>
       <c r="C762" s="7"/>
+      <c r="F762" s="13"/>
+      <c r="G762" s="13"/>
     </row>
     <row r="763">
-      <c r="A763" s="10"/>
+      <c r="A763" s="12"/>
       <c r="C763" s="7"/>
+      <c r="F763" s="13"/>
+      <c r="G763" s="13"/>
     </row>
     <row r="764">
-      <c r="A764" s="10"/>
+      <c r="A764" s="12"/>
       <c r="C764" s="7"/>
+      <c r="F764" s="13"/>
+      <c r="G764" s="13"/>
     </row>
     <row r="765">
-      <c r="A765" s="10"/>
+      <c r="A765" s="12"/>
       <c r="C765" s="7"/>
+      <c r="F765" s="13"/>
+      <c r="G765" s="13"/>
     </row>
     <row r="766">
-      <c r="A766" s="10"/>
+      <c r="A766" s="12"/>
       <c r="C766" s="7"/>
+      <c r="F766" s="13"/>
+      <c r="G766" s="13"/>
     </row>
     <row r="767">
-      <c r="A767" s="10"/>
+      <c r="A767" s="12"/>
       <c r="C767" s="7"/>
+      <c r="F767" s="13"/>
+      <c r="G767" s="13"/>
     </row>
     <row r="768">
-      <c r="A768" s="10"/>
+      <c r="A768" s="12"/>
       <c r="C768" s="7"/>
+      <c r="F768" s="13"/>
+      <c r="G768" s="13"/>
     </row>
     <row r="769">
-      <c r="A769" s="10"/>
+      <c r="A769" s="12"/>
       <c r="C769" s="7"/>
+      <c r="F769" s="13"/>
+      <c r="G769" s="13"/>
     </row>
     <row r="770">
-      <c r="A770" s="10"/>
+      <c r="A770" s="12"/>
       <c r="C770" s="7"/>
+      <c r="F770" s="13"/>
+      <c r="G770" s="13"/>
     </row>
     <row r="771">
-      <c r="A771" s="10"/>
+      <c r="A771" s="12"/>
       <c r="C771" s="7"/>
+      <c r="F771" s="13"/>
+      <c r="G771" s="13"/>
     </row>
     <row r="772">
-      <c r="A772" s="10"/>
+      <c r="A772" s="12"/>
       <c r="C772" s="7"/>
+      <c r="F772" s="13"/>
+      <c r="G772" s="13"/>
     </row>
     <row r="773">
-      <c r="A773" s="10"/>
+      <c r="A773" s="12"/>
       <c r="C773" s="7"/>
+      <c r="F773" s="13"/>
+      <c r="G773" s="13"/>
     </row>
     <row r="774">
-      <c r="A774" s="10"/>
+      <c r="A774" s="12"/>
       <c r="C774" s="7"/>
+      <c r="F774" s="13"/>
+      <c r="G774" s="13"/>
     </row>
     <row r="775">
-      <c r="A775" s="10"/>
+      <c r="A775" s="12"/>
       <c r="C775" s="7"/>
+      <c r="F775" s="13"/>
+      <c r="G775" s="13"/>
     </row>
     <row r="776">
-      <c r="A776" s="10"/>
+      <c r="A776" s="12"/>
       <c r="C776" s="7"/>
+      <c r="F776" s="13"/>
+      <c r="G776" s="13"/>
     </row>
     <row r="777">
-      <c r="A777" s="10"/>
+      <c r="A777" s="12"/>
       <c r="C777" s="7"/>
+      <c r="F777" s="13"/>
+      <c r="G777" s="13"/>
     </row>
     <row r="778">
-      <c r="A778" s="10"/>
+      <c r="A778" s="12"/>
       <c r="C778" s="7"/>
+      <c r="F778" s="13"/>
+      <c r="G778" s="13"/>
     </row>
     <row r="779">
-      <c r="A779" s="10"/>
+      <c r="A779" s="12"/>
       <c r="C779" s="7"/>
+      <c r="F779" s="13"/>
+      <c r="G779" s="13"/>
     </row>
     <row r="780">
-      <c r="A780" s="10"/>
+      <c r="A780" s="12"/>
       <c r="C780" s="7"/>
+      <c r="F780" s="13"/>
+      <c r="G780" s="13"/>
     </row>
     <row r="781">
-      <c r="A781" s="10"/>
+      <c r="A781" s="12"/>
       <c r="C781" s="7"/>
+      <c r="F781" s="13"/>
+      <c r="G781" s="13"/>
     </row>
     <row r="782">
-      <c r="A782" s="10"/>
+      <c r="A782" s="12"/>
       <c r="C782" s="7"/>
+      <c r="F782" s="13"/>
+      <c r="G782" s="13"/>
     </row>
     <row r="783">
-      <c r="A783" s="10"/>
+      <c r="A783" s="12"/>
       <c r="C783" s="7"/>
+      <c r="F783" s="13"/>
+      <c r="G783" s="13"/>
     </row>
     <row r="784">
-      <c r="A784" s="10"/>
+      <c r="A784" s="12"/>
       <c r="C784" s="7"/>
+      <c r="F784" s="13"/>
+      <c r="G784" s="13"/>
     </row>
     <row r="785">
-      <c r="A785" s="10"/>
+      <c r="A785" s="12"/>
       <c r="C785" s="7"/>
+      <c r="F785" s="13"/>
+      <c r="G785" s="13"/>
     </row>
     <row r="786">
-      <c r="A786" s="10"/>
+      <c r="A786" s="12"/>
       <c r="C786" s="7"/>
+      <c r="F786" s="13"/>
+      <c r="G786" s="13"/>
     </row>
     <row r="787">
-      <c r="A787" s="10"/>
+      <c r="A787" s="12"/>
       <c r="C787" s="7"/>
+      <c r="F787" s="13"/>
+      <c r="G787" s="13"/>
     </row>
     <row r="788">
-      <c r="A788" s="10"/>
+      <c r="A788" s="12"/>
       <c r="C788" s="7"/>
+      <c r="F788" s="13"/>
+      <c r="G788" s="13"/>
     </row>
     <row r="789">
-      <c r="A789" s="10"/>
+      <c r="A789" s="12"/>
       <c r="C789" s="7"/>
+      <c r="F789" s="13"/>
+      <c r="G789" s="13"/>
     </row>
     <row r="790">
-      <c r="A790" s="10"/>
+      <c r="A790" s="12"/>
       <c r="C790" s="7"/>
+      <c r="F790" s="13"/>
+      <c r="G790" s="13"/>
     </row>
     <row r="791">
-      <c r="A791" s="10"/>
+      <c r="A791" s="12"/>
       <c r="C791" s="7"/>
+      <c r="F791" s="13"/>
+      <c r="G791" s="13"/>
     </row>
     <row r="792">
-      <c r="A792" s="10"/>
+      <c r="A792" s="12"/>
       <c r="C792" s="7"/>
+      <c r="F792" s="13"/>
+      <c r="G792" s="13"/>
     </row>
     <row r="793">
-      <c r="A793" s="10"/>
+      <c r="A793" s="12"/>
       <c r="C793" s="7"/>
+      <c r="F793" s="13"/>
+      <c r="G793" s="13"/>
     </row>
     <row r="794">
-      <c r="A794" s="10"/>
+      <c r="A794" s="12"/>
       <c r="C794" s="7"/>
+      <c r="F794" s="13"/>
+      <c r="G794" s="13"/>
     </row>
     <row r="795">
-      <c r="A795" s="10"/>
+      <c r="A795" s="12"/>
       <c r="C795" s="7"/>
+      <c r="F795" s="13"/>
+      <c r="G795" s="13"/>
     </row>
     <row r="796">
-      <c r="A796" s="10"/>
+      <c r="A796" s="12"/>
       <c r="C796" s="7"/>
+      <c r="F796" s="13"/>
+      <c r="G796" s="13"/>
     </row>
     <row r="797">
-      <c r="A797" s="10"/>
+      <c r="A797" s="12"/>
       <c r="C797" s="7"/>
+      <c r="F797" s="13"/>
+      <c r="G797" s="13"/>
     </row>
     <row r="798">
-      <c r="A798" s="10"/>
+      <c r="A798" s="12"/>
       <c r="C798" s="7"/>
+      <c r="F798" s="13"/>
+      <c r="G798" s="13"/>
     </row>
     <row r="799">
-      <c r="A799" s="10"/>
+      <c r="A799" s="12"/>
       <c r="C799" s="7"/>
+      <c r="F799" s="13"/>
+      <c r="G799" s="13"/>
     </row>
     <row r="800">
-      <c r="A800" s="10"/>
+      <c r="A800" s="12"/>
       <c r="C800" s="7"/>
+      <c r="F800" s="13"/>
+      <c r="G800" s="13"/>
     </row>
     <row r="801">
-      <c r="A801" s="10"/>
+      <c r="A801" s="12"/>
       <c r="C801" s="7"/>
+      <c r="F801" s="13"/>
+      <c r="G801" s="13"/>
     </row>
     <row r="802">
-      <c r="A802" s="10"/>
+      <c r="A802" s="12"/>
       <c r="C802" s="7"/>
+      <c r="F802" s="13"/>
+      <c r="G802" s="13"/>
     </row>
     <row r="803">
-      <c r="A803" s="10"/>
+      <c r="A803" s="12"/>
       <c r="C803" s="7"/>
+      <c r="F803" s="13"/>
+      <c r="G803" s="13"/>
     </row>
     <row r="804">
-      <c r="A804" s="10"/>
+      <c r="A804" s="12"/>
       <c r="C804" s="7"/>
+      <c r="F804" s="13"/>
+      <c r="G804" s="13"/>
     </row>
     <row r="805">
-      <c r="A805" s="10"/>
+      <c r="A805" s="12"/>
       <c r="C805" s="7"/>
+      <c r="F805" s="13"/>
+      <c r="G805" s="13"/>
     </row>
     <row r="806">
-      <c r="A806" s="10"/>
+      <c r="A806" s="12"/>
       <c r="C806" s="7"/>
+      <c r="F806" s="13"/>
+      <c r="G806" s="13"/>
     </row>
     <row r="807">
-      <c r="A807" s="10"/>
+      <c r="A807" s="12"/>
       <c r="C807" s="7"/>
+      <c r="F807" s="13"/>
+      <c r="G807" s="13"/>
     </row>
     <row r="808">
-      <c r="A808" s="10"/>
+      <c r="A808" s="12"/>
       <c r="C808" s="7"/>
+      <c r="F808" s="13"/>
+      <c r="G808" s="13"/>
     </row>
     <row r="809">
-      <c r="A809" s="10"/>
+      <c r="A809" s="12"/>
       <c r="C809" s="7"/>
+      <c r="F809" s="13"/>
+      <c r="G809" s="13"/>
     </row>
     <row r="810">
-      <c r="A810" s="10"/>
+      <c r="A810" s="12"/>
       <c r="C810" s="7"/>
+      <c r="F810" s="13"/>
+      <c r="G810" s="13"/>
     </row>
     <row r="811">
-      <c r="A811" s="10"/>
+      <c r="A811" s="12"/>
       <c r="C811" s="7"/>
+      <c r="F811" s="13"/>
+      <c r="G811" s="13"/>
     </row>
     <row r="812">
-      <c r="A812" s="10"/>
+      <c r="A812" s="12"/>
       <c r="C812" s="7"/>
+      <c r="F812" s="13"/>
+      <c r="G812" s="13"/>
     </row>
     <row r="813">
-      <c r="A813" s="10"/>
+      <c r="A813" s="12"/>
       <c r="C813" s="7"/>
+      <c r="F813" s="13"/>
+      <c r="G813" s="13"/>
     </row>
     <row r="814">
-      <c r="A814" s="10"/>
+      <c r="A814" s="12"/>
       <c r="C814" s="7"/>
+      <c r="F814" s="13"/>
+      <c r="G814" s="13"/>
     </row>
     <row r="815">
-      <c r="A815" s="10"/>
+      <c r="A815" s="12"/>
       <c r="C815" s="7"/>
+      <c r="F815" s="13"/>
+      <c r="G815" s="13"/>
     </row>
     <row r="816">
-      <c r="A816" s="10"/>
+      <c r="A816" s="12"/>
       <c r="C816" s="7"/>
+      <c r="F816" s="13"/>
+      <c r="G816" s="13"/>
     </row>
     <row r="817">
-      <c r="A817" s="10"/>
+      <c r="A817" s="12"/>
       <c r="C817" s="7"/>
+      <c r="F817" s="13"/>
+      <c r="G817" s="13"/>
     </row>
     <row r="818">
-      <c r="A818" s="10"/>
+      <c r="A818" s="12"/>
       <c r="C818" s="7"/>
+      <c r="F818" s="13"/>
+      <c r="G818" s="13"/>
     </row>
     <row r="819">
-      <c r="A819" s="10"/>
+      <c r="A819" s="12"/>
       <c r="C819" s="7"/>
+      <c r="F819" s="13"/>
+      <c r="G819" s="13"/>
     </row>
     <row r="820">
-      <c r="A820" s="10"/>
+      <c r="A820" s="12"/>
       <c r="C820" s="7"/>
+      <c r="F820" s="13"/>
+      <c r="G820" s="13"/>
     </row>
     <row r="821">
-      <c r="A821" s="10"/>
+      <c r="A821" s="12"/>
       <c r="C821" s="7"/>
+      <c r="F821" s="13"/>
+      <c r="G821" s="13"/>
     </row>
     <row r="822">
-      <c r="A822" s="10"/>
+      <c r="A822" s="12"/>
       <c r="C822" s="7"/>
+      <c r="F822" s="13"/>
+      <c r="G822" s="13"/>
     </row>
     <row r="823">
-      <c r="A823" s="10"/>
+      <c r="A823" s="12"/>
       <c r="C823" s="7"/>
+      <c r="F823" s="13"/>
+      <c r="G823" s="13"/>
     </row>
     <row r="824">
-      <c r="A824" s="10"/>
+      <c r="A824" s="12"/>
       <c r="C824" s="7"/>
+      <c r="F824" s="13"/>
+      <c r="G824" s="13"/>
     </row>
     <row r="825">
-      <c r="A825" s="10"/>
+      <c r="A825" s="12"/>
       <c r="C825" s="7"/>
+      <c r="F825" s="13"/>
+      <c r="G825" s="13"/>
     </row>
     <row r="826">
-      <c r="A826" s="10"/>
+      <c r="A826" s="12"/>
       <c r="C826" s="7"/>
+      <c r="F826" s="13"/>
+      <c r="G826" s="13"/>
     </row>
     <row r="827">
-      <c r="A827" s="10"/>
+      <c r="A827" s="12"/>
       <c r="C827" s="7"/>
+      <c r="F827" s="13"/>
+      <c r="G827" s="13"/>
     </row>
     <row r="828">
-      <c r="A828" s="10"/>
+      <c r="A828" s="12"/>
       <c r="C828" s="7"/>
+      <c r="F828" s="13"/>
+      <c r="G828" s="13"/>
     </row>
     <row r="829">
-      <c r="A829" s="10"/>
+      <c r="A829" s="12"/>
       <c r="C829" s="7"/>
+      <c r="F829" s="13"/>
+      <c r="G829" s="13"/>
     </row>
     <row r="830">
-      <c r="A830" s="10"/>
+      <c r="A830" s="12"/>
       <c r="C830" s="7"/>
+      <c r="F830" s="13"/>
+      <c r="G830" s="13"/>
     </row>
     <row r="831">
-      <c r="A831" s="10"/>
+      <c r="A831" s="12"/>
       <c r="C831" s="7"/>
+      <c r="F831" s="13"/>
+      <c r="G831" s="13"/>
     </row>
     <row r="832">
-      <c r="A832" s="10"/>
+      <c r="A832" s="12"/>
       <c r="C832" s="7"/>
+      <c r="F832" s="13"/>
+      <c r="G832" s="13"/>
     </row>
     <row r="833">
-      <c r="A833" s="10"/>
+      <c r="A833" s="12"/>
       <c r="C833" s="7"/>
+      <c r="F833" s="13"/>
+      <c r="G833" s="13"/>
     </row>
     <row r="834">
-      <c r="A834" s="10"/>
+      <c r="A834" s="12"/>
       <c r="C834" s="7"/>
+      <c r="F834" s="13"/>
+      <c r="G834" s="13"/>
     </row>
     <row r="835">
-      <c r="A835" s="10"/>
+      <c r="A835" s="12"/>
       <c r="C835" s="7"/>
+      <c r="F835" s="13"/>
+      <c r="G835" s="13"/>
     </row>
     <row r="836">
-      <c r="A836" s="10"/>
+      <c r="A836" s="12"/>
       <c r="C836" s="7"/>
+      <c r="F836" s="13"/>
+      <c r="G836" s="13"/>
     </row>
     <row r="837">
-      <c r="A837" s="10"/>
+      <c r="A837" s="12"/>
       <c r="C837" s="7"/>
+      <c r="F837" s="13"/>
+      <c r="G837" s="13"/>
     </row>
     <row r="838">
-      <c r="A838" s="10"/>
+      <c r="A838" s="12"/>
       <c r="C838" s="7"/>
+      <c r="F838" s="13"/>
+      <c r="G838" s="13"/>
     </row>
     <row r="839">
-      <c r="A839" s="10"/>
+      <c r="A839" s="12"/>
       <c r="C839" s="7"/>
+      <c r="F839" s="13"/>
+      <c r="G839" s="13"/>
     </row>
     <row r="840">
-      <c r="A840" s="10"/>
+      <c r="A840" s="12"/>
       <c r="C840" s="7"/>
+      <c r="F840" s="13"/>
+      <c r="G840" s="13"/>
     </row>
     <row r="841">
-      <c r="A841" s="10"/>
+      <c r="A841" s="12"/>
       <c r="C841" s="7"/>
+      <c r="F841" s="13"/>
+      <c r="G841" s="13"/>
     </row>
     <row r="842">
-      <c r="A842" s="10"/>
+      <c r="A842" s="12"/>
       <c r="C842" s="7"/>
+      <c r="F842" s="13"/>
+      <c r="G842" s="13"/>
     </row>
     <row r="843">
-      <c r="A843" s="10"/>
+      <c r="A843" s="12"/>
       <c r="C843" s="7"/>
+      <c r="F843" s="13"/>
+      <c r="G843" s="13"/>
     </row>
     <row r="844">
-      <c r="A844" s="10"/>
+      <c r="A844" s="12"/>
       <c r="C844" s="7"/>
+      <c r="F844" s="13"/>
+      <c r="G844" s="13"/>
     </row>
     <row r="845">
-      <c r="A845" s="10"/>
+      <c r="A845" s="12"/>
       <c r="C845" s="7"/>
+      <c r="F845" s="13"/>
+      <c r="G845" s="13"/>
     </row>
     <row r="846">
-      <c r="A846" s="10"/>
+      <c r="A846" s="12"/>
       <c r="C846" s="7"/>
+      <c r="F846" s="13"/>
+      <c r="G846" s="13"/>
     </row>
     <row r="847">
-      <c r="A847" s="10"/>
+      <c r="A847" s="12"/>
       <c r="C847" s="7"/>
+      <c r="F847" s="13"/>
+      <c r="G847" s="13"/>
     </row>
     <row r="848">
-      <c r="A848" s="10"/>
+      <c r="A848" s="12"/>
       <c r="C848" s="7"/>
+      <c r="F848" s="13"/>
+      <c r="G848" s="13"/>
     </row>
     <row r="849">
-      <c r="A849" s="10"/>
+      <c r="A849" s="12"/>
       <c r="C849" s="7"/>
+      <c r="F849" s="13"/>
+      <c r="G849" s="13"/>
     </row>
     <row r="850">
-      <c r="A850" s="10"/>
+      <c r="A850" s="12"/>
       <c r="C850" s="7"/>
+      <c r="F850" s="13"/>
+      <c r="G850" s="13"/>
     </row>
     <row r="851">
-      <c r="A851" s="10"/>
+      <c r="A851" s="12"/>
       <c r="C851" s="7"/>
+      <c r="F851" s="13"/>
+      <c r="G851" s="13"/>
     </row>
     <row r="852">
-      <c r="A852" s="10"/>
+      <c r="A852" s="12"/>
       <c r="C852" s="7"/>
+      <c r="F852" s="13"/>
+      <c r="G852" s="13"/>
     </row>
     <row r="853">
-      <c r="A853" s="10"/>
+      <c r="A853" s="12"/>
       <c r="C853" s="7"/>
+      <c r="F853" s="13"/>
+      <c r="G853" s="13"/>
     </row>
     <row r="854">
-      <c r="A854" s="10"/>
+      <c r="A854" s="12"/>
       <c r="C854" s="7"/>
+      <c r="F854" s="13"/>
+      <c r="G854" s="13"/>
     </row>
     <row r="855">
-      <c r="A855" s="10"/>
+      <c r="A855" s="12"/>
       <c r="C855" s="7"/>
+      <c r="F855" s="13"/>
+      <c r="G855" s="13"/>
     </row>
     <row r="856">
-      <c r="A856" s="10"/>
+      <c r="A856" s="12"/>
       <c r="C856" s="7"/>
+      <c r="F856" s="13"/>
+      <c r="G856" s="13"/>
     </row>
     <row r="857">
-      <c r="A857" s="10"/>
+      <c r="A857" s="12"/>
       <c r="C857" s="7"/>
+      <c r="F857" s="13"/>
+      <c r="G857" s="13"/>
     </row>
     <row r="858">
-      <c r="A858" s="10"/>
+      <c r="A858" s="12"/>
       <c r="C858" s="7"/>
+      <c r="F858" s="13"/>
+      <c r="G858" s="13"/>
     </row>
     <row r="859">
-      <c r="A859" s="10"/>
+      <c r="A859" s="12"/>
       <c r="C859" s="7"/>
+      <c r="F859" s="13"/>
+      <c r="G859" s="13"/>
     </row>
     <row r="860">
-      <c r="A860" s="10"/>
+      <c r="A860" s="12"/>
       <c r="C860" s="7"/>
+      <c r="F860" s="13"/>
+      <c r="G860" s="13"/>
     </row>
     <row r="861">
-      <c r="A861" s="10"/>
+      <c r="A861" s="12"/>
       <c r="C861" s="7"/>
+      <c r="F861" s="13"/>
+      <c r="G861" s="13"/>
     </row>
     <row r="862">
-      <c r="A862" s="10"/>
+      <c r="A862" s="12"/>
       <c r="C862" s="7"/>
+      <c r="F862" s="13"/>
+      <c r="G862" s="13"/>
     </row>
     <row r="863">
-      <c r="A863" s="10"/>
+      <c r="A863" s="12"/>
       <c r="C863" s="7"/>
+      <c r="F863" s="13"/>
+      <c r="G863" s="13"/>
     </row>
     <row r="864">
-      <c r="A864" s="10"/>
+      <c r="A864" s="12"/>
       <c r="C864" s="7"/>
+      <c r="F864" s="13"/>
+      <c r="G864" s="13"/>
     </row>
     <row r="865">
-      <c r="A865" s="10"/>
+      <c r="A865" s="12"/>
       <c r="C865" s="7"/>
+      <c r="F865" s="13"/>
+      <c r="G865" s="13"/>
     </row>
     <row r="866">
-      <c r="A866" s="10"/>
+      <c r="A866" s="12"/>
       <c r="C866" s="7"/>
+      <c r="F866" s="13"/>
+      <c r="G866" s="13"/>
     </row>
     <row r="867">
-      <c r="A867" s="10"/>
+      <c r="A867" s="12"/>
       <c r="C867" s="7"/>
+      <c r="F867" s="13"/>
+      <c r="G867" s="13"/>
     </row>
     <row r="868">
-      <c r="A868" s="10"/>
+      <c r="A868" s="12"/>
       <c r="C868" s="7"/>
+      <c r="F868" s="13"/>
+      <c r="G868" s="13"/>
     </row>
     <row r="869">
-      <c r="A869" s="10"/>
+      <c r="A869" s="12"/>
       <c r="C869" s="7"/>
+      <c r="F869" s="13"/>
+      <c r="G869" s="13"/>
     </row>
     <row r="870">
-      <c r="A870" s="10"/>
+      <c r="A870" s="12"/>
       <c r="C870" s="7"/>
+      <c r="F870" s="13"/>
+      <c r="G870" s="13"/>
     </row>
     <row r="871">
-      <c r="A871" s="10"/>
+      <c r="A871" s="12"/>
       <c r="C871" s="7"/>
+      <c r="F871" s="13"/>
+      <c r="G871" s="13"/>
     </row>
     <row r="872">
-      <c r="A872" s="10"/>
+      <c r="A872" s="12"/>
       <c r="C872" s="7"/>
+      <c r="F872" s="13"/>
+      <c r="G872" s="13"/>
     </row>
     <row r="873">
-      <c r="A873" s="10"/>
+      <c r="A873" s="12"/>
       <c r="C873" s="7"/>
+      <c r="F873" s="13"/>
+      <c r="G873" s="13"/>
     </row>
     <row r="874">
-      <c r="A874" s="10"/>
+      <c r="A874" s="12"/>
       <c r="C874" s="7"/>
+      <c r="F874" s="13"/>
+      <c r="G874" s="13"/>
     </row>
     <row r="875">
-      <c r="A875" s="10"/>
+      <c r="A875" s="12"/>
       <c r="C875" s="7"/>
+      <c r="F875" s="13"/>
+      <c r="G875" s="13"/>
     </row>
     <row r="876">
-      <c r="A876" s="10"/>
+      <c r="A876" s="12"/>
       <c r="C876" s="7"/>
+      <c r="F876" s="13"/>
+      <c r="G876" s="13"/>
     </row>
     <row r="877">
-      <c r="A877" s="10"/>
+      <c r="A877" s="12"/>
       <c r="C877" s="7"/>
+      <c r="F877" s="13"/>
+      <c r="G877" s="13"/>
     </row>
     <row r="878">
-      <c r="A878" s="10"/>
+      <c r="A878" s="12"/>
       <c r="C878" s="7"/>
+      <c r="F878" s="13"/>
+      <c r="G878" s="13"/>
     </row>
     <row r="879">
-      <c r="A879" s="10"/>
+      <c r="A879" s="12"/>
       <c r="C879" s="7"/>
+      <c r="F879" s="13"/>
+      <c r="G879" s="13"/>
     </row>
     <row r="880">
-      <c r="A880" s="10"/>
+      <c r="A880" s="12"/>
       <c r="C880" s="7"/>
+      <c r="F880" s="13"/>
+      <c r="G880" s="13"/>
     </row>
     <row r="881">
-      <c r="A881" s="10"/>
+      <c r="A881" s="12"/>
       <c r="C881" s="7"/>
+      <c r="F881" s="13"/>
+      <c r="G881" s="13"/>
     </row>
     <row r="882">
-      <c r="A882" s="10"/>
+      <c r="A882" s="12"/>
       <c r="C882" s="7"/>
+      <c r="F882" s="13"/>
+      <c r="G882" s="13"/>
     </row>
     <row r="883">
-      <c r="A883" s="10"/>
+      <c r="A883" s="12"/>
       <c r="C883" s="7"/>
+      <c r="F883" s="13"/>
+      <c r="G883" s="13"/>
     </row>
     <row r="884">
-      <c r="A884" s="10"/>
+      <c r="A884" s="12"/>
       <c r="C884" s="7"/>
+      <c r="F884" s="13"/>
+      <c r="G884" s="13"/>
     </row>
     <row r="885">
-      <c r="A885" s="10"/>
+      <c r="A885" s="12"/>
       <c r="C885" s="7"/>
+      <c r="F885" s="13"/>
+      <c r="G885" s="13"/>
     </row>
     <row r="886">
-      <c r="A886" s="10"/>
+      <c r="A886" s="12"/>
       <c r="C886" s="7"/>
+      <c r="F886" s="13"/>
+      <c r="G886" s="13"/>
     </row>
     <row r="887">
-      <c r="A887" s="10"/>
+      <c r="A887" s="12"/>
       <c r="C887" s="7"/>
+      <c r="F887" s="13"/>
+      <c r="G887" s="13"/>
     </row>
     <row r="888">
-      <c r="A888" s="10"/>
+      <c r="A888" s="12"/>
       <c r="C888" s="7"/>
+      <c r="F888" s="13"/>
+      <c r="G888" s="13"/>
     </row>
     <row r="889">
-      <c r="A889" s="10"/>
+      <c r="A889" s="12"/>
       <c r="C889" s="7"/>
+      <c r="F889" s="13"/>
+      <c r="G889" s="13"/>
     </row>
     <row r="890">
-      <c r="A890" s="10"/>
+      <c r="A890" s="12"/>
       <c r="C890" s="7"/>
+      <c r="F890" s="13"/>
+      <c r="G890" s="13"/>
     </row>
     <row r="891">
-      <c r="A891" s="10"/>
+      <c r="A891" s="12"/>
       <c r="C891" s="7"/>
+      <c r="F891" s="13"/>
+      <c r="G891" s="13"/>
     </row>
     <row r="892">
-      <c r="A892" s="10"/>
+      <c r="A892" s="12"/>
       <c r="C892" s="7"/>
+      <c r="F892" s="13"/>
+      <c r="G892" s="13"/>
     </row>
     <row r="893">
-      <c r="A893" s="10"/>
+      <c r="A893" s="12"/>
       <c r="C893" s="7"/>
+      <c r="F893" s="13"/>
+      <c r="G893" s="13"/>
     </row>
     <row r="894">
-      <c r="A894" s="10"/>
+      <c r="A894" s="12"/>
       <c r="C894" s="7"/>
+      <c r="F894" s="13"/>
+      <c r="G894" s="13"/>
     </row>
     <row r="895">
-      <c r="A895" s="10"/>
+      <c r="A895" s="12"/>
       <c r="C895" s="7"/>
+      <c r="F895" s="13"/>
+      <c r="G895" s="13"/>
     </row>
     <row r="896">
-      <c r="A896" s="10"/>
+      <c r="A896" s="12"/>
       <c r="C896" s="7"/>
+      <c r="F896" s="13"/>
+      <c r="G896" s="13"/>
     </row>
     <row r="897">
-      <c r="A897" s="10"/>
+      <c r="A897" s="12"/>
       <c r="C897" s="7"/>
+      <c r="F897" s="13"/>
+      <c r="G897" s="13"/>
     </row>
     <row r="898">
-      <c r="A898" s="10"/>
+      <c r="A898" s="12"/>
       <c r="C898" s="7"/>
+      <c r="F898" s="13"/>
+      <c r="G898" s="13"/>
     </row>
     <row r="899">
-      <c r="A899" s="10"/>
+      <c r="A899" s="12"/>
       <c r="C899" s="7"/>
+      <c r="F899" s="13"/>
+      <c r="G899" s="13"/>
     </row>
     <row r="900">
-      <c r="A900" s="10"/>
+      <c r="A900" s="12"/>
       <c r="C900" s="7"/>
+      <c r="F900" s="13"/>
+      <c r="G900" s="13"/>
     </row>
     <row r="901">
-      <c r="A901" s="10"/>
+      <c r="A901" s="12"/>
       <c r="C901" s="7"/>
+      <c r="F901" s="13"/>
+      <c r="G901" s="13"/>
     </row>
     <row r="902">
-      <c r="A902" s="10"/>
+      <c r="A902" s="12"/>
       <c r="C902" s="7"/>
+      <c r="F902" s="13"/>
+      <c r="G902" s="13"/>
     </row>
     <row r="903">
-      <c r="A903" s="10"/>
+      <c r="A903" s="12"/>
       <c r="C903" s="7"/>
+      <c r="F903" s="13"/>
+      <c r="G903" s="13"/>
     </row>
     <row r="904">
-      <c r="A904" s="10"/>
+      <c r="A904" s="12"/>
       <c r="C904" s="7"/>
+      <c r="F904" s="13"/>
+      <c r="G904" s="13"/>
     </row>
     <row r="905">
-      <c r="A905" s="10"/>
+      <c r="A905" s="12"/>
       <c r="C905" s="7"/>
+      <c r="F905" s="13"/>
+      <c r="G905" s="13"/>
     </row>
     <row r="906">
-      <c r="A906" s="10"/>
+      <c r="A906" s="12"/>
       <c r="C906" s="7"/>
+      <c r="F906" s="13"/>
+      <c r="G906" s="13"/>
     </row>
     <row r="907">
-      <c r="A907" s="10"/>
+      <c r="A907" s="12"/>
       <c r="C907" s="7"/>
+      <c r="F907" s="13"/>
+      <c r="G907" s="13"/>
     </row>
     <row r="908">
-      <c r="A908" s="10"/>
+      <c r="A908" s="12"/>
       <c r="C908" s="7"/>
+      <c r="F908" s="13"/>
+      <c r="G908" s="13"/>
     </row>
     <row r="909">
-      <c r="A909" s="10"/>
+      <c r="A909" s="12"/>
       <c r="C909" s="7"/>
+      <c r="F909" s="13"/>
+      <c r="G909" s="13"/>
     </row>
     <row r="910">
-      <c r="A910" s="10"/>
+      <c r="A910" s="12"/>
       <c r="C910" s="7"/>
+      <c r="F910" s="13"/>
+      <c r="G910" s="13"/>
     </row>
     <row r="911">
-      <c r="A911" s="10"/>
+      <c r="A911" s="12"/>
       <c r="C911" s="7"/>
+      <c r="F911" s="13"/>
+      <c r="G911" s="13"/>
     </row>
     <row r="912">
-      <c r="A912" s="10"/>
+      <c r="A912" s="12"/>
       <c r="C912" s="7"/>
+      <c r="F912" s="13"/>
+      <c r="G912" s="13"/>
     </row>
     <row r="913">
-      <c r="A913" s="10"/>
+      <c r="A913" s="12"/>
       <c r="C913" s="7"/>
+      <c r="F913" s="13"/>
+      <c r="G913" s="13"/>
     </row>
     <row r="914">
-      <c r="A914" s="10"/>
+      <c r="A914" s="12"/>
       <c r="C914" s="7"/>
+      <c r="F914" s="13"/>
+      <c r="G914" s="13"/>
     </row>
     <row r="915">
-      <c r="A915" s="10"/>
+      <c r="A915" s="12"/>
       <c r="C915" s="7"/>
+      <c r="F915" s="13"/>
+      <c r="G915" s="13"/>
     </row>
     <row r="916">
-      <c r="A916" s="10"/>
+      <c r="A916" s="12"/>
       <c r="C916" s="7"/>
+      <c r="F916" s="13"/>
+      <c r="G916" s="13"/>
     </row>
     <row r="917">
-      <c r="A917" s="10"/>
+      <c r="A917" s="12"/>
       <c r="C917" s="7"/>
+      <c r="F917" s="13"/>
+      <c r="G917" s="13"/>
     </row>
     <row r="918">
-      <c r="A918" s="10"/>
+      <c r="A918" s="12"/>
       <c r="C918" s="7"/>
+      <c r="F918" s="13"/>
+      <c r="G918" s="13"/>
     </row>
     <row r="919">
-      <c r="A919" s="10"/>
+      <c r="A919" s="12"/>
       <c r="C919" s="7"/>
+      <c r="F919" s="13"/>
+      <c r="G919" s="13"/>
     </row>
     <row r="920">
-      <c r="A920" s="10"/>
+      <c r="A920" s="12"/>
       <c r="C920" s="7"/>
+      <c r="F920" s="13"/>
+      <c r="G920" s="13"/>
     </row>
     <row r="921">
-      <c r="A921" s="10"/>
+      <c r="A921" s="12"/>
       <c r="C921" s="7"/>
+      <c r="F921" s="13"/>
+      <c r="G921" s="13"/>
     </row>
     <row r="922">
-      <c r="A922" s="10"/>
+      <c r="A922" s="12"/>
       <c r="C922" s="7"/>
+      <c r="F922" s="13"/>
+      <c r="G922" s="13"/>
     </row>
     <row r="923">
-      <c r="A923" s="10"/>
+      <c r="A923" s="12"/>
       <c r="C923" s="7"/>
+      <c r="F923" s="13"/>
+      <c r="G923" s="13"/>
     </row>
     <row r="924">
-      <c r="A924" s="10"/>
+      <c r="A924" s="12"/>
       <c r="C924" s="7"/>
+      <c r="F924" s="13"/>
+      <c r="G924" s="13"/>
     </row>
     <row r="925">
-      <c r="A925" s="10"/>
+      <c r="A925" s="12"/>
       <c r="C925" s="7"/>
+      <c r="F925" s="13"/>
+      <c r="G925" s="13"/>
     </row>
     <row r="926">
-      <c r="A926" s="10"/>
+      <c r="A926" s="12"/>
       <c r="C926" s="7"/>
+      <c r="F926" s="13"/>
+      <c r="G926" s="13"/>
     </row>
     <row r="927">
-      <c r="A927" s="10"/>
+      <c r="A927" s="12"/>
       <c r="C927" s="7"/>
+      <c r="F927" s="13"/>
+      <c r="G927" s="13"/>
     </row>
     <row r="928">
-      <c r="A928" s="10"/>
+      <c r="A928" s="12"/>
       <c r="C928" s="7"/>
+      <c r="F928" s="13"/>
+      <c r="G928" s="13"/>
     </row>
     <row r="929">
-      <c r="A929" s="10"/>
+      <c r="A929" s="12"/>
       <c r="C929" s="7"/>
+      <c r="F929" s="13"/>
+      <c r="G929" s="13"/>
     </row>
     <row r="930">
-      <c r="A930" s="10"/>
+      <c r="A930" s="12"/>
       <c r="C930" s="7"/>
+      <c r="F930" s="13"/>
+      <c r="G930" s="13"/>
     </row>
     <row r="931">
-      <c r="A931" s="10"/>
+      <c r="A931" s="12"/>
       <c r="C931" s="7"/>
+      <c r="F931" s="13"/>
+      <c r="G931" s="13"/>
     </row>
     <row r="932">
-      <c r="A932" s="10"/>
+      <c r="A932" s="12"/>
       <c r="C932" s="7"/>
+      <c r="F932" s="13"/>
+      <c r="G932" s="13"/>
     </row>
     <row r="933">
-      <c r="A933" s="10"/>
+      <c r="A933" s="12"/>
       <c r="C933" s="7"/>
+      <c r="F933" s="13"/>
+      <c r="G933" s="13"/>
     </row>
     <row r="934">
-      <c r="A934" s="10"/>
+      <c r="A934" s="12"/>
       <c r="C934" s="7"/>
+      <c r="F934" s="13"/>
+      <c r="G934" s="13"/>
     </row>
     <row r="935">
-      <c r="A935" s="10"/>
+      <c r="A935" s="12"/>
       <c r="C935" s="7"/>
+      <c r="F935" s="13"/>
+      <c r="G935" s="13"/>
     </row>
     <row r="936">
-      <c r="A936" s="10"/>
+      <c r="A936" s="12"/>
       <c r="C936" s="7"/>
+      <c r="F936" s="13"/>
+      <c r="G936" s="13"/>
     </row>
     <row r="937">
-      <c r="A937" s="10"/>
+      <c r="A937" s="12"/>
       <c r="C937" s="7"/>
+      <c r="F937" s="13"/>
+      <c r="G937" s="13"/>
     </row>
     <row r="938">
-      <c r="A938" s="10"/>
+      <c r="A938" s="12"/>
       <c r="C938" s="7"/>
+      <c r="F938" s="13"/>
+      <c r="G938" s="13"/>
     </row>
     <row r="939">
-      <c r="A939" s="10"/>
+      <c r="A939" s="12"/>
       <c r="C939" s="7"/>
+      <c r="F939" s="13"/>
+      <c r="G939" s="13"/>
     </row>
     <row r="940">
-      <c r="A940" s="10"/>
+      <c r="A940" s="12"/>
       <c r="C940" s="7"/>
+      <c r="F940" s="13"/>
+      <c r="G940" s="13"/>
     </row>
     <row r="941">
-      <c r="A941" s="10"/>
+      <c r="A941" s="12"/>
       <c r="C941" s="7"/>
+      <c r="F941" s="13"/>
+      <c r="G941" s="13"/>
     </row>
     <row r="942">
-      <c r="A942" s="10"/>
+      <c r="A942" s="12"/>
       <c r="C942" s="7"/>
+      <c r="F942" s="13"/>
+      <c r="G942" s="13"/>
     </row>
     <row r="943">
-      <c r="A943" s="10"/>
+      <c r="A943" s="12"/>
       <c r="C943" s="7"/>
+      <c r="F943" s="13"/>
+      <c r="G943" s="13"/>
     </row>
     <row r="944">
-      <c r="A944" s="10"/>
+      <c r="A944" s="12"/>
       <c r="C944" s="7"/>
+      <c r="F944" s="13"/>
+      <c r="G944" s="13"/>
     </row>
     <row r="945">
-      <c r="A945" s="10"/>
+      <c r="A945" s="12"/>
       <c r="C945" s="7"/>
+      <c r="F945" s="13"/>
+      <c r="G945" s="13"/>
     </row>
     <row r="946">
-      <c r="A946" s="10"/>
+      <c r="A946" s="12"/>
       <c r="C946" s="7"/>
+      <c r="F946" s="13"/>
+      <c r="G946" s="13"/>
     </row>
     <row r="947">
-      <c r="A947" s="10"/>
+      <c r="A947" s="12"/>
       <c r="C947" s="7"/>
+      <c r="F947" s="13"/>
+      <c r="G947" s="13"/>
     </row>
     <row r="948">
-      <c r="A948" s="10"/>
+      <c r="A948" s="12"/>
       <c r="C948" s="7"/>
+      <c r="F948" s="13"/>
+      <c r="G948" s="13"/>
     </row>
     <row r="949">
-      <c r="A949" s="10"/>
+      <c r="A949" s="12"/>
       <c r="C949" s="7"/>
+      <c r="F949" s="13"/>
+      <c r="G949" s="13"/>
     </row>
     <row r="950">
-      <c r="A950" s="10"/>
+      <c r="A950" s="12"/>
       <c r="C950" s="7"/>
+      <c r="F950" s="13"/>
+      <c r="G950" s="13"/>
     </row>
     <row r="951">
-      <c r="A951" s="10"/>
+      <c r="A951" s="12"/>
       <c r="C951" s="7"/>
+      <c r="F951" s="13"/>
+      <c r="G951" s="13"/>
     </row>
     <row r="952">
-      <c r="A952" s="10"/>
+      <c r="A952" s="12"/>
       <c r="C952" s="7"/>
+      <c r="F952" s="13"/>
+      <c r="G952" s="13"/>
     </row>
     <row r="953">
-      <c r="A953" s="10"/>
+      <c r="A953" s="12"/>
       <c r="C953" s="7"/>
+      <c r="F953" s="13"/>
+      <c r="G953" s="13"/>
     </row>
     <row r="954">
-      <c r="A954" s="10"/>
+      <c r="A954" s="12"/>
       <c r="C954" s="7"/>
+      <c r="F954" s="13"/>
+      <c r="G954" s="13"/>
     </row>
     <row r="955">
-      <c r="A955" s="10"/>
+      <c r="A955" s="12"/>
       <c r="C955" s="7"/>
+      <c r="F955" s="13"/>
+      <c r="G955" s="13"/>
     </row>
     <row r="956">
-      <c r="A956" s="10"/>
+      <c r="A956" s="12"/>
       <c r="C956" s="7"/>
+      <c r="F956" s="13"/>
+      <c r="G956" s="13"/>
     </row>
     <row r="957">
-      <c r="A957" s="10"/>
+      <c r="A957" s="12"/>
       <c r="C957" s="7"/>
+      <c r="F957" s="13"/>
+      <c r="G957" s="13"/>
     </row>
     <row r="958">
-      <c r="A958" s="10"/>
+      <c r="A958" s="12"/>
       <c r="C958" s="7"/>
+      <c r="F958" s="13"/>
+      <c r="G958" s="13"/>
     </row>
     <row r="959">
-      <c r="A959" s="10"/>
+      <c r="A959" s="12"/>
       <c r="C959" s="7"/>
+      <c r="F959" s="13"/>
+      <c r="G959" s="13"/>
     </row>
     <row r="960">
-      <c r="A960" s="10"/>
+      <c r="A960" s="12"/>
       <c r="C960" s="7"/>
+      <c r="F960" s="13"/>
+      <c r="G960" s="13"/>
     </row>
     <row r="961">
-      <c r="A961" s="10"/>
+      <c r="A961" s="12"/>
       <c r="C961" s="7"/>
+      <c r="F961" s="13"/>
+      <c r="G961" s="13"/>
     </row>
     <row r="962">
-      <c r="A962" s="10"/>
+      <c r="A962" s="12"/>
       <c r="C962" s="7"/>
+      <c r="F962" s="13"/>
+      <c r="G962" s="13"/>
     </row>
     <row r="963">
-      <c r="A963" s="10"/>
+      <c r="A963" s="12"/>
       <c r="C963" s="7"/>
+      <c r="F963" s="13"/>
+      <c r="G963" s="13"/>
     </row>
     <row r="964">
-      <c r="A964" s="10"/>
+      <c r="A964" s="12"/>
       <c r="C964" s="7"/>
+      <c r="F964" s="13"/>
+      <c r="G964" s="13"/>
     </row>
     <row r="965">
-      <c r="A965" s="10"/>
+      <c r="A965" s="12"/>
       <c r="C965" s="7"/>
+      <c r="F965" s="13"/>
+      <c r="G965" s="13"/>
     </row>
     <row r="966">
-      <c r="A966" s="10"/>
+      <c r="A966" s="12"/>
       <c r="C966" s="7"/>
+      <c r="F966" s="13"/>
+      <c r="G966" s="13"/>
     </row>
     <row r="967">
-      <c r="A967" s="10"/>
+      <c r="A967" s="12"/>
       <c r="C967" s="7"/>
+      <c r="F967" s="13"/>
+      <c r="G967" s="13"/>
     </row>
     <row r="968">
-      <c r="A968" s="10"/>
+      <c r="A968" s="12"/>
       <c r="C968" s="7"/>
+      <c r="F968" s="13"/>
+      <c r="G968" s="13"/>
     </row>
     <row r="969">
-      <c r="A969" s="10"/>
+      <c r="A969" s="12"/>
       <c r="C969" s="7"/>
+      <c r="F969" s="13"/>
+      <c r="G969" s="13"/>
     </row>
     <row r="970">
-      <c r="A970" s="10"/>
+      <c r="A970" s="12"/>
       <c r="C970" s="7"/>
+      <c r="F970" s="13"/>
+      <c r="G970" s="13"/>
     </row>
     <row r="971">
-      <c r="A971" s="10"/>
+      <c r="A971" s="12"/>
       <c r="C971" s="7"/>
+      <c r="F971" s="13"/>
+      <c r="G971" s="13"/>
     </row>
     <row r="972">
-      <c r="A972" s="10"/>
+      <c r="A972" s="12"/>
       <c r="C972" s="7"/>
+      <c r="F972" s="13"/>
+      <c r="G972" s="13"/>
     </row>
     <row r="973">
-      <c r="A973" s="10"/>
+      <c r="A973" s="12"/>
       <c r="C973" s="7"/>
+      <c r="F973" s="13"/>
+      <c r="G973" s="13"/>
     </row>
     <row r="974">
-      <c r="A974" s="10"/>
+      <c r="A974" s="12"/>
       <c r="C974" s="7"/>
+      <c r="F974" s="13"/>
+      <c r="G974" s="13"/>
     </row>
     <row r="975">
-      <c r="A975" s="10"/>
+      <c r="A975" s="12"/>
       <c r="C975" s="7"/>
+      <c r="F975" s="13"/>
+      <c r="G975" s="13"/>
     </row>
     <row r="976">
-      <c r="A976" s="10"/>
+      <c r="A976" s="12"/>
       <c r="C976" s="7"/>
+      <c r="F976" s="13"/>
+      <c r="G976" s="13"/>
     </row>
     <row r="977">
-      <c r="A977" s="10"/>
+      <c r="A977" s="12"/>
       <c r="C977" s="7"/>
+      <c r="F977" s="13"/>
+      <c r="G977" s="13"/>
     </row>
     <row r="978">
-      <c r="A978" s="10"/>
+      <c r="A978" s="12"/>
       <c r="C978" s="7"/>
+      <c r="F978" s="13"/>
+      <c r="G978" s="13"/>
     </row>
     <row r="979">
-      <c r="A979" s="10"/>
+      <c r="A979" s="12"/>
       <c r="C979" s="7"/>
+      <c r="F979" s="13"/>
+      <c r="G979" s="13"/>
     </row>
     <row r="980">
-      <c r="A980" s="10"/>
+      <c r="A980" s="12"/>
       <c r="C980" s="7"/>
+      <c r="F980" s="13"/>
+      <c r="G980" s="13"/>
     </row>
     <row r="981">
-      <c r="A981" s="10"/>
+      <c r="A981" s="12"/>
       <c r="C981" s="7"/>
+      <c r="F981" s="13"/>
+      <c r="G981" s="13"/>
     </row>
     <row r="982">
-      <c r="A982" s="10"/>
+      <c r="A982" s="12"/>
       <c r="C982" s="7"/>
+      <c r="F982" s="13"/>
+      <c r="G982" s="13"/>
     </row>
     <row r="983">
-      <c r="A983" s="10"/>
+      <c r="A983" s="12"/>
       <c r="C983" s="7"/>
+      <c r="F983" s="13"/>
+      <c r="G983" s="13"/>
     </row>
     <row r="984">
-      <c r="A984" s="10"/>
+      <c r="A984" s="12"/>
       <c r="C984" s="7"/>
+      <c r="F984" s="13"/>
+      <c r="G984" s="13"/>
     </row>
     <row r="985">
-      <c r="A985" s="10"/>
+      <c r="A985" s="12"/>
       <c r="C985" s="7"/>
+      <c r="F985" s="13"/>
+      <c r="G985" s="13"/>
     </row>
     <row r="986">
-      <c r="A986" s="10"/>
+      <c r="A986" s="12"/>
       <c r="C986" s="7"/>
+      <c r="F986" s="13"/>
+      <c r="G986" s="13"/>
     </row>
     <row r="987">
-      <c r="A987" s="10"/>
+      <c r="A987" s="12"/>
       <c r="C987" s="7"/>
+      <c r="F987" s="13"/>
+      <c r="G987" s="13"/>
     </row>
     <row r="988">
-      <c r="A988" s="10"/>
+      <c r="A988" s="12"/>
       <c r="C988" s="7"/>
+      <c r="F988" s="13"/>
+      <c r="G988" s="13"/>
     </row>
     <row r="989">
-      <c r="A989" s="10"/>
+      <c r="A989" s="12"/>
       <c r="C989" s="7"/>
+      <c r="F989" s="13"/>
+      <c r="G989" s="13"/>
     </row>
     <row r="990">
-      <c r="A990" s="10"/>
+      <c r="A990" s="12"/>
       <c r="C990" s="7"/>
+      <c r="F990" s="13"/>
+      <c r="G990" s="13"/>
     </row>
     <row r="991">
-      <c r="A991" s="10"/>
+      <c r="A991" s="12"/>
       <c r="C991" s="7"/>
+      <c r="F991" s="13"/>
+      <c r="G991" s="13"/>
     </row>
     <row r="992">
-      <c r="A992" s="10"/>
+      <c r="A992" s="12"/>
       <c r="C992" s="7"/>
+      <c r="F992" s="13"/>
+      <c r="G992" s="13"/>
     </row>
     <row r="993">
-      <c r="A993" s="10"/>
+      <c r="A993" s="12"/>
       <c r="C993" s="7"/>
+      <c r="F993" s="13"/>
+      <c r="G993" s="13"/>
     </row>
     <row r="994">
-      <c r="A994" s="10"/>
+      <c r="A994" s="12"/>
       <c r="C994" s="7"/>
+      <c r="F994" s="13"/>
+      <c r="G994" s="13"/>
     </row>
     <row r="995">
-      <c r="A995" s="10"/>
+      <c r="A995" s="12"/>
       <c r="C995" s="7"/>
+      <c r="F995" s="13"/>
+      <c r="G995" s="13"/>
     </row>
     <row r="996">
-      <c r="A996" s="10"/>
+      <c r="A996" s="12"/>
       <c r="C996" s="7"/>
+      <c r="F996" s="13"/>
+      <c r="G996" s="13"/>
     </row>
     <row r="997">
-      <c r="A997" s="10"/>
+      <c r="A997" s="12"/>
       <c r="C997" s="7"/>
+      <c r="F997" s="13"/>
+      <c r="G997" s="13"/>
     </row>
     <row r="998">
-      <c r="A998" s="10"/>
+      <c r="A998" s="12"/>
       <c r="C998" s="7"/>
+      <c r="F998" s="13"/>
+      <c r="G998" s="13"/>
     </row>
     <row r="999">
-      <c r="A999" s="10"/>
+      <c r="A999" s="12"/>
       <c r="C999" s="7"/>
+      <c r="F999" s="13"/>
+      <c r="G999" s="13"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="10"/>
+      <c r="A1000" s="12"/>
       <c r="C1000" s="7"/>
+      <c r="F1000" s="13"/>
+      <c r="G1000" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$Z$1000">
-    <sortState ref="A1:Z1000">
-      <sortCondition ref="E1:E1000"/>
+  <autoFilter ref="$A$1:$H$102">
+    <sortState ref="A1:H102">
+      <sortCondition descending="1" ref="G1:G102"/>
+      <sortCondition descending="1" ref="F1:F102"/>
+      <sortCondition ref="A1:A102"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="C1:C102 D1:D102">
@@ -6157,11 +8211,6 @@
   <conditionalFormatting sqref="C1:C102 D1:D102">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(G5))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <drawing r:id="rId1"/>
@@ -6178,80 +8227,101 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.38"/>
-    <col customWidth="1" min="3" max="3" width="37.75"/>
+    <col customWidth="1" min="1" max="1" width="35.63"/>
+    <col customWidth="1" min="2" max="2" width="37.5"/>
+    <col customWidth="1" min="3" max="3" width="44.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>108</v>
+      <c r="A1" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="16"/>
+      <c r="A2" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="19"/>
     </row>
     <row r="3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="16"/>
+      <c r="A3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="20"/>
     </row>
     <row r="4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
+      <c r="A4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="20"/>
     </row>
     <row r="5">
-      <c r="A5" s="14"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="20"/>
     </row>
     <row r="6">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="20"/>
     </row>
     <row r="7">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="20"/>
     </row>
     <row r="8">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="20"/>
     </row>
     <row r="10">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="20"/>
     </row>
     <row r="13">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="20"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/src/documentation/Feature Ranking Documentation.xlsx
+++ b/src/documentation/Feature Ranking Documentation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>FEATURE</t>
   </si>
@@ -43,13 +43,19 @@
     <t>Algorithm tested</t>
   </si>
   <si>
-    <t>Score (singles, first_gen)</t>
+    <t>Evaluation method</t>
+  </si>
+  <si>
+    <t>Evaluation Score (singles, first_gen)</t>
   </si>
   <si>
     <t>notes &amp; observations</t>
   </si>
   <si>
     <t>Mutual information, all data</t>
+  </si>
+  <si>
+    <t>fuji</t>
   </si>
   <si>
     <t>(0.8635530367032218, 0.7392145047450169)</t>
@@ -59,6 +65,9 @@
   </si>
   <si>
     <t>(0.7004396806244233, 0.6393842363753732)</t>
+  </si>
+  <si>
+    <t>only top 10 taken from scores</t>
   </si>
   <si>
     <t>ReliefF, 0.1% of data randomly sampled</t>
@@ -78,6 +87,63 @@
   <si>
     <t>(0.8514649310560692, 0.7461393376478086)</t>
   </si>
+  <si>
+    <t>ReliefF, 33% of data randomly sampled</t>
+  </si>
+  <si>
+    <t>(0.8451238848308656, 0.7523493111288934)</t>
+  </si>
+  <si>
+    <t>jaccard</t>
+  </si>
+  <si>
+    <t>(0.4194700441858172, 0.43152862233540834)</t>
+  </si>
+  <si>
+    <t>(0.40036216514472456, 0.4187043577708233)</t>
+  </si>
+  <si>
+    <t>(0.4218725932651735, 0.4180492488316388)</t>
+  </si>
+  <si>
+    <t>(0.39261719106970383, 0.415318234240222)</t>
+  </si>
+  <si>
+    <t>Mutual info, 100 x sampled(n=15,000)</t>
+  </si>
+  <si>
+    <t>0.428 ± 0.015, 0.588 ± 0.018</t>
+  </si>
+  <si>
+    <t>cca 4s for a single ranking</t>
+  </si>
+  <si>
+    <t>Mutual info, 10 x sampled(n=150,000)</t>
+  </si>
+  <si>
+    <t>0.434 ± 0.010, 0.585 ± 0.011</t>
+  </si>
+  <si>
+    <t>cca 50s for a single rank</t>
+  </si>
+  <si>
+    <t>Mutual info, all</t>
+  </si>
+  <si>
+    <t>0.437, 0.522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">785s </t>
+  </si>
+  <si>
+    <t>0.805 ± 0.011, 0.837 ± 0.014</t>
+  </si>
+  <si>
+    <t>0.809 ± 0.011, 0.826 ± 0.007</t>
+  </si>
+  <si>
+    <t>0.794, 0.783</t>
+  </si>
 </sst>
 </file>
 
@@ -86,7 +152,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -128,6 +194,22 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FF999999"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFA5A5A5"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -189,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -213,13 +295,13 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="0"/>
@@ -231,6 +313,9 @@
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
@@ -240,10 +325,25 @@
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -522,10 +622,10 @@
     </row>
     <row r="2">
       <c r="A2" s="4">
-        <v>98.0</v>
+        <v>0.0</v>
       </c>
       <c r="B2" s="6">
-        <v>2.0</v>
+        <v>295.0</v>
       </c>
       <c r="C2" s="7">
         <f t="shared" ref="C2:C102" si="1">IF(B2&gt;1000, 1, 0)</f>
@@ -534,46 +634,42 @@
       <c r="D2" s="6">
         <v>0.0</v>
       </c>
-      <c r="E2" s="8">
-        <v>4.0</v>
-      </c>
+      <c r="E2" s="8"/>
       <c r="F2" s="9">
-        <v>0.94</v>
+        <v>0.740219693124285</v>
       </c>
       <c r="G2" s="9">
-        <v>0.998550282879953</v>
+        <v>0.0769716906460384</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4">
-        <v>99.0</v>
+        <v>1.0</v>
       </c>
       <c r="B3" s="6">
-        <v>2.0</v>
+        <v>2526.0</v>
       </c>
       <c r="C3" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="6">
         <v>0.0</v>
       </c>
-      <c r="E3" s="8">
-        <v>4.0</v>
-      </c>
+      <c r="E3" s="8"/>
       <c r="F3" s="9">
-        <v>0.94</v>
+        <v>0.748215743402743</v>
       </c>
       <c r="G3" s="9">
-        <v>0.998550282879953</v>
+        <v>0.147141781022099</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" s="6">
-        <v>14633.0</v>
+        <v>39404.0</v>
       </c>
       <c r="C4" s="7">
         <f t="shared" si="1"/>
@@ -589,39 +685,39 @@
         <v>0.763096570342066</v>
       </c>
       <c r="G4" s="9">
-        <v>0.238650147201154</v>
+        <v>0.0297189739520529</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
       <c r="B5" s="6">
-        <v>51.0</v>
+        <v>14633.0</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E5" s="6">
-        <v>8.0</v>
+        <v>5.0</v>
       </c>
       <c r="F5" s="9">
-        <v>0.744694738885608</v>
+        <v>0.763096570342066</v>
       </c>
       <c r="G5" s="9">
-        <v>0.187370761019425</v>
+        <v>0.238650147201154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4">
-        <v>87.0</v>
+        <v>4.0</v>
       </c>
       <c r="B6" s="6">
-        <v>749.0</v>
+        <v>2.0</v>
       </c>
       <c r="C6" s="7">
         <f t="shared" si="1"/>
@@ -630,22 +726,20 @@
       <c r="D6" s="6">
         <v>0.0</v>
       </c>
-      <c r="E6" s="6">
-        <v>2.0</v>
-      </c>
+      <c r="E6" s="8"/>
       <c r="F6" s="9">
-        <v>0.741184783827072</v>
+        <v>0.739754248150703</v>
       </c>
       <c r="G6" s="9">
-        <v>0.186470416672814</v>
+        <v>0.0266328097093283</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4">
-        <v>86.0</v>
+        <v>5.0</v>
       </c>
       <c r="B7" s="6">
-        <v>743.0</v>
+        <v>2.0</v>
       </c>
       <c r="C7" s="7">
         <f t="shared" si="1"/>
@@ -654,46 +748,42 @@
       <c r="D7" s="6">
         <v>0.0</v>
       </c>
-      <c r="E7" s="6">
-        <v>2.0</v>
-      </c>
+      <c r="E7" s="8"/>
       <c r="F7" s="9">
-        <v>0.741128845343718</v>
+        <v>0.74211166919656</v>
       </c>
       <c r="G7" s="9">
-        <v>0.186466811988465</v>
+        <v>0.0216277064894057</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="B8" s="6">
-        <v>3515.0</v>
+        <v>2.0</v>
       </c>
       <c r="C8" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="6">
         <v>0.0</v>
       </c>
-      <c r="E8" s="6">
-        <v>7.0</v>
-      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="9">
-        <v>0.741479414431251</v>
+        <v>0.739904259992353</v>
       </c>
       <c r="G8" s="9">
-        <v>0.18645454168679</v>
+        <v>0.031079688357002</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4">
-        <v>89.0</v>
+        <v>7.0</v>
       </c>
       <c r="B9" s="6">
-        <v>749.0</v>
+        <v>60.0</v>
       </c>
       <c r="C9" s="7">
         <f t="shared" si="1"/>
@@ -702,94 +792,92 @@
       <c r="D9" s="6">
         <v>0.0</v>
       </c>
-      <c r="E9" s="6">
-        <v>2.0</v>
-      </c>
+      <c r="E9" s="8"/>
       <c r="F9" s="9">
-        <v>0.740705184405319</v>
+        <v>0.740410205109339</v>
       </c>
       <c r="G9" s="9">
-        <v>0.18645454168679</v>
+        <v>0.0237109676500874</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4">
-        <v>88.0</v>
+        <v>8.0</v>
       </c>
       <c r="B10" s="6">
-        <v>749.0</v>
+        <v>2508.0</v>
       </c>
       <c r="C10" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E10" s="6">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="F10" s="9">
-        <v>0.740280940367345</v>
+        <v>0.740159763313303</v>
       </c>
       <c r="G10" s="9">
-        <v>0.18645454168679</v>
+        <v>0.0242698346638798</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4">
-        <v>85.0</v>
+        <v>9.0</v>
       </c>
       <c r="B11" s="6">
-        <v>746.0</v>
+        <v>3515.0</v>
       </c>
       <c r="C11" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="6">
         <v>0.0</v>
       </c>
       <c r="E11" s="6">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
       <c r="F11" s="9">
-        <v>0.741812651162541</v>
+        <v>0.741479414431251</v>
       </c>
       <c r="G11" s="9">
-        <v>0.186146428753938</v>
+        <v>0.18645454168679</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4">
-        <v>84.0</v>
+        <v>10.0</v>
       </c>
       <c r="B12" s="6">
-        <v>726.0</v>
+        <v>12410.0</v>
       </c>
       <c r="C12" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="6">
         <v>0.0</v>
       </c>
       <c r="E12" s="6">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="F12" s="9">
-        <v>0.740547986202615</v>
+        <v>0.744221981703695</v>
       </c>
       <c r="G12" s="9">
-        <v>0.18514354666262</v>
+        <v>0.132923543739415</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4">
-        <v>83.0</v>
+        <v>11.0</v>
       </c>
       <c r="B13" s="6">
-        <v>689.0</v>
+        <v>39.0</v>
       </c>
       <c r="C13" s="7">
         <f t="shared" si="1"/>
@@ -798,22 +886,20 @@
       <c r="D13" s="6">
         <v>0.0</v>
       </c>
-      <c r="E13" s="6">
-        <v>9.0</v>
-      </c>
+      <c r="E13" s="10"/>
       <c r="F13" s="9">
-        <v>0.740833822949908</v>
+        <v>0.740720439436135</v>
       </c>
       <c r="G13" s="9">
-        <v>0.176185322230955</v>
+        <v>0.144454965241809</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4">
-        <v>82.0</v>
+        <v>12.0</v>
       </c>
       <c r="B14" s="6">
-        <v>532.0</v>
+        <v>39.0</v>
       </c>
       <c r="C14" s="7">
         <f t="shared" si="1"/>
@@ -822,22 +908,20 @@
       <c r="D14" s="6">
         <v>0.0</v>
       </c>
-      <c r="E14" s="6">
-        <v>2.0</v>
-      </c>
+      <c r="E14" s="10"/>
       <c r="F14" s="9">
-        <v>0.740613043251635</v>
+        <v>0.740089968187218</v>
       </c>
       <c r="G14" s="9">
-        <v>0.155404593756242</v>
+        <v>0.0229567710015223</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4">
-        <v>18.0</v>
+        <v>13.0</v>
       </c>
       <c r="B15" s="6">
-        <v>393.0</v>
+        <v>3.0</v>
       </c>
       <c r="C15" s="7">
         <f t="shared" si="1"/>
@@ -846,42 +930,44 @@
       <c r="D15" s="6">
         <v>0.0</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="10"/>
       <c r="F15" s="9">
-        <v>0.759176024593145</v>
+        <v>0.740207651749367</v>
       </c>
       <c r="G15" s="9">
-        <v>0.149598984271116</v>
+        <v>0.0312610164773748</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4">
-        <v>1.0</v>
+        <v>14.0</v>
       </c>
       <c r="B16" s="6">
-        <v>2526.0</v>
+        <v>2.0</v>
       </c>
       <c r="C16" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="6">
         <v>0.0</v>
       </c>
-      <c r="E16" s="10"/>
+      <c r="E16" s="6">
+        <v>11.0</v>
+      </c>
       <c r="F16" s="9">
-        <v>0.748215743402743</v>
+        <v>0.74011589799131</v>
       </c>
       <c r="G16" s="9">
-        <v>0.147141781022099</v>
+        <v>0.0243284287837943</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4">
-        <v>11.0</v>
+        <v>15.0</v>
       </c>
       <c r="B17" s="6">
-        <v>39.0</v>
+        <v>48.0</v>
       </c>
       <c r="C17" s="7">
         <f t="shared" si="1"/>
@@ -890,36 +976,36 @@
       <c r="D17" s="6">
         <v>0.0</v>
       </c>
-      <c r="E17" s="8"/>
+      <c r="E17" s="6">
+        <v>11.0</v>
+      </c>
       <c r="F17" s="9">
-        <v>0.740720439436135</v>
+        <v>0.740848227172587</v>
       </c>
       <c r="G17" s="9">
-        <v>0.144454965241809</v>
+        <v>0.0276265952337153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4">
-        <v>10.0</v>
+        <v>16.0</v>
       </c>
       <c r="B18" s="6">
-        <v>12410.0</v>
+        <v>91.0</v>
       </c>
       <c r="C18" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" s="6">
         <v>0.0</v>
       </c>
-      <c r="E18" s="6">
-        <v>5.0</v>
-      </c>
+      <c r="E18" s="10"/>
       <c r="F18" s="9">
-        <v>0.744221981703695</v>
+        <v>0.740241398640367</v>
       </c>
       <c r="G18" s="9">
-        <v>0.132923543739415</v>
+        <v>0.0913927878867644</v>
       </c>
     </row>
     <row r="19">
@@ -936,7 +1022,7 @@
       <c r="D19" s="6">
         <v>0.0</v>
       </c>
-      <c r="E19" s="8"/>
+      <c r="E19" s="10"/>
       <c r="F19" s="9">
         <v>0.741684000432546</v>
       </c>
@@ -946,32 +1032,32 @@
     </row>
     <row r="20">
       <c r="A20" s="4">
-        <v>28.0</v>
+        <v>18.0</v>
       </c>
       <c r="B20" s="6">
-        <v>35.0</v>
+        <v>393.0</v>
       </c>
       <c r="C20" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D20" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E20" s="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="E20" s="10"/>
       <c r="F20" s="9">
-        <v>0.754556861717841</v>
+        <v>0.759176024593145</v>
       </c>
       <c r="G20" s="9">
-        <v>0.0924810560055265</v>
+        <v>0.149598984271116</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4">
-        <v>16.0</v>
+        <v>19.0</v>
       </c>
       <c r="B21" s="6">
-        <v>91.0</v>
+        <v>766.0</v>
       </c>
       <c r="C21" s="7">
         <f t="shared" si="1"/>
@@ -980,20 +1066,20 @@
       <c r="D21" s="6">
         <v>0.0</v>
       </c>
-      <c r="E21" s="8"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="9">
-        <v>0.740241398640367</v>
+        <v>0.749728806573107</v>
       </c>
       <c r="G21" s="9">
-        <v>0.0913927878867644</v>
+        <v>0.0230581608914394</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="B22" s="6">
-        <v>295.0</v>
+        <v>862.0</v>
       </c>
       <c r="C22" s="7">
         <f t="shared" si="1"/>
@@ -1004,40 +1090,40 @@
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="9">
-        <v>0.740219693124285</v>
+        <v>0.742757078987824</v>
       </c>
       <c r="G22" s="9">
-        <v>0.0769716906460384</v>
+        <v>0.0227981629390395</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4">
-        <v>26.0</v>
+        <v>21.0</v>
       </c>
       <c r="B23" s="6">
-        <v>232.0</v>
+        <v>11547.0</v>
       </c>
       <c r="C23" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="6">
         <v>0.0</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="10"/>
       <c r="F23" s="9">
-        <v>0.751879078329873</v>
+        <v>0.739853859555345</v>
       </c>
       <c r="G23" s="9">
-        <v>0.0753810186426156</v>
+        <v>0.037824954987689</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4">
-        <v>27.0</v>
+        <v>22.0</v>
       </c>
       <c r="B24" s="6">
-        <v>64.0</v>
+        <v>131.0</v>
       </c>
       <c r="C24" s="7">
         <f t="shared" si="1"/>
@@ -1046,46 +1132,42 @@
       <c r="D24" s="6">
         <v>0.0</v>
       </c>
-      <c r="E24" s="6">
-        <v>10.0</v>
-      </c>
+      <c r="E24" s="10"/>
       <c r="F24" s="9">
-        <v>0.74510552281394</v>
+        <v>0.751157277423483</v>
       </c>
       <c r="G24" s="9">
-        <v>0.0704100835786003</v>
+        <v>0.0393348458941263</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4">
-        <v>49.0</v>
+        <v>23.0</v>
       </c>
       <c r="B25" s="6">
-        <v>125584.0</v>
+        <v>37.0</v>
       </c>
       <c r="C25" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="6">
         <v>0.0</v>
       </c>
-      <c r="E25" s="6">
-        <v>6.0</v>
-      </c>
+      <c r="E25" s="10"/>
       <c r="F25" s="9">
-        <v>0.740142121457622</v>
+        <v>0.752790747399115</v>
       </c>
       <c r="G25" s="9">
-        <v>0.0557458306618616</v>
+        <v>0.0287791493366097</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4">
-        <v>25.0</v>
+        <v>24.0</v>
       </c>
       <c r="B26" s="6">
-        <v>4.0</v>
+        <v>413.0</v>
       </c>
       <c r="C26" s="7">
         <f t="shared" si="1"/>
@@ -1094,20 +1176,20 @@
       <c r="D26" s="6">
         <v>0.0</v>
       </c>
-      <c r="E26" s="8"/>
+      <c r="E26" s="10"/>
       <c r="F26" s="9">
-        <v>0.741459653321067</v>
+        <v>0.739745560362572</v>
       </c>
       <c r="G26" s="9">
-        <v>0.0441268881802902</v>
+        <v>0.0344024722967073</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4">
-        <v>48.0</v>
+        <v>25.0</v>
       </c>
       <c r="B27" s="6">
-        <v>14.0</v>
+        <v>4.0</v>
       </c>
       <c r="C27" s="7">
         <f t="shared" si="1"/>
@@ -1116,44 +1198,42 @@
       <c r="D27" s="6">
         <v>0.0</v>
       </c>
-      <c r="E27" s="6">
-        <v>10.0</v>
-      </c>
+      <c r="E27" s="10"/>
       <c r="F27" s="9">
-        <v>0.739864058621702</v>
+        <v>0.741459653321067</v>
       </c>
       <c r="G27" s="9">
-        <v>0.0424714879293592</v>
+        <v>0.0441268881802902</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4">
-        <v>53.0</v>
+        <v>26.0</v>
       </c>
       <c r="B28" s="6">
-        <v>288986.0</v>
+        <v>232.0</v>
       </c>
       <c r="C28" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="6">
         <v>0.0</v>
       </c>
-      <c r="E28" s="8"/>
+      <c r="E28" s="10"/>
       <c r="F28" s="9">
-        <v>0.750405136652986</v>
+        <v>0.751879078329873</v>
       </c>
       <c r="G28" s="9">
-        <v>0.0394166603126876</v>
+        <v>0.0753810186426156</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="B29" s="6">
-        <v>131.0</v>
+        <v>64.0</v>
       </c>
       <c r="C29" s="7">
         <f t="shared" si="1"/>
@@ -1162,64 +1242,68 @@
       <c r="D29" s="6">
         <v>0.0</v>
       </c>
-      <c r="E29" s="8"/>
+      <c r="E29" s="6">
+        <v>10.0</v>
+      </c>
       <c r="F29" s="9">
-        <v>0.751157277423483</v>
+        <v>0.74510552281394</v>
       </c>
       <c r="G29" s="9">
-        <v>0.0393348458941263</v>
+        <v>0.0704100835786003</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4">
-        <v>45.0</v>
+        <v>28.0</v>
       </c>
       <c r="B30" s="6">
-        <v>3.0</v>
+        <v>35.0</v>
       </c>
       <c r="C30" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D30" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E30" s="8"/>
+        <v>1.0</v>
+      </c>
+      <c r="E30" s="10"/>
       <c r="F30" s="9">
-        <v>0.746543762423178</v>
+        <v>0.754556861717841</v>
       </c>
       <c r="G30" s="9">
-        <v>0.0381540846494302</v>
+        <v>0.0924810560055265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4">
-        <v>38.0</v>
+        <v>29.0</v>
       </c>
       <c r="B31" s="6">
-        <v>459.0</v>
+        <v>51.0</v>
       </c>
       <c r="C31" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D31" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E31" s="8"/>
+        <v>1.0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>8.0</v>
+      </c>
       <c r="F31" s="9">
-        <v>0.740661446065883</v>
+        <v>0.744694738885608</v>
       </c>
       <c r="G31" s="9">
-        <v>0.0380425608897012</v>
+        <v>0.187370761019425</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4">
-        <v>90.0</v>
+        <v>30.0</v>
       </c>
       <c r="B32" s="6">
-        <v>2.0</v>
+        <v>50.0</v>
       </c>
       <c r="C32" s="7">
         <f t="shared" si="1"/>
@@ -1229,18 +1313,18 @@
         <v>0.0</v>
       </c>
       <c r="E32" s="6">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="F32" s="9">
-        <v>0.741125148205752</v>
+        <v>0.741328512403892</v>
       </c>
       <c r="G32" s="9">
-        <v>0.0380418258974892</v>
+        <v>0.0227941884727096</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4">
-        <v>91.0</v>
+        <v>31.0</v>
       </c>
       <c r="B33" s="6">
         <v>3.0</v>
@@ -1252,68 +1336,66 @@
       <c r="D33" s="6">
         <v>0.0</v>
       </c>
-      <c r="E33" s="6">
-        <v>3.0</v>
-      </c>
+      <c r="E33" s="10"/>
       <c r="F33" s="9">
-        <v>0.740055157245987</v>
+        <v>0.739771561903325</v>
       </c>
       <c r="G33" s="9">
-        <v>0.0379714636465472</v>
+        <v>0.0221607323351388</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4">
-        <v>21.0</v>
+        <v>32.0</v>
       </c>
       <c r="B34" s="6">
-        <v>11547.0</v>
+        <v>2.0</v>
       </c>
       <c r="C34" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" s="6">
         <v>0.0</v>
       </c>
-      <c r="E34" s="8"/>
+      <c r="E34" s="6">
+        <v>3.0</v>
+      </c>
       <c r="F34" s="9">
-        <v>0.739853859555345</v>
+        <v>0.745982146063207</v>
       </c>
       <c r="G34" s="9">
-        <v>0.037824954987689</v>
+        <v>0.0333550827191799</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4">
-        <v>73.0</v>
+        <v>33.0</v>
       </c>
       <c r="B35" s="6">
-        <v>23.0</v>
+        <v>250802.0</v>
       </c>
       <c r="C35" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E35" s="6">
-        <v>1.0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="E35" s="10"/>
       <c r="F35" s="9">
-        <v>0.741525242175239</v>
+        <v>0.74131254852375</v>
       </c>
       <c r="G35" s="9">
-        <v>0.0364820917282723</v>
+        <v>0.0309853111647137</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4">
-        <v>44.0</v>
+        <v>34.0</v>
       </c>
       <c r="B36" s="6">
-        <v>717.0</v>
+        <v>100.0</v>
       </c>
       <c r="C36" s="7">
         <f t="shared" si="1"/>
@@ -1322,20 +1404,20 @@
       <c r="D36" s="6">
         <v>0.0</v>
       </c>
-      <c r="E36" s="8"/>
+      <c r="E36" s="10"/>
       <c r="F36" s="9">
-        <v>0.739831141980946</v>
+        <v>0.740992871464021</v>
       </c>
       <c r="G36" s="9">
-        <v>0.0355495472908289</v>
+        <v>0.0283730484353459</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4">
-        <v>24.0</v>
+        <v>35.0</v>
       </c>
       <c r="B37" s="6">
-        <v>413.0</v>
+        <v>171.0</v>
       </c>
       <c r="C37" s="7">
         <f t="shared" si="1"/>
@@ -1344,20 +1426,20 @@
       <c r="D37" s="6">
         <v>0.0</v>
       </c>
-      <c r="E37" s="8"/>
+      <c r="E37" s="10"/>
       <c r="F37" s="9">
-        <v>0.739745560362572</v>
+        <v>0.739894511777231</v>
       </c>
       <c r="G37" s="9">
-        <v>0.0344024722967073</v>
+        <v>0.0192386204049412</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4">
-        <v>47.0</v>
+        <v>36.0</v>
       </c>
       <c r="B38" s="6">
-        <v>16648.0</v>
+        <v>17345.0</v>
       </c>
       <c r="C38" s="7">
         <f t="shared" si="1"/>
@@ -1366,20 +1448,20 @@
       <c r="D38" s="6">
         <v>0.0</v>
       </c>
-      <c r="E38" s="8"/>
+      <c r="E38" s="10"/>
       <c r="F38" s="9">
-        <v>0.741638957491895</v>
+        <v>0.739747887922217</v>
       </c>
       <c r="G38" s="9">
-        <v>0.0340742356918984</v>
+        <v>0.0199731184006737</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4">
-        <v>32.0</v>
+        <v>37.0</v>
       </c>
       <c r="B39" s="6">
-        <v>2.0</v>
+        <v>42.0</v>
       </c>
       <c r="C39" s="7">
         <f t="shared" si="1"/>
@@ -1388,22 +1470,20 @@
       <c r="D39" s="6">
         <v>0.0</v>
       </c>
-      <c r="E39" s="6">
-        <v>3.0</v>
-      </c>
+      <c r="E39" s="10"/>
       <c r="F39" s="9">
-        <v>0.745982146063207</v>
+        <v>0.739825982292879</v>
       </c>
       <c r="G39" s="9">
-        <v>0.0333550827191799</v>
+        <v>0.0224520628167191</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4">
-        <v>55.0</v>
+        <v>38.0</v>
       </c>
       <c r="B40" s="6">
-        <v>988.0</v>
+        <v>459.0</v>
       </c>
       <c r="C40" s="7">
         <f t="shared" si="1"/>
@@ -1412,20 +1492,20 @@
       <c r="D40" s="6">
         <v>0.0</v>
       </c>
-      <c r="E40" s="8"/>
+      <c r="E40" s="10"/>
       <c r="F40" s="9">
-        <v>0.748795945673727</v>
+        <v>0.740661446065883</v>
       </c>
       <c r="G40" s="9">
-        <v>0.0327545775142378</v>
+        <v>0.0380425608897012</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4">
-        <v>13.0</v>
+        <v>39.0</v>
       </c>
       <c r="B41" s="6">
-        <v>3.0</v>
+        <v>128.0</v>
       </c>
       <c r="C41" s="7">
         <f t="shared" si="1"/>
@@ -1434,20 +1514,20 @@
       <c r="D41" s="6">
         <v>0.0</v>
       </c>
-      <c r="E41" s="8"/>
+      <c r="E41" s="10"/>
       <c r="F41" s="9">
-        <v>0.740207651749367</v>
+        <v>0.742074146042638</v>
       </c>
       <c r="G41" s="9">
-        <v>0.0312610164773748</v>
+        <v>-0.0130381587757506</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4">
-        <v>6.0</v>
+        <v>40.0</v>
       </c>
       <c r="B42" s="6">
-        <v>2.0</v>
+        <v>41.0</v>
       </c>
       <c r="C42" s="7">
         <f t="shared" si="1"/>
@@ -1458,108 +1538,106 @@
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="9">
-        <v>0.739904259992353</v>
+        <v>0.739814967606423</v>
       </c>
       <c r="G42" s="9">
-        <v>0.031079688357002</v>
+        <v>0.0265813559639231</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4">
-        <v>51.0</v>
+        <v>41.0</v>
       </c>
       <c r="B43" s="6">
-        <v>98181.0</v>
+        <v>269.0</v>
       </c>
       <c r="C43" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" s="6">
         <v>0.0</v>
       </c>
-      <c r="E43" s="8"/>
+      <c r="E43" s="10"/>
       <c r="F43" s="9">
-        <v>0.739825579849279</v>
+        <v>0.740912271381754</v>
       </c>
       <c r="G43" s="9">
-        <v>0.0310737323937906</v>
+        <v>0.0301161064724394</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4">
-        <v>33.0</v>
+        <v>42.0</v>
       </c>
       <c r="B44" s="6">
-        <v>250802.0</v>
+        <v>18.0</v>
       </c>
       <c r="C44" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" s="6">
         <v>0.0</v>
       </c>
-      <c r="E44" s="8"/>
+      <c r="E44" s="10"/>
       <c r="F44" s="9">
-        <v>0.74131254852375</v>
+        <v>0.740475932091405</v>
       </c>
       <c r="G44" s="9">
-        <v>0.0309853111647137</v>
+        <v>0.0287357123094708</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4">
-        <v>52.0</v>
+        <v>43.0</v>
       </c>
       <c r="B45" s="6">
-        <v>261178.0</v>
+        <v>268.0</v>
       </c>
       <c r="C45" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D45" s="6">
         <v>0.0</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E45" s="10"/>
       <c r="F45" s="9">
-        <v>0.739763749617646</v>
+        <v>0.739791166756819</v>
       </c>
       <c r="G45" s="9">
-        <v>0.0305503524482954</v>
+        <v>0.0288720920673777</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4">
-        <v>50.0</v>
+        <v>44.0</v>
       </c>
       <c r="B46" s="6">
-        <v>647413.0</v>
+        <v>717.0</v>
       </c>
       <c r="C46" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46" s="6">
         <v>0.0</v>
       </c>
-      <c r="E46" s="6">
-        <v>6.0</v>
-      </c>
+      <c r="E46" s="10"/>
       <c r="F46" s="9">
-        <v>0.747312261909617</v>
+        <v>0.739831141980946</v>
       </c>
       <c r="G46" s="9">
-        <v>0.0305052684296592</v>
+        <v>0.0355495472908289</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="4">
-        <v>58.0</v>
+        <v>45.0</v>
       </c>
       <c r="B47" s="6">
-        <v>24.0</v>
+        <v>3.0</v>
       </c>
       <c r="C47" s="7">
         <f t="shared" si="1"/>
@@ -1568,20 +1646,20 @@
       <c r="D47" s="6">
         <v>0.0</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="10"/>
       <c r="F47" s="9">
-        <v>0.741820115814069</v>
+        <v>0.746543762423178</v>
       </c>
       <c r="G47" s="9">
-        <v>0.0302095151501275</v>
+        <v>0.0381540846494302</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="4">
-        <v>41.0</v>
+        <v>46.0</v>
       </c>
       <c r="B48" s="6">
-        <v>269.0</v>
+        <v>117.0</v>
       </c>
       <c r="C48" s="7">
         <f t="shared" si="1"/>
@@ -1590,200 +1668,202 @@
       <c r="D48" s="6">
         <v>0.0</v>
       </c>
-      <c r="E48" s="8"/>
+      <c r="E48" s="10"/>
       <c r="F48" s="9">
-        <v>0.740912271381754</v>
+        <v>0.743715119047067</v>
       </c>
       <c r="G48" s="9">
-        <v>0.0301161064724394</v>
+        <v>0.0269103567242156</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="4">
-        <v>62.0</v>
+        <v>47.0</v>
       </c>
       <c r="B49" s="6">
-        <v>239.0</v>
+        <v>16648.0</v>
       </c>
       <c r="C49" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49" s="6">
         <v>0.0</v>
       </c>
-      <c r="E49" s="8"/>
+      <c r="E49" s="10"/>
       <c r="F49" s="9">
-        <v>0.745476523954227</v>
+        <v>0.741638957491895</v>
       </c>
       <c r="G49" s="9">
-        <v>0.0300326365210213</v>
+        <v>0.0340742356918984</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="4">
-        <v>2.0</v>
+        <v>48.0</v>
       </c>
       <c r="B50" s="6">
-        <v>39404.0</v>
+        <v>14.0</v>
       </c>
       <c r="C50" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D50" s="6">
         <v>0.0</v>
       </c>
       <c r="E50" s="6">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="F50" s="9">
-        <v>0.763096570342066</v>
+        <v>0.739864058621702</v>
       </c>
       <c r="G50" s="9">
-        <v>0.0297189739520529</v>
+        <v>0.0424714879293592</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="4">
-        <v>65.0</v>
+        <v>49.0</v>
       </c>
       <c r="B51" s="6">
-        <v>5.0</v>
+        <v>125584.0</v>
       </c>
       <c r="C51" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51" s="6">
         <v>0.0</v>
       </c>
-      <c r="E51" s="8"/>
+      <c r="E51" s="6">
+        <v>6.0</v>
+      </c>
       <c r="F51" s="9">
-        <v>0.743389860135086</v>
+        <v>0.740142121457622</v>
       </c>
       <c r="G51" s="9">
-        <v>0.0291883808804943</v>
+        <v>0.0557458306618616</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="4">
-        <v>43.0</v>
+        <v>50.0</v>
       </c>
       <c r="B52" s="6">
-        <v>268.0</v>
+        <v>647413.0</v>
       </c>
       <c r="C52" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" s="6">
         <v>0.0</v>
       </c>
-      <c r="E52" s="8"/>
+      <c r="E52" s="6">
+        <v>6.0</v>
+      </c>
       <c r="F52" s="9">
-        <v>0.739791166756819</v>
+        <v>0.747312261909617</v>
       </c>
       <c r="G52" s="9">
-        <v>0.0288720920673777</v>
+        <v>0.0305052684296592</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="4">
-        <v>23.0</v>
+        <v>51.0</v>
       </c>
       <c r="B53" s="6">
-        <v>37.0</v>
+        <v>98181.0</v>
       </c>
       <c r="C53" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D53" s="6">
         <v>0.0</v>
       </c>
-      <c r="E53" s="8"/>
+      <c r="E53" s="10"/>
       <c r="F53" s="9">
-        <v>0.752790747399115</v>
+        <v>0.739825579849279</v>
       </c>
       <c r="G53" s="9">
-        <v>0.0287791493366097</v>
+        <v>0.0310737323937906</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="4">
-        <v>42.0</v>
+        <v>52.0</v>
       </c>
       <c r="B54" s="6">
-        <v>18.0</v>
+        <v>261178.0</v>
       </c>
       <c r="C54" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54" s="6">
         <v>0.0</v>
       </c>
-      <c r="E54" s="8"/>
+      <c r="E54" s="10"/>
       <c r="F54" s="9">
-        <v>0.740475932091405</v>
+        <v>0.739763749617646</v>
       </c>
       <c r="G54" s="9">
-        <v>0.0287357123094708</v>
+        <v>0.0305503524482954</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="4">
-        <v>34.0</v>
+        <v>53.0</v>
       </c>
       <c r="B55" s="6">
-        <v>100.0</v>
+        <v>288986.0</v>
       </c>
       <c r="C55" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" s="6">
         <v>0.0</v>
       </c>
-      <c r="E55" s="8"/>
+      <c r="E55" s="10"/>
       <c r="F55" s="9">
-        <v>0.740992871464021</v>
+        <v>0.750405136652986</v>
       </c>
       <c r="G55" s="9">
-        <v>0.0283730484353459</v>
+        <v>0.0394166603126876</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="4">
-        <v>15.0</v>
+        <v>54.0</v>
       </c>
       <c r="B56" s="6">
-        <v>48.0</v>
+        <v>1406.0</v>
       </c>
       <c r="C56" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D56" s="6">
         <v>0.0</v>
       </c>
-      <c r="E56" s="6">
-        <v>11.0</v>
-      </c>
+      <c r="E56" s="10"/>
       <c r="F56" s="9">
-        <v>0.740848227172587</v>
+        <v>0.740667829043681</v>
       </c>
       <c r="G56" s="9">
-        <v>0.0276265952337153</v>
+        <v>0.0252873696986685</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="4">
-        <v>46.0</v>
+        <v>55.0</v>
       </c>
       <c r="B57" s="6">
-        <v>117.0</v>
+        <v>988.0</v>
       </c>
       <c r="C57" s="7">
         <f t="shared" si="1"/>
@@ -1792,42 +1872,42 @@
       <c r="D57" s="6">
         <v>0.0</v>
       </c>
-      <c r="E57" s="8"/>
+      <c r="E57" s="10"/>
       <c r="F57" s="9">
-        <v>0.743715119047067</v>
+        <v>0.748795945673727</v>
       </c>
       <c r="G57" s="9">
-        <v>0.0269103567242156</v>
+        <v>0.0327545775142378</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="4">
-        <v>4.0</v>
+        <v>56.0</v>
       </c>
       <c r="B58" s="6">
-        <v>2.0</v>
+        <v>19.0</v>
       </c>
       <c r="C58" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D58" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E58" s="10"/>
       <c r="F58" s="9">
-        <v>0.739754248150703</v>
+        <v>0.740298381301372</v>
       </c>
       <c r="G58" s="9">
-        <v>0.0266328097093283</v>
+        <v>0.0261071500985969</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="4">
-        <v>40.0</v>
+        <v>57.0</v>
       </c>
       <c r="B59" s="6">
-        <v>41.0</v>
+        <v>96.0</v>
       </c>
       <c r="C59" s="7">
         <f t="shared" si="1"/>
@@ -1836,64 +1916,64 @@
       <c r="D59" s="6">
         <v>0.0</v>
       </c>
-      <c r="E59" s="8"/>
+      <c r="E59" s="10"/>
       <c r="F59" s="9">
-        <v>0.739814967606423</v>
+        <v>0.739746755546436</v>
       </c>
       <c r="G59" s="9">
-        <v>0.0265813559639231</v>
+        <v>0.0211272427700812</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="4">
-        <v>59.0</v>
+        <v>58.0</v>
       </c>
       <c r="B60" s="6">
-        <v>34954.0</v>
+        <v>24.0</v>
       </c>
       <c r="C60" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" s="6">
         <v>0.0</v>
       </c>
-      <c r="E60" s="8"/>
+      <c r="E60" s="10"/>
       <c r="F60" s="9">
-        <v>0.739831801938552</v>
+        <v>0.741820115814069</v>
       </c>
       <c r="G60" s="9">
-        <v>0.0263665170456766</v>
+        <v>0.0302095151501275</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4">
-        <v>56.0</v>
+        <v>59.0</v>
       </c>
       <c r="B61" s="6">
-        <v>19.0</v>
+        <v>34954.0</v>
       </c>
       <c r="C61" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D61" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E61" s="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="E61" s="10"/>
       <c r="F61" s="9">
-        <v>0.740298381301372</v>
+        <v>0.739831801938552</v>
       </c>
       <c r="G61" s="9">
-        <v>0.0261071500985969</v>
+        <v>0.0263665170456766</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="4">
-        <v>54.0</v>
+        <v>60.0</v>
       </c>
       <c r="B62" s="6">
-        <v>1406.0</v>
+        <v>259917.0</v>
       </c>
       <c r="C62" s="7">
         <f t="shared" si="1"/>
@@ -1902,42 +1982,42 @@
       <c r="D62" s="6">
         <v>0.0</v>
       </c>
-      <c r="E62" s="8"/>
+      <c r="E62" s="10"/>
       <c r="F62" s="9">
-        <v>0.740667829043681</v>
+        <v>0.740027801139258</v>
       </c>
       <c r="G62" s="9">
-        <v>0.0252873696986685</v>
+        <v>0.0183806178357539</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="4">
-        <v>71.0</v>
+        <v>61.0</v>
       </c>
       <c r="B63" s="6">
-        <v>5657.0</v>
+        <v>7.0</v>
       </c>
       <c r="C63" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D63" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E63" s="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="E63" s="10"/>
       <c r="F63" s="9">
-        <v>0.739769001022285</v>
+        <v>0.743091663748846</v>
       </c>
       <c r="G63" s="9">
-        <v>0.0246415839789077</v>
+        <v>0.0197027217967393</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4">
-        <v>14.0</v>
+        <v>62.0</v>
       </c>
       <c r="B64" s="6">
-        <v>2.0</v>
+        <v>239.0</v>
       </c>
       <c r="C64" s="7">
         <f t="shared" si="1"/>
@@ -1946,132 +2026,130 @@
       <c r="D64" s="6">
         <v>0.0</v>
       </c>
-      <c r="E64" s="6">
-        <v>11.0</v>
-      </c>
+      <c r="E64" s="10"/>
       <c r="F64" s="9">
-        <v>0.74011589799131</v>
+        <v>0.745476523954227</v>
       </c>
       <c r="G64" s="9">
-        <v>0.0243284287837943</v>
+        <v>0.0300326365210213</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="4">
-        <v>92.0</v>
+        <v>63.0</v>
       </c>
       <c r="B65" s="6">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="C65" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D65" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E65" s="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="E65" s="10"/>
       <c r="F65" s="9">
-        <v>0.740997070703913</v>
+        <v>0.742434783048822</v>
       </c>
       <c r="G65" s="9">
-        <v>0.0242738201225171</v>
+        <v>-0.0127911242989884</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="4">
-        <v>93.0</v>
+        <v>64.0</v>
       </c>
       <c r="B66" s="6">
-        <v>1.0</v>
+        <v>390.0</v>
       </c>
       <c r="C66" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D66" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E66" s="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="E66" s="10"/>
       <c r="F66" s="9">
-        <v>0.740928311659923</v>
+        <v>0.741046254808785</v>
       </c>
       <c r="G66" s="9">
-        <v>0.0242738201225171</v>
+        <v>0.0217890225948516</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="4">
-        <v>94.0</v>
+        <v>65.0</v>
       </c>
       <c r="B67" s="6">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
       <c r="C67" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D67" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E67" s="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="E67" s="10"/>
       <c r="F67" s="9">
-        <v>0.740800775418775</v>
+        <v>0.743389860135086</v>
       </c>
       <c r="G67" s="9">
-        <v>0.0242738201225171</v>
+        <v>0.0291883808804943</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4">
-        <v>95.0</v>
+        <v>66.0</v>
       </c>
       <c r="B68" s="6">
-        <v>1.0</v>
+        <v>16729.0</v>
       </c>
       <c r="C68" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E68" s="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="E68" s="10"/>
       <c r="F68" s="9">
-        <v>0.740695831329429</v>
+        <v>0.742543626181382</v>
       </c>
       <c r="G68" s="9">
-        <v>0.0242738201225171</v>
+        <v>0.0203950581440931</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="4">
-        <v>96.0</v>
+        <v>67.0</v>
       </c>
       <c r="B69" s="6">
-        <v>1.0</v>
+        <v>314.0</v>
       </c>
       <c r="C69" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D69" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E69" s="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="E69" s="10"/>
       <c r="F69" s="9">
-        <v>0.740512765537219</v>
+        <v>0.739789638495468</v>
       </c>
       <c r="G69" s="9">
-        <v>0.0242738201225171</v>
+        <v>0.0194925210387665</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4">
-        <v>72.0</v>
+        <v>68.0</v>
       </c>
       <c r="B70" s="6">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="C70" s="7">
         <f t="shared" si="1"/>
@@ -2080,42 +2158,42 @@
       <c r="D70" s="6">
         <v>1.0</v>
       </c>
-      <c r="E70" s="8"/>
+      <c r="E70" s="10"/>
       <c r="F70" s="9">
-        <v>0.740424503631487</v>
+        <v>0.739927076828208</v>
       </c>
       <c r="G70" s="9">
-        <v>0.0242738201225171</v>
+        <v>0.0234276228348266</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="4">
-        <v>97.0</v>
+        <v>69.0</v>
       </c>
       <c r="B71" s="6">
-        <v>1.0</v>
+        <v>23.0</v>
       </c>
       <c r="C71" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D71" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E71" s="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="E71" s="10"/>
       <c r="F71" s="9">
-        <v>0.740340838455325</v>
+        <v>0.739839449135007</v>
       </c>
       <c r="G71" s="9">
-        <v>0.0242738201225171</v>
+        <v>0.0235396155661006</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="4">
-        <v>77.0</v>
+        <v>70.0</v>
       </c>
       <c r="B72" s="6">
-        <v>17.0</v>
+        <v>1.0</v>
       </c>
       <c r="C72" s="7">
         <f t="shared" si="1"/>
@@ -2124,46 +2202,42 @@
       <c r="D72" s="6">
         <v>1.0</v>
       </c>
-      <c r="E72" s="6">
-        <v>1.0</v>
-      </c>
+      <c r="E72" s="10"/>
       <c r="F72" s="9">
-        <v>0.741343955537083</v>
+        <v>0.739879195610923</v>
       </c>
       <c r="G72" s="9">
-        <v>0.0242700760024888</v>
+        <v>0.0234751644123976</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="4">
-        <v>76.0</v>
+        <v>71.0</v>
       </c>
       <c r="B73" s="6">
-        <v>23.0</v>
+        <v>5657.0</v>
       </c>
       <c r="C73" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D73" s="6">
         <v>1.0</v>
       </c>
-      <c r="E73" s="6">
-        <v>1.0</v>
-      </c>
+      <c r="E73" s="10"/>
       <c r="F73" s="9">
-        <v>0.741038326053177</v>
+        <v>0.739769001022285</v>
       </c>
       <c r="G73" s="9">
-        <v>0.0242699514311721</v>
+        <v>0.0246415839789077</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="4">
-        <v>75.0</v>
+        <v>72.0</v>
       </c>
       <c r="B74" s="6">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="C74" s="7">
         <f t="shared" si="1"/>
@@ -2172,83 +2246,81 @@
       <c r="D74" s="6">
         <v>1.0</v>
       </c>
-      <c r="E74" s="6">
-        <v>1.0</v>
-      </c>
+      <c r="E74" s="10"/>
       <c r="F74" s="9">
-        <v>0.741273784631634</v>
+        <v>0.740424503631487</v>
       </c>
       <c r="G74" s="9">
-        <v>0.0242699277916847</v>
+        <v>0.0242738201225171</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="4">
-        <v>81.0</v>
+        <v>73.0</v>
       </c>
       <c r="B75" s="6">
-        <v>234.0</v>
+        <v>23.0</v>
       </c>
       <c r="C75" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D75" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E75" s="6">
-        <v>9.0</v>
+        <v>1.0</v>
       </c>
       <c r="F75" s="9">
-        <v>0.74062669822008</v>
+        <v>0.741525242175239</v>
       </c>
       <c r="G75" s="9">
-        <v>0.0242699277916847</v>
+        <v>0.0364820917282723</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="4">
-        <v>80.0</v>
+        <v>74.0</v>
       </c>
       <c r="B76" s="6">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="C76" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D76" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E76" s="6">
         <v>1.0</v>
       </c>
       <c r="F76" s="9">
-        <v>0.740037224395711</v>
+        <v>0.740010134368817</v>
       </c>
       <c r="G76" s="9">
-        <v>0.0242699277916847</v>
+        <v>0.0242578059394732</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4">
-        <v>78.0</v>
+        <v>75.0</v>
       </c>
       <c r="B77" s="6">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="C77" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D77" s="6">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="E77" s="6">
         <v>1.0</v>
       </c>
       <c r="F77" s="9">
-        <v>0.739985679960152</v>
+        <v>0.741273784631634</v>
       </c>
       <c r="G77" s="9">
         <v>0.0242699277916847</v>
@@ -2256,7 +2328,7 @@
     </row>
     <row r="78">
       <c r="A78" s="4">
-        <v>79.0</v>
+        <v>76.0</v>
       </c>
       <c r="B78" s="6">
         <v>23.0</v>
@@ -2272,85 +2344,87 @@
         <v>1.0</v>
       </c>
       <c r="F78" s="9">
-        <v>0.74123843942218</v>
+        <v>0.741038326053177</v>
       </c>
       <c r="G78" s="9">
-        <v>0.0242698747303798</v>
+        <v>0.0242699514311721</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="4">
-        <v>8.0</v>
+        <v>77.0</v>
       </c>
       <c r="B79" s="6">
-        <v>2508.0</v>
+        <v>17.0</v>
       </c>
       <c r="C79" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D79" s="6">
         <v>1.0</v>
       </c>
       <c r="E79" s="6">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="F79" s="9">
-        <v>0.740159763313303</v>
+        <v>0.741343955537083</v>
       </c>
       <c r="G79" s="9">
-        <v>0.0242698346638798</v>
+        <v>0.0242700760024888</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="4">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
       <c r="B80" s="6">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="C80" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D80" s="6">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="E80" s="6">
         <v>1.0</v>
       </c>
       <c r="F80" s="9">
-        <v>0.740010134368817</v>
+        <v>0.739985679960152</v>
       </c>
       <c r="G80" s="9">
-        <v>0.0242578059394732</v>
+        <v>0.0242699277916847</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="4">
-        <v>7.0</v>
+        <v>79.0</v>
       </c>
       <c r="B81" s="6">
-        <v>60.0</v>
+        <v>23.0</v>
       </c>
       <c r="C81" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D81" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E81" s="10"/>
+        <v>1.0</v>
+      </c>
+      <c r="E81" s="6">
+        <v>1.0</v>
+      </c>
       <c r="F81" s="9">
-        <v>0.740410205109339</v>
+        <v>0.74123843942218</v>
       </c>
       <c r="G81" s="9">
-        <v>0.0237109676500874</v>
+        <v>0.0242698747303798</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="4">
-        <v>69.0</v>
+        <v>80.0</v>
       </c>
       <c r="B82" s="6">
         <v>23.0</v>
@@ -2362,64 +2436,70 @@
       <c r="D82" s="6">
         <v>0.0</v>
       </c>
-      <c r="E82" s="8"/>
+      <c r="E82" s="6">
+        <v>1.0</v>
+      </c>
       <c r="F82" s="9">
-        <v>0.739839449135007</v>
+        <v>0.740037224395711</v>
       </c>
       <c r="G82" s="9">
-        <v>0.0235396155661006</v>
+        <v>0.0242699277916847</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="4">
-        <v>70.0</v>
+        <v>81.0</v>
       </c>
       <c r="B83" s="6">
-        <v>1.0</v>
+        <v>234.0</v>
       </c>
       <c r="C83" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D83" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E83" s="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="E83" s="6">
+        <v>9.0</v>
+      </c>
       <c r="F83" s="9">
-        <v>0.739879195610923</v>
+        <v>0.74062669822008</v>
       </c>
       <c r="G83" s="9">
-        <v>0.0234751644123976</v>
+        <v>0.0242699277916847</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="4">
-        <v>68.0</v>
+        <v>82.0</v>
       </c>
       <c r="B84" s="6">
-        <v>5.0</v>
+        <v>532.0</v>
       </c>
       <c r="C84" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D84" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="E84" s="8"/>
+        <v>0.0</v>
+      </c>
+      <c r="E84" s="6">
+        <v>2.0</v>
+      </c>
       <c r="F84" s="9">
-        <v>0.739927076828208</v>
+        <v>0.740613043251635</v>
       </c>
       <c r="G84" s="9">
-        <v>0.0234276228348266</v>
+        <v>0.155404593756242</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="4">
-        <v>19.0</v>
+        <v>83.0</v>
       </c>
       <c r="B85" s="6">
-        <v>766.0</v>
+        <v>689.0</v>
       </c>
       <c r="C85" s="7">
         <f t="shared" si="1"/>
@@ -2428,20 +2508,22 @@
       <c r="D85" s="6">
         <v>0.0</v>
       </c>
-      <c r="E85" s="8"/>
+      <c r="E85" s="6">
+        <v>9.0</v>
+      </c>
       <c r="F85" s="9">
-        <v>0.749728806573107</v>
+        <v>0.740833822949908</v>
       </c>
       <c r="G85" s="9">
-        <v>0.0230581608914394</v>
+        <v>0.176185322230955</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="4">
-        <v>12.0</v>
+        <v>84.0</v>
       </c>
       <c r="B86" s="6">
-        <v>39.0</v>
+        <v>726.0</v>
       </c>
       <c r="C86" s="7">
         <f t="shared" si="1"/>
@@ -2450,20 +2532,22 @@
       <c r="D86" s="6">
         <v>0.0</v>
       </c>
-      <c r="E86" s="8"/>
+      <c r="E86" s="6">
+        <v>2.0</v>
+      </c>
       <c r="F86" s="9">
-        <v>0.740089968187218</v>
+        <v>0.740547986202615</v>
       </c>
       <c r="G86" s="9">
-        <v>0.0229567710015223</v>
+        <v>0.18514354666262</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="4">
-        <v>20.0</v>
+        <v>85.0</v>
       </c>
       <c r="B87" s="6">
-        <v>862.0</v>
+        <v>746.0</v>
       </c>
       <c r="C87" s="7">
         <f t="shared" si="1"/>
@@ -2472,20 +2556,22 @@
       <c r="D87" s="6">
         <v>0.0</v>
       </c>
-      <c r="E87" s="8"/>
+      <c r="E87" s="6">
+        <v>2.0</v>
+      </c>
       <c r="F87" s="9">
-        <v>0.742757078987824</v>
+        <v>0.741812651162541</v>
       </c>
       <c r="G87" s="9">
-        <v>0.0227981629390395</v>
+        <v>0.186146428753938</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="4">
-        <v>30.0</v>
+        <v>86.0</v>
       </c>
       <c r="B88" s="6">
-        <v>50.0</v>
+        <v>743.0</v>
       </c>
       <c r="C88" s="7">
         <f t="shared" si="1"/>
@@ -2495,21 +2581,21 @@
         <v>0.0</v>
       </c>
       <c r="E88" s="6">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="F88" s="9">
-        <v>0.741328512403892</v>
+        <v>0.741128845343718</v>
       </c>
       <c r="G88" s="9">
-        <v>0.0227941884727096</v>
+        <v>0.186466811988465</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="4">
-        <v>37.0</v>
+        <v>87.0</v>
       </c>
       <c r="B89" s="6">
-        <v>42.0</v>
+        <v>749.0</v>
       </c>
       <c r="C89" s="7">
         <f t="shared" si="1"/>
@@ -2518,20 +2604,22 @@
       <c r="D89" s="6">
         <v>0.0</v>
       </c>
-      <c r="E89" s="8"/>
+      <c r="E89" s="6">
+        <v>2.0</v>
+      </c>
       <c r="F89" s="9">
-        <v>0.739825982292879</v>
+        <v>0.741184783827072</v>
       </c>
       <c r="G89" s="9">
-        <v>0.0224520628167191</v>
+        <v>0.186470416672814</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="4">
-        <v>31.0</v>
+        <v>88.0</v>
       </c>
       <c r="B90" s="6">
-        <v>3.0</v>
+        <v>749.0</v>
       </c>
       <c r="C90" s="7">
         <f t="shared" si="1"/>
@@ -2540,20 +2628,22 @@
       <c r="D90" s="6">
         <v>0.0</v>
       </c>
-      <c r="E90" s="8"/>
+      <c r="E90" s="6">
+        <v>2.0</v>
+      </c>
       <c r="F90" s="9">
-        <v>0.739771561903325</v>
+        <v>0.740280940367345</v>
       </c>
       <c r="G90" s="9">
-        <v>0.0221607323351388</v>
+        <v>0.18645454168679</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4">
-        <v>64.0</v>
+        <v>89.0</v>
       </c>
       <c r="B91" s="6">
-        <v>390.0</v>
+        <v>749.0</v>
       </c>
       <c r="C91" s="7">
         <f t="shared" si="1"/>
@@ -2562,17 +2652,19 @@
       <c r="D91" s="6">
         <v>0.0</v>
       </c>
-      <c r="E91" s="8"/>
+      <c r="E91" s="6">
+        <v>2.0</v>
+      </c>
       <c r="F91" s="9">
-        <v>0.741046254808785</v>
+        <v>0.740705184405319</v>
       </c>
       <c r="G91" s="9">
-        <v>0.0217890225948516</v>
+        <v>0.18645454168679</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4">
-        <v>5.0</v>
+        <v>90.0</v>
       </c>
       <c r="B92" s="6">
         <v>2.0</v>
@@ -2584,20 +2676,22 @@
       <c r="D92" s="6">
         <v>0.0</v>
       </c>
-      <c r="E92" s="10"/>
+      <c r="E92" s="6">
+        <v>3.0</v>
+      </c>
       <c r="F92" s="9">
-        <v>0.74211166919656</v>
+        <v>0.741125148205752</v>
       </c>
       <c r="G92" s="9">
-        <v>0.0216277064894057</v>
+        <v>0.0380418258974892</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="4">
-        <v>57.0</v>
+        <v>91.0</v>
       </c>
       <c r="B93" s="6">
-        <v>96.0</v>
+        <v>3.0</v>
       </c>
       <c r="C93" s="7">
         <f t="shared" si="1"/>
@@ -2606,152 +2700,154 @@
       <c r="D93" s="6">
         <v>0.0</v>
       </c>
-      <c r="E93" s="8"/>
+      <c r="E93" s="6">
+        <v>3.0</v>
+      </c>
       <c r="F93" s="9">
-        <v>0.739746755546436</v>
+        <v>0.740055157245987</v>
       </c>
       <c r="G93" s="9">
-        <v>0.0211272427700812</v>
+        <v>0.0379714636465472</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="4">
-        <v>66.0</v>
+        <v>92.0</v>
       </c>
       <c r="B94" s="6">
-        <v>16729.0</v>
+        <v>1.0</v>
       </c>
       <c r="C94" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D94" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E94" s="8"/>
+        <v>1.0</v>
+      </c>
+      <c r="E94" s="10"/>
       <c r="F94" s="9">
-        <v>0.742543626181382</v>
+        <v>0.740997070703913</v>
       </c>
       <c r="G94" s="9">
-        <v>0.0203950581440931</v>
+        <v>0.0242738201225171</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="4">
-        <v>36.0</v>
+        <v>93.0</v>
       </c>
       <c r="B95" s="6">
-        <v>17345.0</v>
+        <v>1.0</v>
       </c>
       <c r="C95" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D95" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E95" s="8"/>
+        <v>1.0</v>
+      </c>
+      <c r="E95" s="10"/>
       <c r="F95" s="9">
-        <v>0.739747887922217</v>
+        <v>0.740928311659923</v>
       </c>
       <c r="G95" s="9">
-        <v>0.0199731184006737</v>
+        <v>0.0242738201225171</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="4">
-        <v>61.0</v>
+        <v>94.0</v>
       </c>
       <c r="B96" s="6">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="C96" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D96" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E96" s="8"/>
+        <v>1.0</v>
+      </c>
+      <c r="E96" s="10"/>
       <c r="F96" s="9">
-        <v>0.743091663748846</v>
+        <v>0.740800775418775</v>
       </c>
       <c r="G96" s="9">
-        <v>0.0197027217967393</v>
+        <v>0.0242738201225171</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="4">
-        <v>67.0</v>
+        <v>95.0</v>
       </c>
       <c r="B97" s="6">
-        <v>314.0</v>
+        <v>1.0</v>
       </c>
       <c r="C97" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D97" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E97" s="8"/>
+        <v>1.0</v>
+      </c>
+      <c r="E97" s="10"/>
       <c r="F97" s="9">
-        <v>0.739789638495468</v>
+        <v>0.740695831329429</v>
       </c>
       <c r="G97" s="9">
-        <v>0.0194925210387665</v>
+        <v>0.0242738201225171</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="4">
-        <v>35.0</v>
+        <v>96.0</v>
       </c>
       <c r="B98" s="6">
-        <v>171.0</v>
+        <v>1.0</v>
       </c>
       <c r="C98" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D98" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E98" s="8"/>
+        <v>1.0</v>
+      </c>
+      <c r="E98" s="10"/>
       <c r="F98" s="9">
-        <v>0.739894511777231</v>
+        <v>0.740512765537219</v>
       </c>
       <c r="G98" s="9">
-        <v>0.0192386204049412</v>
+        <v>0.0242738201225171</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="4">
-        <v>60.0</v>
+        <v>97.0</v>
       </c>
       <c r="B99" s="6">
-        <v>259917.0</v>
+        <v>1.0</v>
       </c>
       <c r="C99" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D99" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="E99" s="8"/>
+        <v>1.0</v>
+      </c>
+      <c r="E99" s="10"/>
       <c r="F99" s="9">
-        <v>0.740027801139258</v>
+        <v>0.740340838455325</v>
       </c>
       <c r="G99" s="9">
-        <v>0.0183806178357539</v>
+        <v>0.0242738201225171</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="4">
-        <v>63.0</v>
+        <v>98.0</v>
       </c>
       <c r="B100" s="6">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="C100" s="7">
         <f t="shared" si="1"/>
@@ -2760,20 +2856,22 @@
       <c r="D100" s="6">
         <v>0.0</v>
       </c>
-      <c r="E100" s="8"/>
+      <c r="E100" s="10">
+        <v>4.0</v>
+      </c>
       <c r="F100" s="9">
-        <v>0.742434783048822</v>
+        <v>0.94</v>
       </c>
       <c r="G100" s="9">
-        <v>-0.0127911242989884</v>
+        <v>0.998550282879953</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="4">
-        <v>39.0</v>
+        <v>99.0</v>
       </c>
       <c r="B101" s="6">
-        <v>128.0</v>
+        <v>2.0</v>
       </c>
       <c r="C101" s="7">
         <f t="shared" si="1"/>
@@ -2782,12 +2880,14 @@
       <c r="D101" s="6">
         <v>0.0</v>
       </c>
-      <c r="E101" s="8"/>
+      <c r="E101" s="10">
+        <v>4.0</v>
+      </c>
       <c r="F101" s="9">
-        <v>0.742074146042638</v>
+        <v>0.94</v>
       </c>
       <c r="G101" s="9">
-        <v>-0.0130381587757506</v>
+        <v>0.998550282879953</v>
       </c>
     </row>
     <row r="102">
@@ -2809,7 +2909,7 @@
     <row r="103">
       <c r="A103" s="12"/>
       <c r="C103" s="7"/>
-      <c r="E103" s="8"/>
+      <c r="E103" s="10"/>
       <c r="F103" s="13"/>
       <c r="G103" s="11"/>
     </row>
@@ -8198,9 +8298,12 @@
   </sheetData>
   <autoFilter ref="$A$1:$H$102">
     <sortState ref="A1:H102">
+      <sortCondition ref="A1:A102"/>
+      <sortCondition ref="B1:B102"/>
+      <sortCondition ref="E1:E102"/>
+      <sortCondition ref="C1:C102"/>
+      <sortCondition descending="1" ref="F1:F102"/>
       <sortCondition descending="1" ref="G1:G102"/>
-      <sortCondition descending="1" ref="F1:F102"/>
-      <sortCondition ref="A1:A102"/>
     </sortState>
   </autoFilter>
   <conditionalFormatting sqref="C1:C102 D1:D102">
@@ -8227,9 +8330,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.63"/>
-    <col customWidth="1" min="2" max="2" width="37.5"/>
-    <col customWidth="1" min="3" max="3" width="44.0"/>
+    <col customWidth="1" min="1" max="2" width="35.63"/>
+    <col customWidth="1" min="3" max="3" width="37.5"/>
+    <col customWidth="1" min="4" max="4" width="44.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -8242,86 +8345,312 @@
       <c r="C1" s="16" t="s">
         <v>10</v>
       </c>
+      <c r="D1" s="17" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="B2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="21"/>
     </row>
     <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>16</v>
-      </c>
+      <c r="A4" s="18"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="20"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5">
-      <c r="A5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="B5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="26"/>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="B6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="26"/>
     </row>
     <row r="7">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="20"/>
+      <c r="A7" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="26"/>
     </row>
     <row r="8">
-      <c r="A8" s="21"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="20"/>
+      <c r="A8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="26"/>
     </row>
     <row r="9">
-      <c r="A9" s="21"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="20"/>
+      <c r="A9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="20"/>
+      <c r="A10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="26"/>
     </row>
     <row r="11">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="20"/>
+      <c r="A11" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="26"/>
     </row>
     <row r="12">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="20"/>
+      <c r="A12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="26"/>
     </row>
     <row r="13">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="20"/>
+      <c r="A13" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="27"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="26"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
